--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -19,12 +19,12 @@
     <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="190">
   <si>
     <t>id|任务id</t>
   </si>
@@ -606,18 +606,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>fish_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_tiny_game_coin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>enter_game_xiaoxiaole</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -671,18 +663,6 @@
   </si>
   <si>
     <t>complete_caibei_game</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -738,6 +718,96 @@
   </si>
   <si>
     <t>jykp_award</t>
+  </si>
+  <si>
+    <t>fish_coin</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼10条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼累计在线60分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用任务捕鱼技能3次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中使用技能3次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计捕鱼10条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线60分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计开炮1000次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮1000炮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3d捕鱼游戏中击杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条彩金鱼</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -809,7 +879,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,12 +890,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -874,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,12 +965,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,46 +977,68 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1236,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1265,7 +1345,7 @@
     <col min="19" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1313,10 +1393,10 @@
       <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>137</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1392,7 +1472,7 @@
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1702,10 +1782,10 @@
       <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="6">
@@ -1728,31 +1808,31 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="16">
         <v>12512</v>
       </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="16">
         <v>12512</v>
       </c>
-      <c r="H13" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="H13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="6">
@@ -1762,242 +1842,242 @@
         <v>32503651200</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
         <v>12513</v>
       </c>
-      <c r="B14" s="21">
-        <v>1</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="23">
         <v>12513</v>
       </c>
-      <c r="H14" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="H14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23">
         <v>946677600</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
         <v>12514</v>
       </c>
-      <c r="B15" s="21">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="23">
+        <v>0</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="23">
         <v>12514</v>
       </c>
-      <c r="H15" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="H15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23">
         <v>946677600</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
         <v>12515</v>
       </c>
-      <c r="B16" s="21">
-        <v>1</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="23">
+        <v>0</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="23">
         <v>12515</v>
       </c>
-      <c r="H16" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="H16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1</v>
+      </c>
+      <c r="J16" s="23">
         <v>946677600</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+    <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>12516</v>
       </c>
-      <c r="B17" s="21">
-        <v>1</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="16">
         <v>12516</v>
       </c>
-      <c r="H17" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="H17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16">
         <v>946677600</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="16">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+    <row r="18" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
         <v>12517</v>
       </c>
-      <c r="B18" s="21">
-        <v>1</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="21">
+      <c r="F18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="23">
         <v>12517</v>
       </c>
-      <c r="H18" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="H18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="23">
         <v>946677600</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+    <row r="19" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
         <v>12518</v>
       </c>
-      <c r="B19" s="21">
-        <v>1</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="23">
         <v>12518</v>
       </c>
-      <c r="H19" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="H19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23">
         <v>946677600</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="23">
         <v>32503651200</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="16">
         <v>12519</v>
       </c>
-      <c r="B20" s="21">
-        <v>1</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="16">
         <v>12519</v>
       </c>
-      <c r="H20" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H20" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
         <v>1</v>
       </c>
       <c r="J20" s="6">
@@ -2007,55 +2087,195 @@
         <v>32503651200</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>12520</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="16">
+        <v>12520</v>
+      </c>
+      <c r="H21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K21" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L21" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>12521</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="16">
+        <v>12521</v>
+      </c>
+      <c r="H22" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1</v>
+      </c>
+      <c r="J22" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K22" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L22" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>12522</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="16">
+        <v>12522</v>
+      </c>
+      <c r="H23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K23" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L23" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>12523</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="16">
+        <v>12523</v>
+      </c>
+      <c r="H24" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K24" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L24" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
         <v>13000</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G25" s="16">
         <v>13000</v>
       </c>
-      <c r="H21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="H25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1</v>
+      </c>
+      <c r="J25" s="16">
         <v>946677600</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K25" s="16">
         <v>32503651200</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L25" s="16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="1"/>
@@ -2078,69 +2298,61 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.2">
@@ -2767,6 +2979,26 @@
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="G180" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2781,7 +3013,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2819,7 +3051,7 @@
         <v>43</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="13"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -3085,231 +3317,312 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+    <row r="13" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="16">
         <v>12512</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15">
         <v>12</v>
       </c>
-      <c r="E13" s="20">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
         <v>1001</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+    <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="23">
         <v>12513</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26">
         <v>13</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="26">
         <v>500000</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="23">
         <v>1002</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+    <row r="15" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="16">
         <v>12514</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="20">
+      <c r="C15" s="18"/>
+      <c r="D15" s="15">
         <v>14</v>
       </c>
-      <c r="E15" s="20">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
         <v>1003</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+    <row r="16" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="23">
         <v>12515</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26">
         <v>15</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="26">
         <v>2</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="23">
         <v>1004</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+    <row r="17" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="23">
         <v>12516</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26">
         <v>16</v>
       </c>
-      <c r="E17" s="20">
-        <v>2</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="E17" s="26">
+        <v>3</v>
+      </c>
+      <c r="F17" s="23">
         <v>1005</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="H17" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="23">
         <v>12517</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26">
         <v>17</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="26">
         <v>3</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="23">
         <v>1006</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+    <row r="19" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="23">
         <v>12518</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26">
         <v>18</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="26">
         <v>5</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="23">
         <v>1007</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="16">
         <v>12519</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
         <v>19</v>
       </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
         <v>1008</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="16">
+        <v>12520</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15">
+        <v>20</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1009</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>12521</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15">
+        <v>21</v>
+      </c>
+      <c r="E22" s="20">
+        <v>10</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1010</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>12522</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="15">
+        <v>22</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1011</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16">
+        <v>12523</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="15">
+        <v>23</v>
+      </c>
+      <c r="E24" s="20">
+        <v>3600</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1012</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16">
         <v>13000</v>
       </c>
-      <c r="D21" s="1">
-        <v>20</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F25" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G25" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="6"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F24" s="6"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F27" s="6"/>
@@ -3319,7 +3632,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
@@ -3345,7 +3658,7 @@
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F37" s="6"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F38" s="6"/>
@@ -3371,7 +3684,7 @@
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
-      <c r="H45" s="12"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
@@ -3397,7 +3710,7 @@
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
@@ -3423,7 +3736,7 @@
     </row>
     <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
@@ -3449,7 +3762,7 @@
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
@@ -3475,7 +3788,7 @@
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
-      <c r="H77" s="12"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
@@ -3498,7 +3811,7 @@
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
-      <c r="H84" s="12"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
@@ -3521,7 +3834,7 @@
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
@@ -3823,10 +4136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A22:XFD29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3846,14 +4159,14 @@
       <c r="C1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>154</v>
+      <c r="D1" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>155</v>
+      <c r="F1" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3866,7 +4179,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="7">
@@ -3880,7 +4193,7 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="7">
@@ -4111,361 +4424,398 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="15">
         <v>12</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>1015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+    <row r="21" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="15">
         <v>12</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>1015</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+    <row r="22" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="26">
         <v>13</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+    <row r="23" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="26">
         <v>13</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
+    <row r="24" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="26">
         <v>13</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26">
+        <v>13</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26">
+        <v>13</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26">
+        <v>13</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26">
+        <v>13</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26">
+        <v>13</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D29" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20">
-        <v>13</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="21">
+    <row r="30" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>14</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="16">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26">
+        <v>15</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26">
+        <v>16</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26">
+        <v>17</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20">
-        <v>13</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="21">
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="26">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26">
+        <v>17</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20">
-        <v>13</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="21">
+    <row r="35" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26">
+        <v>17</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
-        <v>27</v>
-      </c>
-      <c r="B28" s="20">
-        <v>13</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="21">
+    <row r="36" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26">
+        <v>35</v>
+      </c>
+      <c r="B36" s="26">
+        <v>17</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20">
-        <v>13</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="21">
+    <row r="37" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="26">
+        <v>36</v>
+      </c>
+      <c r="B37" s="26">
+        <v>17</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20">
-        <v>14</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20">
-        <v>15</v>
-      </c>
-      <c r="C31" s="24" t="s">
+    <row r="38" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26">
+        <v>37</v>
+      </c>
+      <c r="B38" s="26">
+        <v>17</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26">
+        <v>17</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26">
+        <v>39</v>
+      </c>
+      <c r="B40" s="26">
+        <v>17</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="26">
+        <v>17</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
+        <v>41</v>
+      </c>
+      <c r="B42" s="26">
+        <v>18</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15">
+        <v>19</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15">
+        <v>20</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15">
+        <v>21</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="20">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20">
-        <v>16</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="21">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20">
-        <v>17</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="20">
+      <c r="D45" s="16">
         <v>0</v>
       </c>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="20">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20">
-        <v>17</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="20">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20">
-        <v>17</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
-        <v>35</v>
-      </c>
-      <c r="B36" s="20">
-        <v>17</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
-        <v>36</v>
-      </c>
-      <c r="B37" s="20">
-        <v>17</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20">
-        <v>17</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
-        <v>38</v>
-      </c>
-      <c r="B39" s="20">
-        <v>17</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="20">
-        <v>39</v>
-      </c>
-      <c r="B40" s="20">
-        <v>17</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="20">
-        <v>40</v>
-      </c>
-      <c r="B41" s="20">
-        <v>17</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
-        <v>41</v>
-      </c>
-      <c r="B42" s="20">
-        <v>18</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="20">
-        <v>42</v>
-      </c>
-      <c r="B43" s="20">
-        <v>19</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="20">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49"/>
+    </row>
+    <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15">
+        <v>22</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="20">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
+        <v>23</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="20">
+        <v>1022</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4476,10 +4826,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4675,7 +5025,7 @@
       <c r="B11" s="6">
         <v>1010</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -4758,92 +5108,152 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+    <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="16">
         <v>1015</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="16">
         <v>1016</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>2</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="26">
         <v>1017</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="20">
+        <v>166</v>
+      </c>
+      <c r="E18" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="23">
         <v>1018</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="16">
         <v>1019</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="15">
         <v>600</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="15">
         <v>3</v>
       </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1020</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1021</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1022</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4854,7 +5264,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -4876,624 +5286,699 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
         <v>1001</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="21">
-        <v>800</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="16">
+        <v>100</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="16">
         <v>1001</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="C3" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="16">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="23">
+        <v>30</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="23">
+        <v>30</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="23">
+        <v>30</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="16">
+        <v>30</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1006</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="23">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1006</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="23">
+        <v>40</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1007</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1007</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="23">
+        <v>30</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="16">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="16">
+        <v>50</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1009</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
+        <v>1009</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="16">
         <v>20</v>
       </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <f>D2+D4+D6+D8+D10+D12+D14+D16+D24+D27+D28+D31+D32+D33</f>
-        <v>107300</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <f>B2+1</f>
-        <v>1002</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16">
+        <v>1010</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1010</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="16">
+        <v>20</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="21">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <f t="shared" ref="B5:B23" si="0">B3+1</f>
-        <v>1002</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="D22" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1011</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="16">
         <v>30</v>
       </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="16">
+        <v>30</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="16">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23">
+        <v>2001</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23">
+        <v>2001</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="23">
+        <v>2</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23">
+        <v>2002</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E28" s="23">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
+        <v>2002</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23">
+        <v>2003</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E30" s="23">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23">
+        <v>2003</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23">
+        <v>2004</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23">
+        <v>2004</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <f t="shared" si="0"/>
-        <v>1003</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="21">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <f t="shared" si="0"/>
-        <v>1003</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="21">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <f t="shared" si="0"/>
-        <v>1004</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="21">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <f t="shared" si="0"/>
-        <v>1004</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="21">
-        <v>30</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="21">
-        <v>2500</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="D33" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="21">
-        <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="21">
-        <v>20</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21">
-        <f t="shared" si="0"/>
-        <v>1006</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="21">
-        <v>3500</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <f t="shared" si="0"/>
-        <v>1006</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="21">
-        <v>40</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
-        <f t="shared" si="0"/>
-        <v>1007</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="21">
-        <v>2500</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21">
-        <f t="shared" si="0"/>
-        <v>1007</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="21">
-        <v>30</v>
-      </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21">
-        <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="23">
         <v>50000</v>
       </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21">
-        <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="21">
-        <v>60</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="0"/>
-        <v>1009</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>203000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" si="0"/>
-        <v>1009</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="21">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="21">
-        <v>2</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <v>25</v>
-      </c>
-      <c r="B26" s="21">
-        <v>2002</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="21">
-        <v>10</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
-        <v>26</v>
-      </c>
-      <c r="B27" s="21">
-        <v>2002</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
-        <v>27</v>
-      </c>
-      <c r="B28" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
-        <v>28</v>
-      </c>
-      <c r="B29" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="21">
-        <v>3</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
-        <v>29</v>
-      </c>
-      <c r="B30" s="21">
-        <v>2004</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="21">
-        <v>20</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21">
-        <v>2004</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
-        <v>31</v>
-      </c>
-      <c r="B32" s="21">
+      <c r="E34" s="23">
+        <v>1</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23">
         <v>2005</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
-        <v>32</v>
-      </c>
-      <c r="B33" s="21">
-        <v>2005</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E33" s="21">
-        <v>1</v>
-      </c>
+      <c r="C35" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="23">
+        <v>50</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -746,10 +746,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼累计在线60分钟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_game_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -767,10 +763,6 @@
   </si>
   <si>
     <t>3D捕鱼中累计捕鱼10条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中累计在线60分钟</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -807,6 +799,14 @@
       </rPr>
       <t>条彩金鱼</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼累计在线90分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线90分钟</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -2174,7 +2174,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>14</v>
@@ -2212,7 +2212,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>14</v>
@@ -3013,7 +3013,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3434,7 +3434,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3530,7 +3530,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3578,7 +3578,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3593,7 +3593,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="20">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="F24" s="16">
         <v>1012</v>
@@ -3602,7 +3602,7 @@
         <v>44</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4139,7 +4139,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4829,7 +4829,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5226,7 +5226,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>68</v>
@@ -5244,7 +5244,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>68</v>
@@ -5267,7 +5267,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5493,7 +5493,7 @@
         <v>87</v>
       </c>
       <c r="D10" s="16">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="16">
         <v>1</v>
@@ -5645,7 +5645,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="16">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
@@ -5679,7 +5679,7 @@
         <v>177</v>
       </c>
       <c r="D20" s="16">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -5713,7 +5713,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="16">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="16">
         <v>1</v>
@@ -5781,7 +5781,7 @@
         <v>173</v>
       </c>
       <c r="D26" s="23">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E26" s="23">
         <v>1</v>
@@ -5823,7 +5823,7 @@
         <v>173</v>
       </c>
       <c r="D28" s="23">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E28" s="23">
         <v>1</v>
@@ -5865,7 +5865,7 @@
         <v>173</v>
       </c>
       <c r="D30" s="23">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E30" s="23">
         <v>1</v>
@@ -5907,7 +5907,7 @@
         <v>173</v>
       </c>
       <c r="D32" s="23">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="E32" s="23">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         <v>178</v>
       </c>
       <c r="D34" s="23">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E34" s="23">
         <v>1</v>
@@ -5970,7 +5970,7 @@
         <v>175</v>
       </c>
       <c r="D35" s="23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E35" s="23">
         <v>1</v>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -738,10 +738,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_game_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -755,6 +751,10 @@
   </si>
   <si>
     <t>3D捕鱼中使用技能3次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计捕鱼10条</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -806,7 +806,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中累计捕鱼100条</t>
+    <t>obj_3d_50flq_86400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -3011,9 +3011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3530,7 +3530,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4130,7 +4130,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5226,7 +5226,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>68</v>
@@ -5244,7 +5244,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>68</v>
@@ -5266,8 +5266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5676,10 +5676,7 @@
         <v>1010</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="16">
-        <v>5000</v>
+        <v>189</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -5946,7 +5943,7 @@
         <v>2005</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34" s="23">
         <v>30000</v>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -742,10 +742,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>累计捕鱼10条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_game_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -759,10 +755,6 @@
   </si>
   <si>
     <t>3D捕鱼中使用技能3次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中累计捕鱼10条</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -807,6 +799,14 @@
   </si>
   <si>
     <t>3D捕鱼中累计在线90分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼100条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计捕鱼100条</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -2136,7 +2136,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>14</v>
@@ -2174,7 +2174,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>14</v>
@@ -2212,7 +2212,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>14</v>
@@ -3011,9 +3011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3434,7 +3434,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3530,7 +3530,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3545,7 +3545,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F22" s="16">
         <v>1010</v>
@@ -3554,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3578,7 +3578,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3602,7 +3602,7 @@
         <v>44</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -5226,7 +5226,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>68</v>
@@ -5244,7 +5244,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>68</v>
@@ -5266,8 +5266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -3011,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
@@ -5266,8 +5266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -19,12 +19,15 @@
     <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$66</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="230">
   <si>
     <t>id|任务id</t>
   </si>
@@ -104,15 +107,9 @@
     <t>Y累计捕鱼300条</t>
   </si>
   <si>
-    <t>击杀高倍鱼</t>
-  </si>
-  <si>
     <t>Y击杀100倍以上鱼5条</t>
   </si>
   <si>
-    <t>击杀奖励游戏鱼</t>
-  </si>
-  <si>
     <t>Y击杀奖励游戏鱼1条</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>领取一次任务宝藏</t>
   </si>
   <si>
-    <t>击杀BOSS鱼</t>
-  </si>
-  <si>
     <t>Y击杀BOSS鱼1条</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
   </si>
   <si>
     <t>id|顺序id</t>
-  </si>
-  <si>
-    <t>condition_type|条件类型</t>
   </si>
   <si>
     <t>source_id|来源id</t>
@@ -306,9 +297,6 @@
     <t>14,15,16,17,18,20,28,</t>
   </si>
   <si>
-    <t>47,48,49,50,</t>
-  </si>
-  <si>
     <t>award_id|奖励配置id</t>
   </si>
   <si>
@@ -480,10 +468,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>在3d捕鱼游戏中击杀2条彩金鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>参与3种不同的游戏</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -540,10 +524,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>单笔充值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>task_13000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -586,23 +566,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>base_fish_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,21,22,23,24,25,26,27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>charge_any</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_money</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -723,13 +691,6 @@
     <t>fish_coin</t>
   </si>
   <si>
-    <t>shop_gold_sum</t>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -809,12 +770,243 @@
     <t>obj_3d_50flq_86400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人活跃任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_type|条件类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看广告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看两次广告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀彩金鱼</t>
+  </si>
+  <si>
+    <t>在3d捕鱼游戏中击杀3条彩金鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3d捕鱼游戏中击杀5条彩金鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值大于10元</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀高倍鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y击杀100倍以上鱼5条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀50倍以上鱼5条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀奖励游戏鱼1条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值大于30元</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3d捕鱼游戏中击杀10条彩金鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值大于100元</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在捕鱼中累计赢金1000万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在捕鱼中累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在捕鱼中累计赢金20万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀100倍以上鱼5条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀BOSS鱼1条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀BOSS鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在捕鱼中累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀奖励游戏鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀高倍鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_any</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_money</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq_86400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch_ad</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀100倍以上鱼8条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀100倍以上鱼8条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_200flq_86400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀BOSS鱼1条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中累计赢金1000万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3d捕鱼游戏中击杀10条彩金鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,47,48,49,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,21,22,23,24,25,26,27,38,39,40,41,43,46,47,48,49,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq_86400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,8 +1070,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,6 +1095,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1031,13 +1237,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1394,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -1415,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K2" s="6">
         <v>32503651200</v>
@@ -1456,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K3" s="6">
         <v>32503651200</v>
@@ -1473,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
@@ -1494,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K4" s="6">
         <v>32503651200</v>
@@ -1532,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K5" s="6">
         <v>32503651200</v>
@@ -1570,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K6" s="6">
         <v>32503651200</v>
@@ -1608,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K7" s="6">
         <v>32503651200</v>
@@ -1625,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -1646,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K8" s="6">
         <v>32503651200</v>
@@ -1655,41 +1888,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41">
         <v>12508</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="B9" s="41">
+        <v>1</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="41">
         <v>12508</v>
       </c>
-      <c r="H9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>946677600</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="H9" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="41">
+        <v>1</v>
+      </c>
+      <c r="J9" s="41">
+        <v>946656000</v>
+      </c>
+      <c r="K9" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -1701,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -1722,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K10" s="6">
         <v>32503651200</v>
@@ -1739,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
@@ -1760,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K11" s="6">
         <v>32503651200</v>
@@ -1769,41 +2002,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="12" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41">
         <v>12511</v>
       </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="B12" s="41">
+        <v>1</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="41">
         <v>12511</v>
       </c>
-      <c r="H12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>946677600</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="H12" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="41">
+        <v>1</v>
+      </c>
+      <c r="J12" s="41">
+        <v>946656000</v>
+      </c>
+      <c r="K12" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -1815,16 +2048,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G13" s="16">
         <v>12512</v>
@@ -1836,10 +2069,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K13" s="6">
         <v>32503651200</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -1850,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G14" s="23">
         <v>12513</v>
@@ -1871,10 +2107,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="23">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K14" s="23">
         <v>32503651200</v>
+      </c>
+      <c r="L14" s="23">
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -1885,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G15" s="23">
         <v>12514</v>
@@ -1906,10 +2145,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="23">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K15" s="23">
         <v>32503651200</v>
+      </c>
+      <c r="L15" s="23">
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -1920,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="F16" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G16" s="23">
         <v>12515</v>
@@ -1941,10 +2183,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="23">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K16" s="23">
         <v>32503651200</v>
+      </c>
+      <c r="L16" s="23">
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -1955,16 +2200,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G17" s="16">
         <v>12516</v>
@@ -1976,45 +2221,51 @@
         <v>1</v>
       </c>
       <c r="J17" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K17" s="16">
         <v>32503651200</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="L17" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42">
         <v>12517</v>
       </c>
-      <c r="B18" s="23">
-        <v>0</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="B18" s="42">
+        <v>1</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="42">
         <v>12517</v>
       </c>
-      <c r="H18" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="23">
-        <v>1</v>
-      </c>
-      <c r="J18" s="23">
-        <v>946677600</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="H18" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42">
+        <v>1</v>
+      </c>
+      <c r="J18" s="42">
+        <v>946656000</v>
+      </c>
+      <c r="K18" s="42">
         <v>32503651200</v>
+      </c>
+      <c r="L18" s="42">
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -2025,16 +2276,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G19" s="23">
         <v>12518</v>
@@ -2046,10 +2297,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="23">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K19" s="23">
         <v>32503651200</v>
+      </c>
+      <c r="L19" s="23">
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2059,17 +2313,17 @@
       <c r="B20" s="16">
         <v>1</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>120</v>
+      <c r="C20" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G20" s="16">
         <v>12519</v>
@@ -2081,10 +2335,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K20" s="6">
         <v>32503651200</v>
+      </c>
+      <c r="L20" s="6">
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -2098,7 +2355,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -2116,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K21" s="16">
         <v>32503651200</v>
@@ -2136,7 +2393,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>14</v>
@@ -2154,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K22" s="16">
         <v>32503651200</v>
@@ -2174,7 +2431,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>14</v>
@@ -2192,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K23" s="16">
         <v>32503651200</v>
@@ -2212,7 +2469,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>14</v>
@@ -2230,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K24" s="16">
         <v>32503651200</v>
@@ -2239,190 +2496,652 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+    <row r="25" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="45">
+        <v>12524</v>
+      </c>
+      <c r="B25" s="45">
+        <v>1</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="45">
+        <v>12524</v>
+      </c>
+      <c r="H25" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="38">
+        <v>1</v>
+      </c>
+      <c r="J25" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K25" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L25" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="45">
+        <v>12525</v>
+      </c>
+      <c r="B26" s="45">
+        <v>1</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="45">
+        <v>12525</v>
+      </c>
+      <c r="H26" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="38">
+        <v>1</v>
+      </c>
+      <c r="J26" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K26" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L26" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="45">
+        <v>12526</v>
+      </c>
+      <c r="B27" s="45">
+        <v>1</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="45">
+        <v>12526</v>
+      </c>
+      <c r="H27" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="38">
+        <v>1</v>
+      </c>
+      <c r="J27" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K27" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L27" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="45">
+        <v>12527</v>
+      </c>
+      <c r="B28" s="45">
+        <v>1</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="45">
+        <v>12527</v>
+      </c>
+      <c r="H28" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="38">
+        <v>1</v>
+      </c>
+      <c r="J28" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K28" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L28" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="45">
+        <v>12528</v>
+      </c>
+      <c r="B29" s="45">
+        <v>1</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="45">
+        <v>12528</v>
+      </c>
+      <c r="H29" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="38">
+        <v>1</v>
+      </c>
+      <c r="J29" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K29" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L29" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="45">
+        <v>12529</v>
+      </c>
+      <c r="B30" s="45">
+        <v>1</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="45">
+        <v>12529</v>
+      </c>
+      <c r="H30" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="38">
+        <v>1</v>
+      </c>
+      <c r="J30" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K30" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L30" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="45">
+        <v>12530</v>
+      </c>
+      <c r="B31" s="45">
+        <v>1</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="45">
+        <v>12530</v>
+      </c>
+      <c r="H31" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="38">
+        <v>1</v>
+      </c>
+      <c r="J31" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K31" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L31" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="45">
+        <v>12531</v>
+      </c>
+      <c r="B32" s="45">
+        <v>1</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="45">
+        <v>12531</v>
+      </c>
+      <c r="H32" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="38">
+        <v>1</v>
+      </c>
+      <c r="J32" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K32" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L32" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="45">
+        <v>12532</v>
+      </c>
+      <c r="B33" s="45">
+        <v>1</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="45">
+        <v>12532</v>
+      </c>
+      <c r="H33" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="38">
+        <v>1</v>
+      </c>
+      <c r="J33" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K33" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L33" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="45">
+        <v>12533</v>
+      </c>
+      <c r="B34" s="45">
+        <v>1</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="45">
+        <v>12533</v>
+      </c>
+      <c r="H34" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="38">
+        <v>1</v>
+      </c>
+      <c r="J34" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K34" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L34" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45">
+        <v>12534</v>
+      </c>
+      <c r="B35" s="45">
+        <v>1</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="45">
+        <v>12534</v>
+      </c>
+      <c r="H35" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="38">
+        <v>1</v>
+      </c>
+      <c r="J35" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K35" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L35" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45">
+        <v>12535</v>
+      </c>
+      <c r="B36" s="45">
+        <v>1</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="45">
+        <v>12535</v>
+      </c>
+      <c r="H36" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="38">
+        <v>1</v>
+      </c>
+      <c r="J36" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K36" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L36" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45">
+        <v>12536</v>
+      </c>
+      <c r="B37" s="45">
+        <v>1</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="45">
+        <v>12536</v>
+      </c>
+      <c r="H37" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="38">
+        <v>1</v>
+      </c>
+      <c r="J37" s="38">
+        <v>946656000</v>
+      </c>
+      <c r="K37" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L37" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="41">
+        <v>12537</v>
+      </c>
+      <c r="B38" s="41">
+        <v>1</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="41">
+        <v>12537</v>
+      </c>
+      <c r="H38" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="41">
+        <v>1</v>
+      </c>
+      <c r="J38" s="41">
+        <v>946656000</v>
+      </c>
+      <c r="K38" s="41">
+        <v>32503651200</v>
+      </c>
+      <c r="L38" s="41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
         <v>13000</v>
       </c>
-      <c r="B25" s="16">
-        <v>1</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="B39" s="16">
+        <v>1</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F39" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G39" s="16">
         <v>13000</v>
       </c>
-      <c r="H25" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16">
-        <v>1</v>
-      </c>
-      <c r="J25" s="16">
-        <v>946677600</v>
-      </c>
-      <c r="K25" s="16">
+      <c r="H39" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="16">
+        <v>1</v>
+      </c>
+      <c r="J39" s="16">
+        <v>946656000</v>
+      </c>
+      <c r="K39" s="16">
         <v>32503651200</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L39" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
@@ -2999,6 +3718,76 @@
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="G194" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3009,11 +3798,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3030,27 +3819,29 @@
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3071,7 +3862,7 @@
         <v>1001</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>13</v>
@@ -3095,7 +3886,7 @@
         <v>1002</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>18</v>
@@ -3119,7 +3910,7 @@
         <v>1003</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>19</v>
@@ -3143,7 +3934,7 @@
         <v>1004</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>21</v>
@@ -3167,7 +3958,7 @@
         <v>1005</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>23</v>
@@ -3191,7 +3982,7 @@
         <v>1006</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>25</v>
@@ -3215,34 +4006,34 @@
         <v>1007</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38">
+        <v>12508</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="37">
+        <v>8</v>
+      </c>
+      <c r="E9" s="39">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1026</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>12508</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1008</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3263,10 +4054,10 @@
         <v>1009</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3287,38 +4078,38 @@
         <v>1010</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="38">
         <v>12511</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="1">
+      <c r="C12" s="43"/>
+      <c r="D12" s="37">
         <v>11</v>
       </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1011</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>35</v>
+      <c r="E12" s="39">
+        <v>1</v>
+      </c>
+      <c r="F12" s="38">
+        <v>1027</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="16">
@@ -3335,14 +4126,14 @@
         <v>1001</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="23">
@@ -3359,38 +4150,38 @@
         <v>1002</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="23">
         <v>12514</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15">
+      <c r="C15" s="28"/>
+      <c r="D15" s="26">
         <v>14</v>
       </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23">
         <v>1003</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>115</v>
+      <c r="G15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="23">
@@ -3407,62 +4198,62 @@
         <v>1004</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="16">
         <v>12516</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
         <v>16</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="15">
         <v>3</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="16">
         <v>1005</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+      <c r="G17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="38">
         <v>12517</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37">
         <v>17</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="37">
         <v>3</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="38">
         <v>1006</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>118</v>
+      <c r="G18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="23">
@@ -3479,14 +4270,14 @@
         <v>1007</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="16">
@@ -3503,14 +4294,14 @@
         <v>1008</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="16">
@@ -3527,14 +4318,14 @@
         <v>1009</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="16">
@@ -3551,14 +4342,14 @@
         <v>1010</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="16">
@@ -3575,14 +4366,14 @@
         <v>1011</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="16">
@@ -3599,108 +4390,405 @@
         <v>1012</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="38">
+        <v>12524</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44">
+        <v>24</v>
+      </c>
+      <c r="E25" s="45">
+        <v>2</v>
+      </c>
+      <c r="F25" s="45">
+        <v>1013</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="38">
+        <v>12525</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44">
+        <v>25</v>
+      </c>
+      <c r="E26" s="45">
+        <v>200000</v>
+      </c>
+      <c r="F26" s="45">
+        <v>1014</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="38">
+        <v>12526</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44">
+        <v>26</v>
+      </c>
+      <c r="E27" s="45">
+        <v>5</v>
+      </c>
+      <c r="F27" s="45">
+        <v>1015</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="38">
+        <v>12527</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44">
+        <v>27</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="45">
+        <v>1016</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="38">
+        <v>12528</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44">
+        <v>28</v>
+      </c>
+      <c r="E29" s="45">
+        <v>500000</v>
+      </c>
+      <c r="F29" s="45">
+        <v>1017</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="38">
+        <v>12529</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44">
+        <v>29</v>
+      </c>
+      <c r="E30" s="45">
+        <v>5</v>
+      </c>
+      <c r="F30" s="45">
+        <v>1018</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="38">
+        <v>12530</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44">
+        <v>30</v>
+      </c>
+      <c r="E31" s="45">
+        <v>3000</v>
+      </c>
+      <c r="F31" s="45">
+        <v>1019</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="38">
+        <v>12531</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44">
+        <v>31</v>
+      </c>
+      <c r="E32" s="44">
+        <v>1000000</v>
+      </c>
+      <c r="F32" s="45">
+        <v>1020</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="38">
+        <v>12532</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44">
+        <v>32</v>
+      </c>
+      <c r="E33" s="45">
+        <v>5</v>
+      </c>
+      <c r="F33" s="45">
+        <v>1021</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="38">
+        <v>12533</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44">
+        <v>33</v>
+      </c>
+      <c r="E34" s="45">
+        <v>10</v>
+      </c>
+      <c r="F34" s="45">
+        <v>1022</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="38">
+        <v>12534</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44">
+        <v>34</v>
+      </c>
+      <c r="E35" s="45">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="45">
+        <v>1023</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="38">
+        <v>12535</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44">
+        <v>35</v>
+      </c>
+      <c r="E36" s="44">
+        <v>10000000</v>
+      </c>
+      <c r="F36" s="45">
+        <v>1024</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="38">
+        <v>12536</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44">
+        <v>32</v>
+      </c>
+      <c r="E37" s="45">
+        <v>8</v>
+      </c>
+      <c r="F37" s="45">
+        <v>1025</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="38">
+        <v>12537</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37">
+        <v>11</v>
+      </c>
+      <c r="E38" s="39">
+        <v>1</v>
+      </c>
+      <c r="F38" s="38">
+        <v>1028</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16">
         <v>13000</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F29" s="6"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F32" s="6"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F37" s="6"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F40" s="6"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
-      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
@@ -3710,23 +4798,23 @@
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
-      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
-      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
@@ -3736,23 +4824,23 @@
     </row>
     <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
-      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
-      <c r="H64" s="1"/>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
@@ -3762,23 +4850,23 @@
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
-      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
-      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
+      <c r="H74" s="1"/>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
@@ -3788,40 +4876,39 @@
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
-      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
-      <c r="H80" s="1"/>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
+      <c r="H82" s="1"/>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
-      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
-      <c r="H86" s="1"/>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
@@ -3831,10 +4918,10 @@
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
+      <c r="H90" s="1"/>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
-      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
@@ -3844,40 +4931,36 @@
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
-      <c r="H94" s="1"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
+      <c r="H96" s="1"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
-      <c r="H98" s="1"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
-      <c r="H99" s="1"/>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
-      <c r="H100" s="1"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
-      <c r="H101" s="1"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
-      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
-      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
@@ -3885,15 +4968,12 @@
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
-      <c r="H105" s="1"/>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
-      <c r="H106" s="1"/>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
-      <c r="H107" s="1"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
@@ -4126,6 +5206,46 @@
     <row r="165" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F165" s="6"/>
       <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F166" s="6"/>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F167" s="6"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F168" s="6"/>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F169" s="6"/>
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F170" s="6"/>
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F171" s="6"/>
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F172" s="6"/>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F173" s="6"/>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F174" s="6"/>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F175" s="6"/>
+      <c r="H175" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4136,10 +5256,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4151,22 +5271,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4180,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7">
         <v>1001</v>
@@ -4194,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7">
         <v>1002</v>
@@ -4208,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
         <v>1003</v>
@@ -4222,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
         <v>1004</v>
@@ -4236,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -4250,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -4264,7 +5384,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
         <v>1005</v>
@@ -4278,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" s="7">
         <v>1006</v>
@@ -4292,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
         <v>1007</v>
@@ -4306,7 +5426,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
         <v>1008</v>
@@ -4320,7 +5440,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
@@ -4334,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
@@ -4348,7 +5468,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
         <v>1009</v>
@@ -4362,7 +5482,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
         <v>1010</v>
@@ -4376,7 +5496,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
         <v>1011</v>
@@ -4390,7 +5510,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
         <v>1012</v>
@@ -4404,7 +5524,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7">
         <v>1013</v>
@@ -4418,7 +5538,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
         <v>1014</v>
@@ -4432,7 +5552,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D20" s="16">
         <v>1015</v>
@@ -4446,7 +5566,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D21" s="16">
         <v>1015</v>
@@ -4460,7 +5580,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" s="23">
         <v>0</v>
@@ -4474,7 +5594,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="D23" s="23">
         <v>0</v>
@@ -4488,7 +5608,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D24" s="23">
         <v>0</v>
@@ -4502,7 +5622,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D25" s="23">
         <v>0</v>
@@ -4516,7 +5636,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D26" s="23">
         <v>0</v>
@@ -4530,7 +5650,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D27" s="23">
         <v>0</v>
@@ -4544,7 +5664,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
@@ -4558,7 +5678,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D29" s="23">
         <v>0</v>
@@ -4572,7 +5692,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D30" s="16">
         <v>1016</v>
@@ -4586,7 +5706,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D31" s="26">
         <v>1017</v>
@@ -4600,7 +5720,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="D32" s="23">
         <v>1018</v>
@@ -4614,7 +5734,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D33" s="26">
         <v>0</v>
@@ -4629,7 +5749,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D34" s="26">
         <v>0</v>
@@ -4643,7 +5763,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D35" s="26">
         <v>0</v>
@@ -4657,7 +5777,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D36" s="26">
         <v>0</v>
@@ -4671,7 +5791,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D37" s="26">
         <v>0</v>
@@ -4685,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D38" s="26">
         <v>0</v>
@@ -4699,7 +5819,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D39" s="26">
         <v>0</v>
@@ -4713,7 +5833,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D40" s="26">
         <v>0</v>
@@ -4727,7 +5847,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D41" s="26">
         <v>0</v>
@@ -4741,80 +5861,444 @@
         <v>18</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D42" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
       <c r="B43" s="15">
         <v>19</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D43" s="15">
         <v>1019</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
       <c r="B44" s="15">
         <v>20</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D44" s="20">
         <v>1020</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="15">
         <v>21</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D45" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
       <c r="B46" s="15">
         <v>22</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D46" s="20">
         <v>1021</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="26">
         <v>46</v>
       </c>
       <c r="B47" s="15">
         <v>23</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D47" s="20">
         <v>1022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="26">
+        <v>47</v>
+      </c>
+      <c r="B48" s="37">
+        <v>24</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26">
+        <v>48</v>
+      </c>
+      <c r="B49" s="37">
+        <v>25</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="26">
+        <v>49</v>
+      </c>
+      <c r="B50" s="37">
+        <v>26</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="38">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="26">
+        <v>50</v>
+      </c>
+      <c r="B51" s="37">
+        <v>27</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="26">
+        <v>51</v>
+      </c>
+      <c r="B52" s="37">
+        <v>28</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="26">
+        <v>52</v>
+      </c>
+      <c r="B53" s="37">
+        <v>29</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="39">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="26">
+        <v>53</v>
+      </c>
+      <c r="B54" s="37">
+        <v>30</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="26">
+        <v>54</v>
+      </c>
+      <c r="B55" s="37">
+        <v>31</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="26">
+        <v>55</v>
+      </c>
+      <c r="B56" s="37">
+        <v>31</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="26">
+        <v>56</v>
+      </c>
+      <c r="B57" s="37">
+        <v>31</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="26">
+        <v>57</v>
+      </c>
+      <c r="B58" s="37">
+        <v>31</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="26">
+        <v>58</v>
+      </c>
+      <c r="B59" s="37">
+        <v>31</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="26">
+        <v>59</v>
+      </c>
+      <c r="B60" s="37">
+        <v>31</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26">
+        <v>60</v>
+      </c>
+      <c r="B61" s="37">
+        <v>31</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="26">
+        <v>61</v>
+      </c>
+      <c r="B62" s="37">
+        <v>31</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="26">
+        <v>62</v>
+      </c>
+      <c r="B63" s="37">
+        <v>32</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="39">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="26">
+        <v>63</v>
+      </c>
+      <c r="B64" s="37">
+        <v>33</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="38">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="26">
+        <v>64</v>
+      </c>
+      <c r="B65" s="37">
+        <v>34</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="26">
+        <v>65</v>
+      </c>
+      <c r="B66" s="37">
+        <v>35</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="26">
+        <v>66</v>
+      </c>
+      <c r="B67" s="37">
+        <v>35</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26">
+        <v>67</v>
+      </c>
+      <c r="B68" s="37">
+        <v>35</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="26">
+        <v>68</v>
+      </c>
+      <c r="B69" s="37">
+        <v>35</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="26">
+        <v>69</v>
+      </c>
+      <c r="B70" s="37">
+        <v>35</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="26">
+        <v>70</v>
+      </c>
+      <c r="B71" s="37">
+        <v>35</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="26">
+        <v>71</v>
+      </c>
+      <c r="B72" s="37">
+        <v>35</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="26">
+        <v>72</v>
+      </c>
+      <c r="B73" s="37">
+        <v>35</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4826,10 +6310,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4844,22 +6328,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4870,10 +6354,10 @@
         <v>1001</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -4887,10 +6371,10 @@
         <v>1002</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4904,10 +6388,10 @@
         <v>1003</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -4921,10 +6405,10 @@
         <v>1004</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -4938,10 +6422,10 @@
         <v>1005</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -4955,10 +6439,10 @@
         <v>1006</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -4972,10 +6456,10 @@
         <v>1007</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -4990,10 +6474,10 @@
         <v>1008</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -5008,10 +6492,10 @@
         <v>1009</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -5026,10 +6510,10 @@
         <v>1010</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -5044,10 +6528,10 @@
         <v>1011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -5062,10 +6546,10 @@
         <v>1012</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -5080,10 +6564,10 @@
         <v>1013</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -5098,10 +6582,10 @@
         <v>1014</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -5116,10 +6600,10 @@
         <v>1015</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
@@ -5135,10 +6619,10 @@
         <v>1016</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E17" s="15">
         <v>2</v>
@@ -5153,11 +6637,11 @@
       <c r="B18" s="26">
         <v>1017</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>144</v>
+      <c r="C18" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E18" s="26">
         <v>2</v>
@@ -5172,10 +6656,10 @@
         <v>1018</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>228</v>
       </c>
       <c r="E19" s="26">
         <v>2</v>
@@ -5183,14 +6667,14 @@
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="23">
         <v>19</v>
       </c>
       <c r="B20" s="16">
         <v>1019</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>148</v>
+      <c r="C20" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="D20" s="15">
         <v>600</v>
@@ -5201,17 +6685,17 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="23">
         <v>20</v>
       </c>
       <c r="B21" s="16">
         <v>1020</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E21" s="15">
         <v>2</v>
@@ -5219,17 +6703,17 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="A22" s="23">
         <v>21</v>
       </c>
       <c r="B22" s="16">
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E22" s="15">
         <v>2</v>
@@ -5237,23 +6721,40 @@
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="23">
         <v>22</v>
       </c>
       <c r="B23" s="16">
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E23" s="15">
         <v>2</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1023</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5264,10 +6765,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5286,32 +6787,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -5322,7 +6823,7 @@
         <v>1001</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D2" s="16">
         <v>100</v>
@@ -5331,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -5342,7 +6843,7 @@
         <v>1001</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D3" s="16">
         <v>10</v>
@@ -5359,7 +6860,7 @@
         <v>1002</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" s="23">
         <v>2500</v>
@@ -5370,7 +6871,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I4" s="16"/>
     </row>
@@ -5382,7 +6883,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D5" s="23">
         <v>30</v>
@@ -5393,10 +6894,10 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5407,7 +6908,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="23">
         <v>10000</v>
@@ -5416,9 +6917,9 @@
         <v>1</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="36"/>
+        <v>137</v>
+      </c>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -5428,7 +6929,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D7" s="23">
         <v>30</v>
@@ -5436,8 +6937,8 @@
       <c r="E7" s="23">
         <v>1</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>92</v>
+      <c r="H7" s="35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5448,7 +6949,7 @@
         <v>1004</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D8" s="23">
         <v>2000</v>
@@ -5469,7 +6970,7 @@
         <v>1004</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D9" s="23">
         <v>30</v>
@@ -5490,7 +6991,7 @@
         <v>1005</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" s="16">
         <v>10000</v>
@@ -5507,7 +7008,7 @@
         <v>1005</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11" s="16">
         <v>30</v>
@@ -5520,16 +7021,16 @@
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="38">
         <v>1006</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="23">
-        <v>3500</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="C12" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="38">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="38">
         <v>1</v>
       </c>
       <c r="F12" s="23"/>
@@ -5541,16 +7042,16 @@
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="38">
         <v>1006</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="23">
-        <v>40</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="C13" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="38">
+        <v>30</v>
+      </c>
+      <c r="E13" s="38">
         <v>1</v>
       </c>
       <c r="F13" s="23"/>
@@ -5565,8 +7066,8 @@
       <c r="B14" s="23">
         <v>1007</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>87</v>
+      <c r="C14" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="D14" s="23">
         <v>2500</v>
@@ -5587,7 +7088,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D15" s="23">
         <v>30</v>
@@ -5608,16 +7109,16 @@
         <v>1008</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="D16" s="16">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -5625,7 +7126,7 @@
         <v>1008</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D17" s="16">
         <v>50</v>
@@ -5634,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -5642,7 +7143,7 @@
         <v>1009</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D18" s="16">
         <v>5000</v>
@@ -5651,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -5659,7 +7160,7 @@
         <v>1009</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D19" s="16">
         <v>20</v>
@@ -5668,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -5676,13 +7177,13 @@
         <v>1010</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -5690,7 +7191,7 @@
         <v>1010</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D21" s="16">
         <v>20</v>
@@ -5699,15 +7200,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="16">
         <v>1011</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>87</v>
+      <c r="C22" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="D22" s="16">
         <v>10000</v>
@@ -5716,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -5724,7 +7225,7 @@
         <v>1011</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D23" s="16">
         <v>30</v>
@@ -5733,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -5741,16 +7242,16 @@
         <v>1012</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="D24" s="16">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E24" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -5758,7 +7259,7 @@
         <v>1012</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D25" s="16">
         <v>30</v>
@@ -5767,217 +7268,762 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="B26" s="16">
+        <v>1013</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="16">
         <v>5000</v>
       </c>
-      <c r="E26" s="23">
-        <v>1</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="23">
-        <v>2</v>
-      </c>
-      <c r="E27" s="23">
-        <v>1</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="16">
+        <v>1013</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="16">
+        <v>20</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="23">
-        <v>2002</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="23">
+      <c r="B28" s="16">
+        <f>B26+1</f>
+        <v>1014</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="16">
         <v>10000</v>
       </c>
-      <c r="E28" s="23">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E28" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="23">
-        <v>2002</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="23">
-        <v>1</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="16">
+        <f t="shared" ref="B29:B57" si="0">B27+1</f>
+        <v>1014</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="16">
+        <v>30</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="23">
-        <v>2003</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="23">
-        <v>10000</v>
-      </c>
-      <c r="E30" s="23">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <f t="shared" si="0"/>
+        <v>1015</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="16">
+        <v>15000</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="23">
-        <v>2003</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="23">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
+        <f t="shared" si="0"/>
+        <v>1015</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="16">
+        <v>30</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="23">
-        <v>2004</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="23">
-        <v>10000</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="16">
+        <f t="shared" si="0"/>
+        <v>1016</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="16">
+        <v>50000</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="23">
-        <v>2004</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="23">
-        <v>10</v>
-      </c>
-      <c r="E33" s="23">
-        <v>1</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
+        <f t="shared" si="0"/>
+        <v>1016</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="16">
+        <v>50</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="23">
-        <v>2005</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="23">
-        <v>30000</v>
-      </c>
-      <c r="E34" s="23">
-        <v>1</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="16">
+        <f t="shared" si="0"/>
+        <v>1017</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="16">
+        <v>15000</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="16">
+        <f t="shared" si="0"/>
+        <v>1017</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="16">
+        <v>20</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16">
+        <f t="shared" si="0"/>
+        <v>1018</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16">
+        <f t="shared" si="0"/>
+        <v>1018</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="16">
+        <v>20</v>
+      </c>
+      <c r="E37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16">
+        <f t="shared" si="0"/>
+        <v>1019</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="16">
+        <v>150000</v>
+      </c>
+      <c r="E38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16">
+        <f t="shared" si="0"/>
+        <v>1019</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="16">
+        <v>50</v>
+      </c>
+      <c r="E39" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="16">
+        <v>20</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16">
+        <f t="shared" si="0"/>
+        <v>1021</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="16">
+        <v>50000</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16">
+        <f t="shared" si="0"/>
+        <v>1021</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="16">
+        <v>20</v>
+      </c>
+      <c r="E43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16">
+        <f t="shared" si="0"/>
+        <v>1022</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="16">
+        <v>15000</v>
+      </c>
+      <c r="E44" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16">
+        <f t="shared" si="0"/>
+        <v>1022</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="16">
+        <v>30</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16">
+        <f t="shared" si="0"/>
+        <v>1023</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="16">
+        <v>500000</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16">
+        <f t="shared" si="0"/>
+        <v>1023</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="16">
+        <v>50</v>
+      </c>
+      <c r="E47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="16">
+        <v>50000</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="16">
+        <v>30</v>
+      </c>
+      <c r="E49" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="16">
+        <v>80000</v>
+      </c>
+      <c r="E50" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="16">
+        <v>20</v>
+      </c>
+      <c r="E51" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16">
+        <f t="shared" si="0"/>
+        <v>1026</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16">
+        <f t="shared" si="0"/>
+        <v>1026</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="16">
+        <v>30</v>
+      </c>
+      <c r="E53" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16">
+        <f t="shared" si="0"/>
+        <v>1027</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16">
+        <f t="shared" si="0"/>
+        <v>1027</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="16">
+        <v>30</v>
+      </c>
+      <c r="E55" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16">
+        <f t="shared" si="0"/>
+        <v>1028</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16">
+        <f t="shared" si="0"/>
+        <v>1028</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="16">
+        <v>20</v>
+      </c>
+      <c r="E57" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>57</v>
+      </c>
+      <c r="B58" s="23">
+        <v>2001</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="23">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="23">
+        <v>1</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>58</v>
+      </c>
+      <c r="B59" s="23">
+        <v>2001</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="23">
+        <v>2</v>
+      </c>
+      <c r="E59" s="23">
+        <v>1</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>59</v>
+      </c>
+      <c r="B60" s="23">
+        <v>2002</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E60" s="23">
+        <v>1</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+      <c r="B61" s="23">
+        <v>2002</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="23">
+        <v>1</v>
+      </c>
+      <c r="E61" s="23">
+        <v>1</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
+      <c r="B62" s="23">
+        <v>2003</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="23">
+        <v>1</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
+      <c r="B63" s="23">
+        <v>2003</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E63" s="23">
+        <v>1</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="23">
+        <v>2004</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E64" s="23">
+        <v>1</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>64</v>
+      </c>
+      <c r="B65" s="23">
+        <v>2004</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E65" s="23">
+        <v>1</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
+        <v>65</v>
+      </c>
+      <c r="B66" s="23">
         <v>2005</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="23">
-        <v>30</v>
-      </c>
-      <c r="E35" s="23">
-        <v>1</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="C66" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="23">
+        <v>60000</v>
+      </c>
+      <c r="E66" s="23">
+        <v>1</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C66"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6000,82 +8046,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="260">
   <si>
     <t>id|任务id</t>
   </si>
@@ -925,10 +925,6 @@
     <t>2001,2002,2003,2004,2005</t>
   </si>
   <si>
-    <t>p_task_fish_daily_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>p_task_fish_daily_2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1054,6 +1050,26 @@
   </si>
   <si>
     <t>p_task_fish_daily_no_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_2_no_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_task_fish_daily_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1757,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2114,7 +2130,7 @@
         <v>188</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>15</v>
@@ -2231,7 +2247,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F12" s="74" t="s">
         <v>114</v>
@@ -2387,7 +2403,7 @@
         <v>226</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F16" s="63" t="s">
         <v>115</v>
@@ -2426,7 +2442,7 @@
         <v>180</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F17" s="60" t="s">
         <v>115</v>
@@ -2465,7 +2481,7 @@
         <v>110</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" s="74" t="s">
         <v>225</v>
@@ -2543,7 +2559,7 @@
         <v>112</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>115</v>
@@ -2582,7 +2598,7 @@
         <v>164</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F21" s="59" t="s">
         <v>15</v>
@@ -2621,7 +2637,7 @@
         <v>171</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>15</v>
@@ -2659,8 +2675,8 @@
       <c r="D23" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="60" t="s">
-        <v>235</v>
+      <c r="E23" s="59" t="s">
+        <v>259</v>
       </c>
       <c r="F23" s="59" t="s">
         <v>15</v>
@@ -2699,7 +2715,7 @@
         <v>169</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>15</v>
@@ -2737,8 +2753,8 @@
       <c r="D25" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="70" t="s">
-        <v>236</v>
+      <c r="E25" s="71" t="s">
+        <v>258</v>
       </c>
       <c r="F25" s="71" t="s">
         <v>15</v>
@@ -2777,7 +2793,7 @@
         <v>194</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F26" s="71" t="s">
         <v>15</v>
@@ -2816,7 +2832,7 @@
         <v>181</v>
       </c>
       <c r="E27" s="73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F27" s="76" t="s">
         <v>15</v>
@@ -2855,7 +2871,7 @@
         <v>184</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F28" s="76" t="s">
         <v>15</v>
@@ -2894,7 +2910,7 @@
         <v>193</v>
       </c>
       <c r="E29" s="73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" s="76" t="s">
         <v>15</v>
@@ -2933,7 +2949,7 @@
         <v>187</v>
       </c>
       <c r="E30" s="73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" s="76" t="s">
         <v>15</v>
@@ -2972,7 +2988,7 @@
         <v>189</v>
       </c>
       <c r="E31" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F31" s="77" t="s">
         <v>15</v>
@@ -3011,7 +3027,7 @@
         <v>221</v>
       </c>
       <c r="E32" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F32" s="77" t="s">
         <v>15</v>
@@ -3050,7 +3066,7 @@
         <v>195</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F33" s="77" t="s">
         <v>15</v>
@@ -3089,7 +3105,7 @@
         <v>220</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F34" s="65" t="s">
         <v>15</v>
@@ -3128,7 +3144,7 @@
         <v>191</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>15</v>
@@ -3167,7 +3183,7 @@
         <v>219</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>15</v>
@@ -3206,7 +3222,7 @@
         <v>213</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F37" s="68" t="s">
         <v>15</v>
@@ -3245,7 +3261,7 @@
         <v>196</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F38" s="67" t="s">
         <v>114</v>
@@ -3284,7 +3300,7 @@
         <v>169</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>15</v>
@@ -3323,7 +3339,7 @@
         <v>228</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>15</v>
@@ -3362,7 +3378,7 @@
         <v>230</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>15</v>
@@ -3401,7 +3417,7 @@
         <v>231</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>15</v>
@@ -3440,7 +3456,7 @@
         <v>232</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>15</v>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="303">
   <si>
     <t>id|任务id</t>
   </si>
@@ -969,10 +969,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>p_task_fish_daily_5_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>p_task_fish_daily_1_2_cps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1029,6 +1025,121 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>p_task_fish_daily_1_2_no_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_no_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_2_no_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_task_fish_daily_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006,2007,2008,2009,2010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hammer_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金5万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金10万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金1000万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金500万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金200万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_5_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>p_task_fish_daily_5</t>
     </r>
@@ -1045,31 +1156,88 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>p_task_fish_daily_1_2_no_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_no_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_2_no_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p_task_fish_daily_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_2</t>
-    </r>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金500万</t>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金1000万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金1000万</t>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金1万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金5万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金10万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金1万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金5万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金10万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金500万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1164,7 +1332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,6 +1405,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1277,7 +1457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1493,6 +1673,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1771,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2130,7 +2325,7 @@
         <v>188</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>15</v>
@@ -2403,7 +2598,7 @@
         <v>226</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F16" s="63" t="s">
         <v>115</v>
@@ -2559,7 +2754,7 @@
         <v>112</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>115</v>
@@ -2637,7 +2832,7 @@
         <v>171</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>15</v>
@@ -2676,7 +2871,7 @@
         <v>168</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F23" s="59" t="s">
         <v>15</v>
@@ -2715,7 +2910,7 @@
         <v>169</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>15</v>
@@ -2754,7 +2949,7 @@
         <v>177</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F25" s="71" t="s">
         <v>15</v>
@@ -2871,7 +3066,7 @@
         <v>184</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" s="76" t="s">
         <v>15</v>
@@ -2988,7 +3183,7 @@
         <v>189</v>
       </c>
       <c r="E31" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" s="77" t="s">
         <v>15</v>
@@ -3105,7 +3300,7 @@
         <v>220</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F34" s="65" t="s">
         <v>15</v>
@@ -3144,7 +3339,7 @@
         <v>191</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>15</v>
@@ -3182,8 +3377,8 @@
       <c r="D36" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="67" t="s">
-        <v>241</v>
+      <c r="E36" s="68" t="s">
+        <v>279</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>15</v>
@@ -3300,7 +3495,7 @@
         <v>169</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>15</v>
@@ -3339,7 +3534,7 @@
         <v>228</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>15</v>
@@ -3455,8 +3650,8 @@
       <c r="D43" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="E43" s="47" t="s">
-        <v>246</v>
+      <c r="E43" s="46" t="s">
+        <v>278</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>15</v>
@@ -3481,191 +3676,703 @@
       </c>
       <c r="M43" s="46"/>
     </row>
-    <row r="44" spans="1:13" s="15" customFormat="1">
-      <c r="A44" s="42">
+    <row r="44" spans="1:13" s="39" customFormat="1">
+      <c r="A44" s="46">
+        <v>12600</v>
+      </c>
+      <c r="B44" s="46">
+        <v>1</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="46">
+        <v>12600</v>
+      </c>
+      <c r="H44" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="46">
+        <v>1</v>
+      </c>
+      <c r="J44" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K44" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L44" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="46"/>
+    </row>
+    <row r="45" spans="1:13" s="39" customFormat="1">
+      <c r="A45" s="46">
+        <v>12601</v>
+      </c>
+      <c r="B45" s="46">
+        <v>1</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="46">
+        <v>12601</v>
+      </c>
+      <c r="H45" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="46">
+        <v>1</v>
+      </c>
+      <c r="J45" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K45" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L45" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="46"/>
+    </row>
+    <row r="46" spans="1:13" s="39" customFormat="1">
+      <c r="A46" s="46">
+        <v>12602</v>
+      </c>
+      <c r="B46" s="46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="46">
+        <v>12602</v>
+      </c>
+      <c r="H46" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K46" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L46" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="46"/>
+    </row>
+    <row r="47" spans="1:13" s="39" customFormat="1">
+      <c r="A47" s="46">
+        <v>12603</v>
+      </c>
+      <c r="B47" s="46">
+        <v>1</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="46">
+        <v>12603</v>
+      </c>
+      <c r="H47" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="46">
+        <v>1</v>
+      </c>
+      <c r="J47" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K47" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L47" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="46"/>
+    </row>
+    <row r="48" spans="1:13" s="39" customFormat="1">
+      <c r="A48" s="46">
+        <v>12604</v>
+      </c>
+      <c r="B48" s="46">
+        <v>1</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="46">
+        <v>12604</v>
+      </c>
+      <c r="H48" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="46">
+        <v>1</v>
+      </c>
+      <c r="J48" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K48" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L48" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="46"/>
+    </row>
+    <row r="49" spans="1:13" s="39" customFormat="1">
+      <c r="A49" s="46">
+        <v>12605</v>
+      </c>
+      <c r="B49" s="46">
+        <v>1</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="46">
+        <v>12605</v>
+      </c>
+      <c r="H49" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="46">
+        <v>1</v>
+      </c>
+      <c r="J49" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K49" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L49" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="46"/>
+    </row>
+    <row r="50" spans="1:13" s="39" customFormat="1">
+      <c r="A50" s="46">
+        <v>12606</v>
+      </c>
+      <c r="B50" s="46">
+        <v>1</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="46">
+        <v>12606</v>
+      </c>
+      <c r="H50" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="46">
+        <v>1</v>
+      </c>
+      <c r="J50" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K50" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L50" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="46"/>
+    </row>
+    <row r="51" spans="1:13" s="83" customFormat="1">
+      <c r="A51" s="46">
+        <v>12607</v>
+      </c>
+      <c r="B51" s="82">
+        <v>1</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F51" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="46">
+        <v>12607</v>
+      </c>
+      <c r="H51" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="82">
+        <v>1</v>
+      </c>
+      <c r="J51" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K51" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L51" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M51" s="82"/>
+    </row>
+    <row r="52" spans="1:13" s="83" customFormat="1">
+      <c r="A52" s="46">
+        <v>12608</v>
+      </c>
+      <c r="B52" s="82">
+        <v>1</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F52" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="46">
+        <v>12608</v>
+      </c>
+      <c r="H52" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="82">
+        <v>1</v>
+      </c>
+      <c r="J52" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K52" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L52" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="82"/>
+    </row>
+    <row r="53" spans="1:13" s="83" customFormat="1">
+      <c r="A53" s="46">
+        <v>12609</v>
+      </c>
+      <c r="B53" s="82">
+        <v>1</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="E53" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="46">
+        <v>12609</v>
+      </c>
+      <c r="H53" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="82">
+        <v>1</v>
+      </c>
+      <c r="J53" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K53" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L53" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="82"/>
+    </row>
+    <row r="54" spans="1:13" s="83" customFormat="1">
+      <c r="A54" s="46">
+        <v>12610</v>
+      </c>
+      <c r="B54" s="82">
+        <v>1</v>
+      </c>
+      <c r="C54" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F54" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="46">
+        <v>12610</v>
+      </c>
+      <c r="H54" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="82">
+        <v>1</v>
+      </c>
+      <c r="J54" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K54" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L54" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="82"/>
+    </row>
+    <row r="55" spans="1:13" s="83" customFormat="1">
+      <c r="A55" s="46">
+        <v>12611</v>
+      </c>
+      <c r="B55" s="82">
+        <v>1</v>
+      </c>
+      <c r="C55" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F55" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="46">
+        <v>12611</v>
+      </c>
+      <c r="H55" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="82">
+        <v>1</v>
+      </c>
+      <c r="J55" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K55" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L55" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="82"/>
+    </row>
+    <row r="56" spans="1:13" s="83" customFormat="1">
+      <c r="A56" s="46">
+        <v>12612</v>
+      </c>
+      <c r="B56" s="82">
+        <v>1</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="E56" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F56" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="46">
+        <v>12612</v>
+      </c>
+      <c r="H56" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="82">
+        <v>1</v>
+      </c>
+      <c r="J56" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K56" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L56" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="82"/>
+    </row>
+    <row r="57" spans="1:13" s="83" customFormat="1">
+      <c r="A57" s="46">
+        <v>12613</v>
+      </c>
+      <c r="B57" s="82">
+        <v>1</v>
+      </c>
+      <c r="C57" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F57" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="46">
+        <v>12613</v>
+      </c>
+      <c r="H57" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="82">
+        <v>1</v>
+      </c>
+      <c r="J57" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K57" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L57" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="82"/>
+    </row>
+    <row r="58" spans="1:13" s="15" customFormat="1">
+      <c r="A58" s="42">
         <v>13000</v>
       </c>
-      <c r="B44" s="42">
-        <v>1</v>
-      </c>
-      <c r="C44" s="43" t="s">
+      <c r="B58" s="42">
+        <v>1</v>
+      </c>
+      <c r="C58" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D58" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="42" t="s">
+      <c r="E58" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G58" s="42">
         <v>13000</v>
       </c>
-      <c r="H44" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="42">
-        <v>1</v>
-      </c>
-      <c r="J44" s="42">
+      <c r="H58" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="42">
+        <v>1</v>
+      </c>
+      <c r="J58" s="42">
         <v>946656000</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K58" s="42">
         <v>32503651200</v>
       </c>
-      <c r="L44" s="42">
+      <c r="L58" s="42">
         <v>-1</v>
       </c>
-      <c r="M44" s="42"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="7:7">
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="7:7">
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="7:7">
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="7:7">
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="7:7">
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="7:7">
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="7:7">
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="7:7">
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="7:7">
+      <c r="M58" s="42"/>
+    </row>
+    <row r="59" spans="1:13" s="15" customFormat="1">
+      <c r="A59" s="42">
+        <v>13001</v>
+      </c>
+      <c r="B59" s="42">
+        <v>1</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="42">
+        <v>13001</v>
+      </c>
+      <c r="H59" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="42">
+        <v>1</v>
+      </c>
+      <c r="J59" s="42">
+        <v>946656000</v>
+      </c>
+      <c r="K59" s="42">
+        <v>32503651200</v>
+      </c>
+      <c r="L59" s="42">
+        <v>-1</v>
+      </c>
+      <c r="M59" s="42"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="1:13">
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="1:13">
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="1:13">
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="1:13">
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="7:7">
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="7:7">
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="7:7">
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="3:7">
+    <row r="68" spans="7:7">
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="3:7">
+    <row r="69" spans="7:7">
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="3:7">
+    <row r="70" spans="7:7">
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="3:7">
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+    <row r="71" spans="7:7">
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="3:7">
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+    <row r="72" spans="7:7">
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="3:7">
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+    <row r="73" spans="7:7">
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="3:7">
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+    <row r="74" spans="7:7">
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="3:7">
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+    <row r="75" spans="7:7">
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="3:7">
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+    <row r="76" spans="7:7">
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="3:7">
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+    <row r="77" spans="7:7">
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="3:7">
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
+    <row r="78" spans="7:7">
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="3:7">
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+    <row r="79" spans="7:7">
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="3:7">
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+    <row r="80" spans="7:7">
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="3:7">
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="3:7">
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="3:7">
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="3:7">
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="3:7">
@@ -4242,6 +4949,76 @@
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="3:7">
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="3:7">
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="3:7">
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="3:7">
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="3:7">
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="3:7">
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="3:7">
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="3:7">
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="3:7">
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="3:7">
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="3:7">
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="3:7">
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="3:7">
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="3:7">
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="G213" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4252,11 +5029,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5306,91 +6083,400 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="29" customFormat="1">
-      <c r="A44" s="51">
+    <row r="44" spans="1:8" s="50" customFormat="1">
+      <c r="A44" s="55">
         <v>43</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="47">
+        <v>12600</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55">
+        <v>36</v>
+      </c>
+      <c r="E44" s="47">
+        <v>10000</v>
+      </c>
+      <c r="F44" s="47">
+        <v>1034</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="50" customFormat="1">
+      <c r="A45" s="55">
+        <v>44</v>
+      </c>
+      <c r="B45" s="47">
+        <v>12601</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55">
+        <v>36</v>
+      </c>
+      <c r="E45" s="47">
+        <v>50000</v>
+      </c>
+      <c r="F45" s="47">
+        <v>1035</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="50" customFormat="1">
+      <c r="A46" s="55">
+        <v>45</v>
+      </c>
+      <c r="B46" s="47">
+        <v>12602</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55">
+        <v>36</v>
+      </c>
+      <c r="E46" s="47">
+        <v>100000</v>
+      </c>
+      <c r="F46" s="47">
+        <v>1036</v>
+      </c>
+      <c r="G46" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="50" customFormat="1">
+      <c r="A47" s="55">
+        <v>46</v>
+      </c>
+      <c r="B47" s="47">
+        <v>12603</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55">
+        <v>36</v>
+      </c>
+      <c r="E47" s="47">
+        <v>500000</v>
+      </c>
+      <c r="F47" s="47">
+        <v>1037</v>
+      </c>
+      <c r="G47" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="50" customFormat="1">
+      <c r="A48" s="55">
+        <v>47</v>
+      </c>
+      <c r="B48" s="47">
+        <v>12604</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55">
+        <v>36</v>
+      </c>
+      <c r="E48" s="47">
+        <v>1000000</v>
+      </c>
+      <c r="F48" s="47">
+        <v>1038</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="50" customFormat="1">
+      <c r="A49" s="55">
+        <v>48</v>
+      </c>
+      <c r="B49" s="47">
+        <v>12605</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55">
+        <v>36</v>
+      </c>
+      <c r="E49" s="47">
+        <v>5000000</v>
+      </c>
+      <c r="F49" s="47">
+        <v>1039</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="50" customFormat="1">
+      <c r="A50" s="55">
+        <v>49</v>
+      </c>
+      <c r="B50" s="47">
+        <v>12606</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55">
+        <v>36</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="F50" s="47">
+        <v>1040</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="50" customFormat="1">
+      <c r="A51" s="55">
+        <v>50</v>
+      </c>
+      <c r="B51" s="47">
+        <v>12607</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55">
+        <v>37</v>
+      </c>
+      <c r="E51" s="47">
+        <v>10000</v>
+      </c>
+      <c r="F51" s="47">
+        <v>1041</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="50" customFormat="1">
+      <c r="A52" s="55">
+        <v>51</v>
+      </c>
+      <c r="B52" s="47">
+        <v>12608</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55">
+        <v>37</v>
+      </c>
+      <c r="E52" s="47">
+        <v>50000</v>
+      </c>
+      <c r="F52" s="47">
+        <v>1042</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="50" customFormat="1">
+      <c r="A53" s="55">
+        <v>52</v>
+      </c>
+      <c r="B53" s="47">
+        <v>12609</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55">
+        <v>37</v>
+      </c>
+      <c r="E53" s="47">
+        <v>100000</v>
+      </c>
+      <c r="F53" s="47">
+        <v>1043</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="50" customFormat="1">
+      <c r="A54" s="55">
+        <v>53</v>
+      </c>
+      <c r="B54" s="47">
+        <v>12610</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55">
+        <v>37</v>
+      </c>
+      <c r="E54" s="47">
+        <v>500000</v>
+      </c>
+      <c r="F54" s="47">
+        <v>1044</v>
+      </c>
+      <c r="G54" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="50" customFormat="1">
+      <c r="A55" s="55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="47">
+        <v>12611</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55">
+        <v>37</v>
+      </c>
+      <c r="E55" s="47">
+        <v>1000000</v>
+      </c>
+      <c r="F55" s="47">
+        <v>1045</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="50" customFormat="1">
+      <c r="A56" s="55">
+        <v>55</v>
+      </c>
+      <c r="B56" s="47">
+        <v>12612</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55">
+        <v>37</v>
+      </c>
+      <c r="E56" s="47">
+        <v>5000000</v>
+      </c>
+      <c r="F56" s="47">
+        <v>1046</v>
+      </c>
+      <c r="G56" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="50" customFormat="1">
+      <c r="A57" s="55">
+        <v>56</v>
+      </c>
+      <c r="B57" s="47">
+        <v>12613</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55">
+        <v>37</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="47">
+        <v>1047</v>
+      </c>
+      <c r="G57" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="29" customFormat="1">
+      <c r="A58" s="55">
+        <v>57</v>
+      </c>
+      <c r="B58" s="43">
         <v>13000</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="56" t="s">
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="F58" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="G44" s="53" t="s">
+      <c r="G58" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="58" t="s">
+      <c r="H58" s="58" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="F47" s="6"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="6:8">
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="6:8">
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="6:8">
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="6:8">
-      <c r="F52" s="6"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="6:8">
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="6:8">
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="6:8">
-      <c r="F55" s="6"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="6:8">
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="6:8">
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="6:8">
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="6:8">
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="6:8">
+    <row r="59" spans="1:8" s="29" customFormat="1">
+      <c r="A59" s="55">
+        <v>58</v>
+      </c>
+      <c r="B59" s="43">
+        <v>13001</v>
+      </c>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="F60" s="6"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="6:8">
+    </row>
+    <row r="61" spans="1:8">
       <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="6:8">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="6:8">
+    <row r="63" spans="1:8">
       <c r="F63" s="6"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="6:8">
+    </row>
+    <row r="64" spans="1:8">
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="6:8">
@@ -5398,23 +6484,23 @@
     </row>
     <row r="66" spans="6:8">
       <c r="F66" s="6"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="6:8">
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="6:8">
       <c r="F68" s="6"/>
-      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="6:8">
       <c r="F69" s="6"/>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="6:8">
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="6:8">
       <c r="F71" s="6"/>
-      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="6:8">
       <c r="F72" s="6"/>
@@ -5424,23 +6510,23 @@
     </row>
     <row r="74" spans="6:8">
       <c r="F74" s="6"/>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="6:8">
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="6:8">
       <c r="F76" s="6"/>
-      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="6:8">
       <c r="F77" s="6"/>
+      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="6:8">
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="6:8">
       <c r="F79" s="6"/>
-      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="6:8">
       <c r="F80" s="6"/>
@@ -5450,23 +6536,23 @@
     </row>
     <row r="82" spans="6:8">
       <c r="F82" s="6"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="6:8">
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="6:8">
       <c r="F84" s="6"/>
-      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8">
       <c r="F85" s="6"/>
+      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="6:8">
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="6:8">
       <c r="F87" s="6"/>
-      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="6:8">
       <c r="F88" s="6"/>
@@ -5476,23 +6562,23 @@
     </row>
     <row r="90" spans="6:8">
       <c r="F90" s="6"/>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="6:8">
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="6:8">
       <c r="F92" s="6"/>
-      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="6:8">
       <c r="F93" s="6"/>
+      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="6:8">
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="6:8">
       <c r="F95" s="6"/>
-      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="6:8">
       <c r="F96" s="6"/>
@@ -5502,10 +6588,10 @@
     </row>
     <row r="98" spans="6:8">
       <c r="F98" s="6"/>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="6:8">
       <c r="F99" s="6"/>
-      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="6:8">
       <c r="F100" s="6"/>
@@ -5551,11 +6637,10 @@
     </row>
     <row r="113" spans="6:8">
       <c r="F113" s="6"/>
-      <c r="H113" s="1"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="6:8">
       <c r="F114" s="6"/>
-      <c r="H114" s="1"/>
     </row>
     <row r="115" spans="6:8">
       <c r="F115" s="6"/>
@@ -5563,31 +6648,25 @@
     </row>
     <row r="116" spans="6:8">
       <c r="F116" s="6"/>
-      <c r="H116" s="1"/>
     </row>
     <row r="117" spans="6:8">
       <c r="F117" s="6"/>
-      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="6:8">
       <c r="F118" s="6"/>
-      <c r="H118" s="1"/>
     </row>
     <row r="119" spans="6:8">
       <c r="F119" s="6"/>
-      <c r="H119" s="1"/>
     </row>
     <row r="120" spans="6:8">
       <c r="F120" s="6"/>
-      <c r="H120" s="1"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="6:8">
       <c r="F121" s="6"/>
-      <c r="H121" s="1"/>
     </row>
     <row r="122" spans="6:8">
       <c r="F122" s="6"/>
-      <c r="H122" s="1"/>
     </row>
     <row r="123" spans="6:8">
       <c r="F123" s="6"/>
@@ -5595,15 +6674,12 @@
     </row>
     <row r="124" spans="6:8">
       <c r="F124" s="6"/>
-      <c r="H124" s="1"/>
     </row>
     <row r="125" spans="6:8">
       <c r="F125" s="6"/>
-      <c r="H125" s="1"/>
     </row>
     <row r="126" spans="6:8">
       <c r="F126" s="6"/>
-      <c r="H126" s="1"/>
     </row>
     <row r="127" spans="6:8">
       <c r="F127" s="6"/>
@@ -5820,6 +6896,62 @@
     <row r="180" spans="6:8">
       <c r="F180" s="6"/>
       <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="6:8">
+      <c r="F181" s="6"/>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="6:8">
+      <c r="F182" s="6"/>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="6:8">
+      <c r="F183" s="6"/>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="6:8">
+      <c r="F184" s="6"/>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="6:8">
+      <c r="F185" s="6"/>
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="6:8">
+      <c r="F186" s="6"/>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="6:8">
+      <c r="F187" s="6"/>
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="6:8">
+      <c r="F188" s="6"/>
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="6:8">
+      <c r="F189" s="6"/>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="6:8">
+      <c r="F190" s="6"/>
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="6:8">
+      <c r="F191" s="6"/>
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="6:8">
+      <c r="F192" s="6"/>
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="6:8">
+      <c r="F193" s="6"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="6:8">
+      <c r="F194" s="6"/>
+      <c r="H194" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5830,10 +6962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6869,9 +8001,107 @@
         <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="24">
+        <v>73</v>
+      </c>
+      <c r="B74" s="33">
+        <v>36</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D74" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="24">
+        <v>74</v>
+      </c>
+      <c r="B75" s="33">
+        <v>37</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="24">
+        <v>75</v>
+      </c>
+      <c r="B76" s="33">
+        <v>37</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="24">
+        <v>76</v>
+      </c>
+      <c r="B77" s="33">
+        <v>37</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="24">
+        <v>77</v>
+      </c>
+      <c r="B78" s="33">
+        <v>37</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="24">
+        <v>78</v>
+      </c>
+      <c r="B79" s="33">
+        <v>37</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="24">
+        <v>79</v>
+      </c>
+      <c r="B80" s="33">
+        <v>37</v>
+      </c>
+      <c r="C80" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="35">
+      <c r="D80" s="35">
         <v>0</v>
       </c>
     </row>
@@ -6887,7 +8117,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7167,7 +8397,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="29" customFormat="1">
-      <c r="A16" s="15">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="15">
@@ -7186,7 +8416,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" s="29" customFormat="1">
-      <c r="A17" s="15">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="15">
@@ -7205,7 +8435,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1">
-      <c r="A18" s="21">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="24">
@@ -7223,7 +8453,7 @@
       <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1">
-      <c r="A19" s="21">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="21">
@@ -7241,7 +8471,7 @@
       <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:7" s="29" customFormat="1">
-      <c r="A20" s="21">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="15">
@@ -7259,7 +8489,7 @@
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:7" s="29" customFormat="1">
-      <c r="A21" s="21">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="15">
@@ -7277,7 +8507,7 @@
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="29" customFormat="1">
-      <c r="A22" s="21">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="15">
@@ -7295,7 +8525,7 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:7" s="29" customFormat="1">
-      <c r="A23" s="21">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="15">
@@ -7314,8 +8544,8 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21">
-        <v>24</v>
+      <c r="A24" s="6">
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>1023</v>
@@ -7339,10 +8569,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:E59"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8526,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="15" customFormat="1">
+    <row r="65" spans="1:5" s="15" customFormat="1">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -8543,7 +9773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="15" customFormat="1">
+    <row r="66" spans="1:5" s="15" customFormat="1">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -8560,7 +9790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="15" customFormat="1">
+    <row r="67" spans="1:5" s="15" customFormat="1">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -8577,197 +9807,867 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="15">
+    <row r="68" spans="1:5" s="15" customFormat="1">
+      <c r="A68" s="80">
         <v>67</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="80">
+        <v>1034</v>
+      </c>
+      <c r="C68" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="80">
+        <v>200</v>
+      </c>
+      <c r="E68" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="15" customFormat="1">
+      <c r="A69" s="80">
+        <v>68</v>
+      </c>
+      <c r="B69" s="80">
+        <v>1034</v>
+      </c>
+      <c r="C69" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D69" s="80">
+        <v>5</v>
+      </c>
+      <c r="E69" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="15" customFormat="1">
+      <c r="A70" s="80">
+        <v>69</v>
+      </c>
+      <c r="B70" s="80">
+        <f>B68+1</f>
+        <v>1035</v>
+      </c>
+      <c r="C70" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="D70" s="80">
+        <v>1000</v>
+      </c>
+      <c r="E70" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="15" customFormat="1">
+      <c r="A71" s="80">
+        <v>70</v>
+      </c>
+      <c r="B71" s="80">
+        <f t="shared" ref="B71:B95" si="1">B69+1</f>
+        <v>1035</v>
+      </c>
+      <c r="C71" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="80">
+        <v>5</v>
+      </c>
+      <c r="E71" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="15" customFormat="1">
+      <c r="A72" s="80">
+        <v>71</v>
+      </c>
+      <c r="B72" s="80">
+        <f t="shared" si="1"/>
+        <v>1036</v>
+      </c>
+      <c r="C72" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="80">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="15" customFormat="1">
+      <c r="A73" s="80">
+        <v>72</v>
+      </c>
+      <c r="B73" s="80">
+        <f t="shared" si="1"/>
+        <v>1036</v>
+      </c>
+      <c r="C73" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" s="80">
+        <v>10</v>
+      </c>
+      <c r="E73" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="15" customFormat="1">
+      <c r="A74" s="80">
+        <v>73</v>
+      </c>
+      <c r="B74" s="80">
+        <f t="shared" si="1"/>
+        <v>1037</v>
+      </c>
+      <c r="C74" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74" s="80">
+        <v>10000</v>
+      </c>
+      <c r="E74" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="15" customFormat="1">
+      <c r="A75" s="80">
+        <v>74</v>
+      </c>
+      <c r="B75" s="80">
+        <f t="shared" si="1"/>
+        <v>1037</v>
+      </c>
+      <c r="C75" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="80">
+        <v>10</v>
+      </c>
+      <c r="E75" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="15" customFormat="1">
+      <c r="A76" s="80">
+        <v>75</v>
+      </c>
+      <c r="B76" s="80">
+        <f t="shared" si="1"/>
+        <v>1038</v>
+      </c>
+      <c r="C76" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" s="80">
+        <v>20000</v>
+      </c>
+      <c r="E76" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="15" customFormat="1">
+      <c r="A77" s="80">
+        <v>76</v>
+      </c>
+      <c r="B77" s="80">
+        <f t="shared" si="1"/>
+        <v>1038</v>
+      </c>
+      <c r="C77" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D77" s="80">
+        <v>10</v>
+      </c>
+      <c r="E77" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="15" customFormat="1">
+      <c r="A78" s="80">
+        <v>77</v>
+      </c>
+      <c r="B78" s="80">
+        <f t="shared" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="C78" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="80">
+        <v>100000</v>
+      </c>
+      <c r="E78" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="15" customFormat="1">
+      <c r="A79" s="80">
+        <v>78</v>
+      </c>
+      <c r="B79" s="80">
+        <f t="shared" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="C79" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="D79" s="80">
+        <v>20</v>
+      </c>
+      <c r="E79" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="15" customFormat="1">
+      <c r="A80" s="80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="80">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="C80" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="80">
+        <v>200000</v>
+      </c>
+      <c r="E80" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="15" customFormat="1">
+      <c r="A81" s="80">
+        <v>80</v>
+      </c>
+      <c r="B81" s="80">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="C81" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" s="80">
+        <v>30</v>
+      </c>
+      <c r="E81" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="15" customFormat="1">
+      <c r="A82" s="80">
+        <v>81</v>
+      </c>
+      <c r="B82" s="80">
+        <f t="shared" si="1"/>
+        <v>1041</v>
+      </c>
+      <c r="C82" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="80">
+        <v>200</v>
+      </c>
+      <c r="E82" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="15" customFormat="1">
+      <c r="A83" s="80">
+        <v>82</v>
+      </c>
+      <c r="B83" s="80">
+        <f t="shared" si="1"/>
+        <v>1041</v>
+      </c>
+      <c r="C83" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" s="80">
+        <v>5</v>
+      </c>
+      <c r="E83" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="15" customFormat="1">
+      <c r="A84" s="80">
+        <v>83</v>
+      </c>
+      <c r="B84" s="80">
+        <f t="shared" si="1"/>
+        <v>1042</v>
+      </c>
+      <c r="C84" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="80">
+        <v>1000</v>
+      </c>
+      <c r="E84" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="15" customFormat="1">
+      <c r="A85" s="80">
+        <v>84</v>
+      </c>
+      <c r="B85" s="80">
+        <f t="shared" si="1"/>
+        <v>1042</v>
+      </c>
+      <c r="C85" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="80">
+        <v>5</v>
+      </c>
+      <c r="E85" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="15" customFormat="1">
+      <c r="A86" s="80">
+        <v>85</v>
+      </c>
+      <c r="B86" s="80">
+        <f t="shared" si="1"/>
+        <v>1043</v>
+      </c>
+      <c r="C86" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" s="80">
+        <v>2000</v>
+      </c>
+      <c r="E86" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="15" customFormat="1">
+      <c r="A87" s="80">
+        <v>86</v>
+      </c>
+      <c r="B87" s="80">
+        <f t="shared" si="1"/>
+        <v>1043</v>
+      </c>
+      <c r="C87" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D87" s="80">
+        <v>10</v>
+      </c>
+      <c r="E87" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="15" customFormat="1">
+      <c r="A88" s="80">
+        <v>87</v>
+      </c>
+      <c r="B88" s="80">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="C88" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" s="80">
+        <v>10000</v>
+      </c>
+      <c r="E88" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="15" customFormat="1">
+      <c r="A89" s="80">
+        <v>88</v>
+      </c>
+      <c r="B89" s="80">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="C89" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D89" s="80">
+        <v>10</v>
+      </c>
+      <c r="E89" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="15" customFormat="1">
+      <c r="A90" s="80">
+        <v>89</v>
+      </c>
+      <c r="B90" s="80">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="C90" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="80">
+        <v>20000</v>
+      </c>
+      <c r="E90" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="15" customFormat="1">
+      <c r="A91" s="80">
+        <v>90</v>
+      </c>
+      <c r="B91" s="80">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="C91" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" s="80">
+        <v>10</v>
+      </c>
+      <c r="E91" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="15" customFormat="1">
+      <c r="A92" s="80">
+        <v>91</v>
+      </c>
+      <c r="B92" s="80">
+        <f t="shared" si="1"/>
+        <v>1046</v>
+      </c>
+      <c r="C92" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="80">
+        <v>100000</v>
+      </c>
+      <c r="E92" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="15" customFormat="1">
+      <c r="A93" s="80">
+        <v>92</v>
+      </c>
+      <c r="B93" s="80">
+        <f t="shared" si="1"/>
+        <v>1046</v>
+      </c>
+      <c r="C93" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="80">
+        <v>20</v>
+      </c>
+      <c r="E93" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="15" customFormat="1">
+      <c r="A94" s="80">
+        <v>93</v>
+      </c>
+      <c r="B94" s="80">
+        <f t="shared" si="1"/>
+        <v>1047</v>
+      </c>
+      <c r="C94" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="D94" s="80">
+        <v>200000</v>
+      </c>
+      <c r="E94" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="15" customFormat="1">
+      <c r="A95" s="80">
+        <v>94</v>
+      </c>
+      <c r="B95" s="80">
+        <f t="shared" si="1"/>
+        <v>1047</v>
+      </c>
+      <c r="C95" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="80">
+        <v>30</v>
+      </c>
+      <c r="E95" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="80">
+        <v>95</v>
+      </c>
+      <c r="B96" s="21">
         <v>2001</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C96" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D96" s="21">
         <v>5000</v>
       </c>
-      <c r="E68" s="21">
-        <v>1</v>
-      </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="15">
-        <v>68</v>
-      </c>
-      <c r="B69" s="21">
+      <c r="E96" s="21">
+        <v>1</v>
+      </c>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="80">
+        <v>96</v>
+      </c>
+      <c r="B97" s="21">
         <v>2001</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C97" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D97" s="21">
         <v>2</v>
       </c>
-      <c r="E69" s="21">
-        <v>1</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="15">
-        <v>69</v>
-      </c>
-      <c r="B70" s="21">
+      <c r="E97" s="21">
+        <v>1</v>
+      </c>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="80">
+        <v>97</v>
+      </c>
+      <c r="B98" s="21">
         <v>2002</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C98" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D98" s="21">
         <v>10000</v>
       </c>
-      <c r="E70" s="21">
-        <v>1</v>
-      </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="15">
-        <v>70</v>
-      </c>
-      <c r="B71" s="21">
+      <c r="E98" s="21">
+        <v>1</v>
+      </c>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="80">
+        <v>98</v>
+      </c>
+      <c r="B99" s="21">
         <v>2002</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C99" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="21">
-        <v>1</v>
-      </c>
-      <c r="E71" s="21">
-        <v>1</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="15">
-        <v>71</v>
-      </c>
-      <c r="B72" s="21">
+      <c r="D99" s="21">
+        <v>1</v>
+      </c>
+      <c r="E99" s="21">
+        <v>1</v>
+      </c>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="80">
+        <v>99</v>
+      </c>
+      <c r="B100" s="21">
         <v>2003</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C100" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D100" s="21">
         <v>10000</v>
       </c>
-      <c r="E72" s="21">
-        <v>1</v>
-      </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="15">
-        <v>72</v>
-      </c>
-      <c r="B73" s="21">
+      <c r="E100" s="21">
+        <v>1</v>
+      </c>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="80">
+        <v>100</v>
+      </c>
+      <c r="B101" s="21">
         <v>2003</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C101" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D101" s="21">
         <v>10000</v>
       </c>
-      <c r="E73" s="21">
-        <v>1</v>
-      </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="15">
-        <v>73</v>
-      </c>
-      <c r="B74" s="21">
+      <c r="E101" s="21">
+        <v>1</v>
+      </c>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="80">
+        <v>101</v>
+      </c>
+      <c r="B102" s="21">
         <v>2004</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C102" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D102" s="21">
         <v>10000</v>
       </c>
-      <c r="E74" s="21">
-        <v>1</v>
-      </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="15">
-        <v>74</v>
-      </c>
-      <c r="B75" s="21">
+      <c r="E102" s="21">
+        <v>1</v>
+      </c>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="80">
+        <v>102</v>
+      </c>
+      <c r="B103" s="21">
         <v>2004</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C103" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D103" s="21">
         <v>10000</v>
       </c>
-      <c r="E75" s="21">
-        <v>1</v>
-      </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="15">
-        <v>75</v>
-      </c>
-      <c r="B76" s="21">
+      <c r="E103" s="21">
+        <v>1</v>
+      </c>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="80">
+        <v>103</v>
+      </c>
+      <c r="B104" s="21">
         <v>2005</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C104" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D104" s="21">
         <v>60000</v>
       </c>
-      <c r="E76" s="21">
-        <v>1</v>
-      </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="E104" s="21">
+        <v>1</v>
+      </c>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="80">
+        <v>104</v>
+      </c>
+      <c r="B105" s="21">
+        <v>2006</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D105" s="21">
+        <v>5000</v>
+      </c>
+      <c r="E105" s="21">
+        <v>1</v>
+      </c>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="80">
+        <v>105</v>
+      </c>
+      <c r="B106" s="21">
+        <v>2007</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" s="21">
+        <v>1</v>
+      </c>
+      <c r="E106" s="21">
+        <v>1</v>
+      </c>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="80">
+        <v>106</v>
+      </c>
+      <c r="B107" s="21">
+        <v>2007</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E107" s="21">
+        <v>1</v>
+      </c>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="80">
+        <v>107</v>
+      </c>
+      <c r="B108" s="21">
+        <v>2008</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D108" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E108" s="21">
+        <v>1</v>
+      </c>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="80">
+        <v>108</v>
+      </c>
+      <c r="B109" s="21">
+        <v>2008</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D109" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E109" s="21">
+        <v>1</v>
+      </c>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="80">
+        <v>109</v>
+      </c>
+      <c r="B110" s="21">
+        <v>2009</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D110" s="21">
+        <v>20000</v>
+      </c>
+      <c r="E110" s="21">
+        <v>1</v>
+      </c>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="80">
+        <v>110</v>
+      </c>
+      <c r="B111" s="21">
+        <v>2009</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D111" s="21">
+        <v>20000</v>
+      </c>
+      <c r="E111" s="21">
+        <v>1</v>
+      </c>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="80">
+        <v>111</v>
+      </c>
+      <c r="B112" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="21">
+        <v>50000</v>
+      </c>
+      <c r="E112" s="21">
+        <v>1</v>
+      </c>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C76"/>
+  <autoFilter ref="C1:C104"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="318">
   <si>
     <t>id|任务id</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>nor</t>
-  </si>
-  <si>
-    <t>30,30,30,30,30</t>
   </si>
   <si>
     <t>id</t>
@@ -1172,39 +1169,9 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>龙王争霸累计赢金500万</t>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金1000万</t>
-  </si>
-  <si>
     <t>红包场累计赢金1000万</t>
   </si>
   <si>
-    <t>lwzb_game_award</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金1万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金10万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金50万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金100万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>红包场累计赢金1万</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1238,6 +1205,115 @@
   </si>
   <si>
     <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐游戏50次</t>
+  </si>
+  <si>
+    <t>水果消消乐游戏50次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐累计消除西瓜200个</t>
+  </si>
+  <si>
+    <t>水果消消乐累计消除铃铛200个</t>
+  </si>
+  <si>
+    <t>水果消消乐累计消除铃铛200个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐累计消除苹果200个</t>
+  </si>
+  <si>
+    <t>水果消消乐累计消除苹果200个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐累计消除西瓜200个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐累计消除BAR100个</t>
+  </si>
+  <si>
+    <t>水果消消乐累计消除BAR100个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐中累计赢金1000000（单局至少投入5000）</t>
+  </si>
+  <si>
+    <t>水果消消乐中累计赢金1000000（单局至少投入5000）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐出现一次幸运时刻（单局至少投入30000）</t>
+  </si>
+  <si>
+    <t>水果消消乐出现一次幸运时刻（单局至少投入30000）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_game_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_xc_target_item</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et_spend</t>
+    </r>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,30,30,30,1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,30,30,30,1000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1332,7 +1408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1417,6 +1493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1457,7 +1539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1609,9 +1691,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1689,6 +1768,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1966,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:G57"/>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1977,7 +2078,7 @@
     <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="30.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="51" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="23.25" style="6" customWidth="1"/>
@@ -2036,1450 +2137,1450 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="64" customFormat="1">
-      <c r="A2" s="62">
+    <row r="2" spans="1:13" s="63" customFormat="1">
+      <c r="A2" s="61">
         <v>12501</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="61">
+        <v>12501</v>
+      </c>
+      <c r="H2" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="61">
+        <v>1</v>
+      </c>
+      <c r="J2" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K2" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L2" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="63" customFormat="1">
+      <c r="A3" s="61">
+        <v>12502</v>
+      </c>
+      <c r="B3" s="61">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="61">
+        <v>12502</v>
+      </c>
+      <c r="H3" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="61">
+        <v>1</v>
+      </c>
+      <c r="J3" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K3" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L3" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="61"/>
+    </row>
+    <row r="4" spans="1:13" s="63" customFormat="1">
+      <c r="A4" s="61">
+        <v>12503</v>
+      </c>
+      <c r="B4" s="61">
+        <v>0</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="63" t="s">
+      <c r="D4" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="62">
-        <v>12501</v>
-      </c>
-      <c r="H2" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="62">
-        <v>1</v>
-      </c>
-      <c r="J2" s="62">
+      <c r="G4" s="61">
+        <v>12503</v>
+      </c>
+      <c r="H4" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="61">
+        <v>1</v>
+      </c>
+      <c r="J4" s="61">
         <v>946656000</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K4" s="61">
         <v>32503651200</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L4" s="61">
         <v>-1</v>
       </c>
-      <c r="M2" s="62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="64" customFormat="1">
-      <c r="A3" s="62">
-        <v>12502</v>
-      </c>
-      <c r="B3" s="62">
+      <c r="M4" s="61"/>
+    </row>
+    <row r="5" spans="1:13" s="63" customFormat="1">
+      <c r="A5" s="61">
+        <v>12504</v>
+      </c>
+      <c r="B5" s="61">
         <v>0</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C5" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="61">
+        <v>12504</v>
+      </c>
+      <c r="H5" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="61">
+        <v>1</v>
+      </c>
+      <c r="J5" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K5" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L5" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="61"/>
+    </row>
+    <row r="6" spans="1:13" s="63" customFormat="1">
+      <c r="A6" s="61">
+        <v>12505</v>
+      </c>
+      <c r="B6" s="61">
+        <v>0</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="61">
+        <v>12505</v>
+      </c>
+      <c r="H6" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="61">
+        <v>1</v>
+      </c>
+      <c r="J6" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K6" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L6" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="1:13" s="63" customFormat="1">
+      <c r="A7" s="61">
+        <v>12506</v>
+      </c>
+      <c r="B7" s="61">
+        <v>0</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="61">
+        <v>12506</v>
+      </c>
+      <c r="H7" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="61">
+        <v>1</v>
+      </c>
+      <c r="J7" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K7" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L7" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="1:13" s="63" customFormat="1">
+      <c r="A8" s="61">
+        <v>12507</v>
+      </c>
+      <c r="B8" s="61">
+        <v>0</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="61">
+        <v>12507</v>
+      </c>
+      <c r="H8" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="61">
+        <v>1</v>
+      </c>
+      <c r="J8" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K8" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L8" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" s="48" customFormat="1">
+      <c r="A9" s="72">
+        <v>12508</v>
+      </c>
+      <c r="B9" s="72">
+        <v>1</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="72">
+        <v>12508</v>
+      </c>
+      <c r="H9" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="72">
+        <v>1</v>
+      </c>
+      <c r="J9" s="72">
+        <v>946656000</v>
+      </c>
+      <c r="K9" s="72">
+        <v>32503651200</v>
+      </c>
+      <c r="L9" s="72">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="72"/>
+    </row>
+    <row r="10" spans="1:13" s="63" customFormat="1">
+      <c r="A10" s="61">
+        <v>12509</v>
+      </c>
+      <c r="B10" s="61">
+        <v>0</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="61">
+        <v>12509</v>
+      </c>
+      <c r="H10" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="61">
+        <v>1</v>
+      </c>
+      <c r="J10" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K10" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L10" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="1:13" s="63" customFormat="1">
+      <c r="A11" s="61">
+        <v>12510</v>
+      </c>
+      <c r="B11" s="61">
+        <v>0</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="61">
+        <v>12510</v>
+      </c>
+      <c r="H11" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="61">
+        <v>1</v>
+      </c>
+      <c r="J11" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K11" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L11" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="61"/>
+    </row>
+    <row r="12" spans="1:13" s="74" customFormat="1">
+      <c r="A12" s="73">
+        <v>12511</v>
+      </c>
+      <c r="B12" s="73">
+        <v>1</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="73">
+        <v>12511</v>
+      </c>
+      <c r="H12" s="73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="73">
+        <v>1</v>
+      </c>
+      <c r="J12" s="73">
+        <v>946656000</v>
+      </c>
+      <c r="K12" s="73">
+        <v>32503651200</v>
+      </c>
+      <c r="L12" s="73">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="73"/>
+    </row>
+    <row r="13" spans="1:13" s="60" customFormat="1">
+      <c r="A13" s="58">
+        <v>12512</v>
+      </c>
+      <c r="B13" s="58">
+        <v>1</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="58">
+        <v>12512</v>
+      </c>
+      <c r="H13" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="58">
+        <v>1</v>
+      </c>
+      <c r="J13" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K13" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L13" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="58"/>
+    </row>
+    <row r="14" spans="1:13" s="63" customFormat="1">
+      <c r="A14" s="61">
+        <v>12513</v>
+      </c>
+      <c r="B14" s="61">
+        <v>0</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="61">
+        <v>12513</v>
+      </c>
+      <c r="H14" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="61">
+        <v>1</v>
+      </c>
+      <c r="J14" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K14" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L14" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="61"/>
+    </row>
+    <row r="15" spans="1:13" s="63" customFormat="1">
+      <c r="A15" s="61">
+        <v>12514</v>
+      </c>
+      <c r="B15" s="61">
+        <v>0</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="61">
+        <v>12514</v>
+      </c>
+      <c r="H15" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="61">
+        <v>1</v>
+      </c>
+      <c r="J15" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K15" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L15" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="61"/>
+    </row>
+    <row r="16" spans="1:13" s="63" customFormat="1">
+      <c r="A16" s="61">
+        <v>12515</v>
+      </c>
+      <c r="B16" s="61">
+        <v>0</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="61">
+        <v>12515</v>
+      </c>
+      <c r="H16" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="61">
+        <v>1</v>
+      </c>
+      <c r="J16" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K16" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L16" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="61"/>
+    </row>
+    <row r="17" spans="1:13" s="60" customFormat="1">
+      <c r="A17" s="58">
+        <v>12516</v>
+      </c>
+      <c r="B17" s="58">
+        <v>1</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="58">
+        <v>12516</v>
+      </c>
+      <c r="H17" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="58">
+        <v>1</v>
+      </c>
+      <c r="J17" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K17" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L17" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="1:13" s="74" customFormat="1">
+      <c r="A18" s="73">
+        <v>12517</v>
+      </c>
+      <c r="B18" s="73">
+        <v>1</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="73">
+        <v>12517</v>
+      </c>
+      <c r="H18" s="73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="73">
+        <v>1</v>
+      </c>
+      <c r="J18" s="73">
+        <v>946656000</v>
+      </c>
+      <c r="K18" s="73">
+        <v>32503651200</v>
+      </c>
+      <c r="L18" s="73">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="73"/>
+    </row>
+    <row r="19" spans="1:13" s="63" customFormat="1">
+      <c r="A19" s="61">
+        <v>12518</v>
+      </c>
+      <c r="B19" s="61">
+        <v>0</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="61">
+        <v>12518</v>
+      </c>
+      <c r="H19" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="61">
+        <v>1</v>
+      </c>
+      <c r="J19" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K19" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L19" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="61"/>
+    </row>
+    <row r="20" spans="1:13" s="60" customFormat="1">
+      <c r="A20" s="58">
+        <v>12519</v>
+      </c>
+      <c r="B20" s="58">
+        <v>1</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="58">
+        <v>12519</v>
+      </c>
+      <c r="H20" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="58">
+        <v>1</v>
+      </c>
+      <c r="J20" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K20" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L20" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="58"/>
+    </row>
+    <row r="21" spans="1:13" s="60" customFormat="1">
+      <c r="A21" s="58">
+        <v>12520</v>
+      </c>
+      <c r="B21" s="58">
+        <v>1</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="62" t="s">
+      <c r="D21" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="62">
-        <v>12502</v>
-      </c>
-      <c r="H3" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="62">
-        <v>1</v>
-      </c>
-      <c r="J3" s="62">
+      <c r="G21" s="58">
+        <v>12520</v>
+      </c>
+      <c r="H21" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="58">
+        <v>1</v>
+      </c>
+      <c r="J21" s="58">
         <v>946656000</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K21" s="58">
         <v>32503651200</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L21" s="58">
         <v>-1</v>
       </c>
-      <c r="M3" s="62"/>
-    </row>
-    <row r="4" spans="1:13" s="64" customFormat="1">
-      <c r="A4" s="62">
-        <v>12503</v>
-      </c>
-      <c r="B4" s="62">
+      <c r="M21" s="58"/>
+    </row>
+    <row r="22" spans="1:13" s="60" customFormat="1">
+      <c r="A22" s="58">
+        <v>12521</v>
+      </c>
+      <c r="B22" s="58">
+        <v>1</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="58">
+        <v>12521</v>
+      </c>
+      <c r="H22" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="58">
+        <v>1</v>
+      </c>
+      <c r="J22" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K22" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L22" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="58"/>
+    </row>
+    <row r="23" spans="1:13" s="60" customFormat="1">
+      <c r="A23" s="58">
+        <v>12522</v>
+      </c>
+      <c r="B23" s="58">
+        <v>1</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="58">
+        <v>12522</v>
+      </c>
+      <c r="H23" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="58">
+        <v>1</v>
+      </c>
+      <c r="J23" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K23" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L23" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="58"/>
+    </row>
+    <row r="24" spans="1:13" s="60" customFormat="1">
+      <c r="A24" s="58">
+        <v>12523</v>
+      </c>
+      <c r="B24" s="58">
+        <v>1</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="58">
+        <v>12523</v>
+      </c>
+      <c r="H24" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="58">
+        <v>1</v>
+      </c>
+      <c r="J24" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K24" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L24" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="58"/>
+    </row>
+    <row r="25" spans="1:13" s="71" customFormat="1">
+      <c r="A25" s="69">
+        <v>12524</v>
+      </c>
+      <c r="B25" s="69">
+        <v>1</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="69">
+        <v>12524</v>
+      </c>
+      <c r="H25" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="70">
+        <v>1</v>
+      </c>
+      <c r="J25" s="70">
+        <v>946656000</v>
+      </c>
+      <c r="K25" s="70">
+        <v>32503651200</v>
+      </c>
+      <c r="L25" s="70">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="69"/>
+    </row>
+    <row r="26" spans="1:13" s="71" customFormat="1">
+      <c r="A26" s="69">
+        <v>12525</v>
+      </c>
+      <c r="B26" s="69">
+        <v>1</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="69">
+        <v>12525</v>
+      </c>
+      <c r="H26" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="70">
+        <v>1</v>
+      </c>
+      <c r="J26" s="70">
+        <v>946656000</v>
+      </c>
+      <c r="K26" s="70">
+        <v>32503651200</v>
+      </c>
+      <c r="L26" s="70">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="69"/>
+    </row>
+    <row r="27" spans="1:13" s="48" customFormat="1">
+      <c r="A27" s="72">
+        <v>12526</v>
+      </c>
+      <c r="B27" s="72">
+        <v>1</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="72">
+        <v>12526</v>
+      </c>
+      <c r="H27" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="75">
+        <v>1</v>
+      </c>
+      <c r="J27" s="75">
+        <v>946656000</v>
+      </c>
+      <c r="K27" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="L27" s="75">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:13" s="48" customFormat="1">
+      <c r="A28" s="72">
+        <v>12527</v>
+      </c>
+      <c r="B28" s="72">
+        <v>1</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="72">
+        <v>12527</v>
+      </c>
+      <c r="H28" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="75">
+        <v>1</v>
+      </c>
+      <c r="J28" s="75">
+        <v>946656000</v>
+      </c>
+      <c r="K28" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="L28" s="75">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="72"/>
+    </row>
+    <row r="29" spans="1:13" s="48" customFormat="1">
+      <c r="A29" s="72">
+        <v>12528</v>
+      </c>
+      <c r="B29" s="72">
+        <v>1</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="72">
+        <v>12528</v>
+      </c>
+      <c r="H29" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="75">
+        <v>1</v>
+      </c>
+      <c r="J29" s="75">
+        <v>946656000</v>
+      </c>
+      <c r="K29" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="L29" s="75">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="72"/>
+    </row>
+    <row r="30" spans="1:13" s="48" customFormat="1">
+      <c r="A30" s="72">
+        <v>12529</v>
+      </c>
+      <c r="B30" s="72">
+        <v>1</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="72">
+        <v>12529</v>
+      </c>
+      <c r="H30" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="75">
+        <v>1</v>
+      </c>
+      <c r="J30" s="75">
+        <v>946656000</v>
+      </c>
+      <c r="K30" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="L30" s="75">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="72"/>
+    </row>
+    <row r="31" spans="1:13" s="74" customFormat="1">
+      <c r="A31" s="73">
+        <v>12530</v>
+      </c>
+      <c r="B31" s="73">
+        <v>1</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="73">
+        <v>12530</v>
+      </c>
+      <c r="H31" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="76">
+        <v>1</v>
+      </c>
+      <c r="J31" s="76">
+        <v>946656000</v>
+      </c>
+      <c r="K31" s="76">
+        <v>32503651200</v>
+      </c>
+      <c r="L31" s="76">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="73"/>
+    </row>
+    <row r="32" spans="1:13" s="74" customFormat="1">
+      <c r="A32" s="73">
+        <v>12531</v>
+      </c>
+      <c r="B32" s="73">
+        <v>1</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="73">
+        <v>12531</v>
+      </c>
+      <c r="H32" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="76">
+        <v>1</v>
+      </c>
+      <c r="J32" s="76">
+        <v>946656000</v>
+      </c>
+      <c r="K32" s="76">
+        <v>32503651200</v>
+      </c>
+      <c r="L32" s="76">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="73"/>
+    </row>
+    <row r="33" spans="1:13" s="74" customFormat="1">
+      <c r="A33" s="73">
+        <v>12532</v>
+      </c>
+      <c r="B33" s="73">
+        <v>1</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="73">
+        <v>12532</v>
+      </c>
+      <c r="H33" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="76">
+        <v>1</v>
+      </c>
+      <c r="J33" s="76">
+        <v>946656000</v>
+      </c>
+      <c r="K33" s="76">
+        <v>32503651200</v>
+      </c>
+      <c r="L33" s="76">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="73"/>
+    </row>
+    <row r="34" spans="1:13" s="77" customFormat="1">
+      <c r="A34" s="65">
+        <v>12533</v>
+      </c>
+      <c r="B34" s="65">
         <v>0</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="C34" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="62">
-        <v>12503</v>
-      </c>
-      <c r="H4" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="62">
-        <v>1</v>
-      </c>
-      <c r="J4" s="62">
+      <c r="G34" s="65">
+        <v>12533</v>
+      </c>
+      <c r="H34" s="64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="64">
+        <v>1</v>
+      </c>
+      <c r="J34" s="64">
         <v>946656000</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K34" s="64">
         <v>32503651200</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L34" s="64">
         <v>-1</v>
       </c>
-      <c r="M4" s="62"/>
-    </row>
-    <row r="5" spans="1:13" s="64" customFormat="1">
-      <c r="A5" s="62">
-        <v>12504</v>
-      </c>
-      <c r="B5" s="62">
-        <v>0</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="62" t="s">
+      <c r="M34" s="65"/>
+    </row>
+    <row r="35" spans="1:13" s="68" customFormat="1">
+      <c r="A35" s="66">
+        <v>12534</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="62">
-        <v>12504</v>
-      </c>
-      <c r="H5" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="62">
-        <v>1</v>
-      </c>
-      <c r="J5" s="62">
+      <c r="G35" s="66">
+        <v>12534</v>
+      </c>
+      <c r="H35" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="67">
+        <v>1</v>
+      </c>
+      <c r="J35" s="67">
         <v>946656000</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K35" s="67">
         <v>32503651200</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L35" s="67">
         <v>-1</v>
       </c>
-      <c r="M5" s="62"/>
-    </row>
-    <row r="6" spans="1:13" s="64" customFormat="1">
-      <c r="A6" s="62">
-        <v>12505</v>
-      </c>
-      <c r="B6" s="62">
-        <v>0</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="62" t="s">
+      <c r="M35" s="66"/>
+    </row>
+    <row r="36" spans="1:13" s="68" customFormat="1">
+      <c r="A36" s="66">
+        <v>12535</v>
+      </c>
+      <c r="B36" s="66">
+        <v>1</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="62">
-        <v>12505</v>
-      </c>
-      <c r="H6" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="62">
-        <v>1</v>
-      </c>
-      <c r="J6" s="62">
+      <c r="G36" s="66">
+        <v>12535</v>
+      </c>
+      <c r="H36" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="67">
+        <v>1</v>
+      </c>
+      <c r="J36" s="67">
         <v>946656000</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K36" s="67">
         <v>32503651200</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L36" s="67">
         <v>-1</v>
       </c>
-      <c r="M6" s="62"/>
-    </row>
-    <row r="7" spans="1:13" s="64" customFormat="1">
-      <c r="A7" s="62">
-        <v>12506</v>
-      </c>
-      <c r="B7" s="62">
-        <v>0</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="62" t="s">
+      <c r="M36" s="66"/>
+    </row>
+    <row r="37" spans="1:13" s="68" customFormat="1">
+      <c r="A37" s="66">
+        <v>12536</v>
+      </c>
+      <c r="B37" s="66">
+        <v>1</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="62">
-        <v>12506</v>
-      </c>
-      <c r="H7" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="62">
-        <v>1</v>
-      </c>
-      <c r="J7" s="62">
+      <c r="G37" s="66">
+        <v>12536</v>
+      </c>
+      <c r="H37" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="67">
+        <v>1</v>
+      </c>
+      <c r="J37" s="67">
         <v>946656000</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K37" s="67">
         <v>32503651200</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L37" s="67">
         <v>-1</v>
       </c>
-      <c r="M7" s="62"/>
-    </row>
-    <row r="8" spans="1:13" s="64" customFormat="1">
-      <c r="A8" s="62">
-        <v>12507</v>
-      </c>
-      <c r="B8" s="62">
-        <v>0</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="62">
-        <v>12507</v>
-      </c>
-      <c r="H8" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="62">
-        <v>1</v>
-      </c>
-      <c r="J8" s="62">
+      <c r="M37" s="66"/>
+    </row>
+    <row r="38" spans="1:13" s="68" customFormat="1">
+      <c r="A38" s="66">
+        <v>12537</v>
+      </c>
+      <c r="B38" s="66">
+        <v>1</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="66">
+        <v>12537</v>
+      </c>
+      <c r="H38" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="66">
+        <v>1</v>
+      </c>
+      <c r="J38" s="66">
         <v>946656000</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K38" s="66">
         <v>32503651200</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L38" s="66">
         <v>-1</v>
       </c>
-      <c r="M8" s="62"/>
-    </row>
-    <row r="9" spans="1:13" s="48" customFormat="1">
-      <c r="A9" s="73">
-        <v>12508</v>
-      </c>
-      <c r="B9" s="73">
-        <v>1</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="73">
-        <v>12508</v>
-      </c>
-      <c r="H9" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="73">
-        <v>1</v>
-      </c>
-      <c r="J9" s="73">
-        <v>946656000</v>
-      </c>
-      <c r="K9" s="73">
-        <v>32503651200</v>
-      </c>
-      <c r="L9" s="73">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="73"/>
-    </row>
-    <row r="10" spans="1:13" s="64" customFormat="1">
-      <c r="A10" s="62">
-        <v>12509</v>
-      </c>
-      <c r="B10" s="62">
-        <v>0</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="62">
-        <v>12509</v>
-      </c>
-      <c r="H10" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="62">
-        <v>1</v>
-      </c>
-      <c r="J10" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K10" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L10" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" s="64" customFormat="1">
-      <c r="A11" s="62">
-        <v>12510</v>
-      </c>
-      <c r="B11" s="62">
-        <v>0</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="62">
-        <v>12510</v>
-      </c>
-      <c r="H11" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="62">
-        <v>1</v>
-      </c>
-      <c r="J11" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K11" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L11" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="62"/>
-    </row>
-    <row r="12" spans="1:13" s="75" customFormat="1">
-      <c r="A12" s="74">
-        <v>12511</v>
-      </c>
-      <c r="B12" s="74">
-        <v>1</v>
-      </c>
-      <c r="C12" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="74">
-        <v>12511</v>
-      </c>
-      <c r="H12" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="74">
-        <v>1</v>
-      </c>
-      <c r="J12" s="74">
-        <v>946656000</v>
-      </c>
-      <c r="K12" s="74">
-        <v>32503651200</v>
-      </c>
-      <c r="L12" s="74">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" s="61" customFormat="1">
-      <c r="A13" s="59">
-        <v>12512</v>
-      </c>
-      <c r="B13" s="59">
-        <v>1</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="59">
-        <v>12512</v>
-      </c>
-      <c r="H13" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="59">
-        <v>1</v>
-      </c>
-      <c r="J13" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K13" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L13" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="59"/>
-    </row>
-    <row r="14" spans="1:13" s="64" customFormat="1">
-      <c r="A14" s="62">
-        <v>12513</v>
-      </c>
-      <c r="B14" s="62">
-        <v>0</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="62">
-        <v>12513</v>
-      </c>
-      <c r="H14" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="62">
-        <v>1</v>
-      </c>
-      <c r="J14" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K14" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L14" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" s="64" customFormat="1">
-      <c r="A15" s="62">
-        <v>12514</v>
-      </c>
-      <c r="B15" s="62">
-        <v>0</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="62">
-        <v>12514</v>
-      </c>
-      <c r="H15" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="62">
-        <v>1</v>
-      </c>
-      <c r="J15" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K15" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L15" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="62"/>
-    </row>
-    <row r="16" spans="1:13" s="64" customFormat="1">
-      <c r="A16" s="62">
-        <v>12515</v>
-      </c>
-      <c r="B16" s="62">
-        <v>0</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="62">
-        <v>12515</v>
-      </c>
-      <c r="H16" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="62">
-        <v>1</v>
-      </c>
-      <c r="J16" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K16" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L16" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="62"/>
-    </row>
-    <row r="17" spans="1:13" s="61" customFormat="1">
-      <c r="A17" s="59">
-        <v>12516</v>
-      </c>
-      <c r="B17" s="59">
-        <v>1</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="59">
-        <v>12516</v>
-      </c>
-      <c r="H17" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="59">
-        <v>1</v>
-      </c>
-      <c r="J17" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K17" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L17" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="59"/>
-    </row>
-    <row r="18" spans="1:13" s="75" customFormat="1">
-      <c r="A18" s="74">
-        <v>12517</v>
-      </c>
-      <c r="B18" s="74">
-        <v>1</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="G18" s="74">
-        <v>12517</v>
-      </c>
-      <c r="H18" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="74">
-        <v>1</v>
-      </c>
-      <c r="J18" s="74">
-        <v>946656000</v>
-      </c>
-      <c r="K18" s="74">
-        <v>32503651200</v>
-      </c>
-      <c r="L18" s="74">
-        <v>-1</v>
-      </c>
-      <c r="M18" s="74"/>
-    </row>
-    <row r="19" spans="1:13" s="64" customFormat="1">
-      <c r="A19" s="62">
-        <v>12518</v>
-      </c>
-      <c r="B19" s="62">
-        <v>0</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="62">
-        <v>12518</v>
-      </c>
-      <c r="H19" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="62">
-        <v>1</v>
-      </c>
-      <c r="J19" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K19" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L19" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M19" s="62"/>
-    </row>
-    <row r="20" spans="1:13" s="61" customFormat="1">
-      <c r="A20" s="59">
-        <v>12519</v>
-      </c>
-      <c r="B20" s="59">
-        <v>1</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="59">
-        <v>12519</v>
-      </c>
-      <c r="H20" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="59">
-        <v>1</v>
-      </c>
-      <c r="J20" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K20" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L20" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="59"/>
-    </row>
-    <row r="21" spans="1:13" s="61" customFormat="1">
-      <c r="A21" s="59">
-        <v>12520</v>
-      </c>
-      <c r="B21" s="59">
-        <v>1</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="59">
-        <v>12520</v>
-      </c>
-      <c r="H21" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="59">
-        <v>1</v>
-      </c>
-      <c r="J21" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K21" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L21" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M21" s="59"/>
-    </row>
-    <row r="22" spans="1:13" s="61" customFormat="1">
-      <c r="A22" s="59">
-        <v>12521</v>
-      </c>
-      <c r="B22" s="59">
-        <v>1</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="F22" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="59">
-        <v>12521</v>
-      </c>
-      <c r="H22" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="59">
-        <v>1</v>
-      </c>
-      <c r="J22" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K22" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L22" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M22" s="59"/>
-    </row>
-    <row r="23" spans="1:13" s="61" customFormat="1">
-      <c r="A23" s="59">
-        <v>12522</v>
-      </c>
-      <c r="B23" s="59">
-        <v>1</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="59">
-        <v>12522</v>
-      </c>
-      <c r="H23" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="59">
-        <v>1</v>
-      </c>
-      <c r="J23" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K23" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L23" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M23" s="59"/>
-    </row>
-    <row r="24" spans="1:13" s="61" customFormat="1">
-      <c r="A24" s="59">
-        <v>12523</v>
-      </c>
-      <c r="B24" s="59">
-        <v>1</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="59">
-        <v>12523</v>
-      </c>
-      <c r="H24" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="59">
-        <v>1</v>
-      </c>
-      <c r="J24" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K24" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L24" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M24" s="59"/>
-    </row>
-    <row r="25" spans="1:13" s="72" customFormat="1">
-      <c r="A25" s="70">
-        <v>12524</v>
-      </c>
-      <c r="B25" s="70">
-        <v>1</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="70">
-        <v>12524</v>
-      </c>
-      <c r="H25" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="71">
-        <v>1</v>
-      </c>
-      <c r="J25" s="71">
-        <v>946656000</v>
-      </c>
-      <c r="K25" s="71">
-        <v>32503651200</v>
-      </c>
-      <c r="L25" s="71">
-        <v>-1</v>
-      </c>
-      <c r="M25" s="70"/>
-    </row>
-    <row r="26" spans="1:13" s="72" customFormat="1">
-      <c r="A26" s="70">
-        <v>12525</v>
-      </c>
-      <c r="B26" s="70">
-        <v>1</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="70">
-        <v>12525</v>
-      </c>
-      <c r="H26" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="71">
-        <v>1</v>
-      </c>
-      <c r="J26" s="71">
-        <v>946656000</v>
-      </c>
-      <c r="K26" s="71">
-        <v>32503651200</v>
-      </c>
-      <c r="L26" s="71">
-        <v>-1</v>
-      </c>
-      <c r="M26" s="70"/>
-    </row>
-    <row r="27" spans="1:13" s="48" customFormat="1">
-      <c r="A27" s="73">
-        <v>12526</v>
-      </c>
-      <c r="B27" s="73">
-        <v>1</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="73">
-        <v>12526</v>
-      </c>
-      <c r="H27" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="76">
-        <v>1</v>
-      </c>
-      <c r="J27" s="76">
-        <v>946656000</v>
-      </c>
-      <c r="K27" s="76">
-        <v>32503651200</v>
-      </c>
-      <c r="L27" s="76">
-        <v>-1</v>
-      </c>
-      <c r="M27" s="73"/>
-    </row>
-    <row r="28" spans="1:13" s="48" customFormat="1">
-      <c r="A28" s="73">
-        <v>12527</v>
-      </c>
-      <c r="B28" s="73">
-        <v>1</v>
-      </c>
-      <c r="C28" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="73">
-        <v>12527</v>
-      </c>
-      <c r="H28" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="76">
-        <v>1</v>
-      </c>
-      <c r="J28" s="76">
-        <v>946656000</v>
-      </c>
-      <c r="K28" s="76">
-        <v>32503651200</v>
-      </c>
-      <c r="L28" s="76">
-        <v>-1</v>
-      </c>
-      <c r="M28" s="73"/>
-    </row>
-    <row r="29" spans="1:13" s="48" customFormat="1">
-      <c r="A29" s="73">
-        <v>12528</v>
-      </c>
-      <c r="B29" s="73">
-        <v>1</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="73">
-        <v>12528</v>
-      </c>
-      <c r="H29" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="76">
-        <v>1</v>
-      </c>
-      <c r="J29" s="76">
-        <v>946656000</v>
-      </c>
-      <c r="K29" s="76">
-        <v>32503651200</v>
-      </c>
-      <c r="L29" s="76">
-        <v>-1</v>
-      </c>
-      <c r="M29" s="73"/>
-    </row>
-    <row r="30" spans="1:13" s="48" customFormat="1">
-      <c r="A30" s="73">
-        <v>12529</v>
-      </c>
-      <c r="B30" s="73">
-        <v>1</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="73" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="73">
-        <v>12529</v>
-      </c>
-      <c r="H30" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="76">
-        <v>1</v>
-      </c>
-      <c r="J30" s="76">
-        <v>946656000</v>
-      </c>
-      <c r="K30" s="76">
-        <v>32503651200</v>
-      </c>
-      <c r="L30" s="76">
-        <v>-1</v>
-      </c>
-      <c r="M30" s="73"/>
-    </row>
-    <row r="31" spans="1:13" s="75" customFormat="1">
-      <c r="A31" s="74">
-        <v>12530</v>
-      </c>
-      <c r="B31" s="74">
-        <v>1</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="F31" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="74">
-        <v>12530</v>
-      </c>
-      <c r="H31" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="77">
-        <v>1</v>
-      </c>
-      <c r="J31" s="77">
-        <v>946656000</v>
-      </c>
-      <c r="K31" s="77">
-        <v>32503651200</v>
-      </c>
-      <c r="L31" s="77">
-        <v>-1</v>
-      </c>
-      <c r="M31" s="74"/>
-    </row>
-    <row r="32" spans="1:13" s="75" customFormat="1">
-      <c r="A32" s="74">
-        <v>12531</v>
-      </c>
-      <c r="B32" s="74">
-        <v>1</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="74">
-        <v>12531</v>
-      </c>
-      <c r="H32" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="77">
-        <v>1</v>
-      </c>
-      <c r="J32" s="77">
-        <v>946656000</v>
-      </c>
-      <c r="K32" s="77">
-        <v>32503651200</v>
-      </c>
-      <c r="L32" s="77">
-        <v>-1</v>
-      </c>
-      <c r="M32" s="74"/>
-    </row>
-    <row r="33" spans="1:13" s="75" customFormat="1">
-      <c r="A33" s="74">
-        <v>12532</v>
-      </c>
-      <c r="B33" s="74">
-        <v>1</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="74">
-        <v>12532</v>
-      </c>
-      <c r="H33" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="77">
-        <v>1</v>
-      </c>
-      <c r="J33" s="77">
-        <v>946656000</v>
-      </c>
-      <c r="K33" s="77">
-        <v>32503651200</v>
-      </c>
-      <c r="L33" s="77">
-        <v>-1</v>
-      </c>
-      <c r="M33" s="74"/>
-    </row>
-    <row r="34" spans="1:13" s="78" customFormat="1">
-      <c r="A34" s="66">
-        <v>12533</v>
-      </c>
-      <c r="B34" s="66">
-        <v>0</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="E34" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="66">
-        <v>12533</v>
-      </c>
-      <c r="H34" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="65">
-        <v>1</v>
-      </c>
-      <c r="J34" s="65">
-        <v>946656000</v>
-      </c>
-      <c r="K34" s="65">
-        <v>32503651200</v>
-      </c>
-      <c r="L34" s="65">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="66"/>
-    </row>
-    <row r="35" spans="1:13" s="69" customFormat="1">
-      <c r="A35" s="67">
-        <v>12534</v>
-      </c>
-      <c r="B35" s="67">
-        <v>1</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="67">
-        <v>12534</v>
-      </c>
-      <c r="H35" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="68">
-        <v>1</v>
-      </c>
-      <c r="J35" s="68">
-        <v>946656000</v>
-      </c>
-      <c r="K35" s="68">
-        <v>32503651200</v>
-      </c>
-      <c r="L35" s="68">
-        <v>-1</v>
-      </c>
-      <c r="M35" s="67"/>
-    </row>
-    <row r="36" spans="1:13" s="69" customFormat="1">
-      <c r="A36" s="67">
-        <v>12535</v>
-      </c>
-      <c r="B36" s="67">
-        <v>1</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="67">
-        <v>12535</v>
-      </c>
-      <c r="H36" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="68">
-        <v>1</v>
-      </c>
-      <c r="J36" s="68">
-        <v>946656000</v>
-      </c>
-      <c r="K36" s="68">
-        <v>32503651200</v>
-      </c>
-      <c r="L36" s="68">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="67"/>
-    </row>
-    <row r="37" spans="1:13" s="69" customFormat="1">
-      <c r="A37" s="67">
-        <v>12536</v>
-      </c>
-      <c r="B37" s="67">
-        <v>1</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="67">
-        <v>12536</v>
-      </c>
-      <c r="H37" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="68">
-        <v>1</v>
-      </c>
-      <c r="J37" s="68">
-        <v>946656000</v>
-      </c>
-      <c r="K37" s="68">
-        <v>32503651200</v>
-      </c>
-      <c r="L37" s="68">
-        <v>-1</v>
-      </c>
-      <c r="M37" s="67"/>
-    </row>
-    <row r="38" spans="1:13" s="69" customFormat="1">
-      <c r="A38" s="67">
-        <v>12537</v>
-      </c>
-      <c r="B38" s="67">
-        <v>1</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="F38" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="67">
-        <v>12537</v>
-      </c>
-      <c r="H38" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="67">
-        <v>1</v>
-      </c>
-      <c r="J38" s="67">
-        <v>946656000</v>
-      </c>
-      <c r="K38" s="67">
-        <v>32503651200</v>
-      </c>
-      <c r="L38" s="67">
-        <v>-1</v>
-      </c>
-      <c r="M38" s="67"/>
+      <c r="M38" s="66"/>
     </row>
     <row r="39" spans="1:13" s="39" customFormat="1">
       <c r="A39" s="46">
@@ -3492,10 +3593,10 @@
         <v>20</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>15</v>
@@ -3528,13 +3629,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>228</v>
-      </c>
       <c r="E40" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>15</v>
@@ -3567,13 +3668,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>230</v>
-      </c>
       <c r="E41" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>15</v>
@@ -3606,13 +3707,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>15</v>
@@ -3645,13 +3746,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>15</v>
@@ -3676,551 +3777,551 @@
       </c>
       <c r="M43" s="46"/>
     </row>
-    <row r="44" spans="1:13" s="39" customFormat="1">
-      <c r="A44" s="46">
+    <row r="44" spans="1:13" s="84" customFormat="1">
+      <c r="A44" s="83">
         <v>12600</v>
       </c>
-      <c r="B44" s="46">
-        <v>1</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="F44" s="46" t="s">
+      <c r="B44" s="83">
+        <v>1</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="83">
         <v>12600</v>
       </c>
-      <c r="H44" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="46">
-        <v>1</v>
-      </c>
-      <c r="J44" s="46">
+      <c r="H44" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="83">
+        <v>1</v>
+      </c>
+      <c r="J44" s="83">
         <v>946656000</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="83">
         <v>-1</v>
       </c>
-      <c r="M44" s="46"/>
-    </row>
-    <row r="45" spans="1:13" s="39" customFormat="1">
-      <c r="A45" s="46">
+      <c r="M44" s="83"/>
+    </row>
+    <row r="45" spans="1:13" s="84" customFormat="1">
+      <c r="A45" s="83">
         <v>12601</v>
       </c>
-      <c r="B45" s="46">
-        <v>1</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="E45" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="46" t="s">
+      <c r="B45" s="83">
+        <v>1</v>
+      </c>
+      <c r="C45" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="E45" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="83">
         <v>12601</v>
       </c>
-      <c r="H45" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="46">
-        <v>1</v>
-      </c>
-      <c r="J45" s="46">
+      <c r="H45" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="83">
+        <v>1</v>
+      </c>
+      <c r="J45" s="83">
         <v>946656000</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="83">
         <v>-1</v>
       </c>
-      <c r="M45" s="46"/>
-    </row>
-    <row r="46" spans="1:13" s="39" customFormat="1">
-      <c r="A46" s="46">
+      <c r="M45" s="83"/>
+    </row>
+    <row r="46" spans="1:13" s="84" customFormat="1">
+      <c r="A46" s="83">
         <v>12602</v>
       </c>
-      <c r="B46" s="46">
-        <v>1</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="F46" s="46" t="s">
+      <c r="B46" s="83">
+        <v>1</v>
+      </c>
+      <c r="C46" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="83">
         <v>12602</v>
       </c>
-      <c r="H46" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="46">
+      <c r="H46" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="83">
+        <v>1</v>
+      </c>
+      <c r="J46" s="83">
         <v>946656000</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="83">
         <v>-1</v>
       </c>
-      <c r="M46" s="46"/>
-    </row>
-    <row r="47" spans="1:13" s="39" customFormat="1">
-      <c r="A47" s="46">
+      <c r="M46" s="83"/>
+    </row>
+    <row r="47" spans="1:13" s="84" customFormat="1">
+      <c r="A47" s="83">
         <v>12603</v>
       </c>
-      <c r="B47" s="46">
-        <v>1</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="F47" s="46" t="s">
+      <c r="B47" s="83">
+        <v>1</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="83">
         <v>12603</v>
       </c>
-      <c r="H47" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="46">
-        <v>1</v>
-      </c>
-      <c r="J47" s="46">
+      <c r="H47" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="83">
+        <v>1</v>
+      </c>
+      <c r="J47" s="83">
         <v>946656000</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L47" s="46">
+      <c r="L47" s="83">
         <v>-1</v>
       </c>
-      <c r="M47" s="46"/>
-    </row>
-    <row r="48" spans="1:13" s="39" customFormat="1">
-      <c r="A48" s="46">
+      <c r="M47" s="83"/>
+    </row>
+    <row r="48" spans="1:13" s="84" customFormat="1">
+      <c r="A48" s="83">
         <v>12604</v>
       </c>
-      <c r="B48" s="46">
-        <v>1</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" s="46" t="s">
+      <c r="B48" s="83">
+        <v>1</v>
+      </c>
+      <c r="C48" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="83">
         <v>12604</v>
       </c>
-      <c r="H48" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="46">
-        <v>1</v>
-      </c>
-      <c r="J48" s="46">
+      <c r="H48" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="83">
+        <v>1</v>
+      </c>
+      <c r="J48" s="83">
         <v>946656000</v>
       </c>
-      <c r="K48" s="46">
+      <c r="K48" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L48" s="46">
+      <c r="L48" s="83">
         <v>-1</v>
       </c>
-      <c r="M48" s="46"/>
-    </row>
-    <row r="49" spans="1:13" s="39" customFormat="1">
-      <c r="A49" s="46">
+      <c r="M48" s="83"/>
+    </row>
+    <row r="49" spans="1:13" s="84" customFormat="1">
+      <c r="A49" s="83">
         <v>12605</v>
       </c>
-      <c r="B49" s="46">
-        <v>1</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="F49" s="46" t="s">
+      <c r="B49" s="83">
+        <v>1</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F49" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="83">
         <v>12605</v>
       </c>
-      <c r="H49" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="46">
-        <v>1</v>
-      </c>
-      <c r="J49" s="46">
+      <c r="H49" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="83">
+        <v>1</v>
+      </c>
+      <c r="J49" s="83">
         <v>946656000</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L49" s="46">
+      <c r="L49" s="83">
         <v>-1</v>
       </c>
-      <c r="M49" s="46"/>
-    </row>
-    <row r="50" spans="1:13" s="39" customFormat="1">
-      <c r="A50" s="46">
+      <c r="M49" s="83"/>
+    </row>
+    <row r="50" spans="1:13" s="84" customFormat="1">
+      <c r="A50" s="83">
         <v>12606</v>
       </c>
-      <c r="B50" s="46">
-        <v>1</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="F50" s="46" t="s">
+      <c r="B50" s="83">
+        <v>1</v>
+      </c>
+      <c r="C50" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F50" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="83">
         <v>12606</v>
       </c>
-      <c r="H50" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="46">
-        <v>1</v>
-      </c>
-      <c r="J50" s="46">
+      <c r="H50" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="83">
+        <v>1</v>
+      </c>
+      <c r="J50" s="83">
         <v>946656000</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="83">
         <v>-1</v>
       </c>
-      <c r="M50" s="46"/>
-    </row>
-    <row r="51" spans="1:13" s="83" customFormat="1">
+      <c r="M50" s="83"/>
+    </row>
+    <row r="51" spans="1:13" s="82" customFormat="1">
       <c r="A51" s="46">
         <v>12607</v>
       </c>
-      <c r="B51" s="82">
-        <v>1</v>
-      </c>
-      <c r="C51" s="82" t="s">
+      <c r="B51" s="81">
+        <v>1</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="D51" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F51" s="82" t="s">
+      <c r="E51" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F51" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="46">
         <v>12607</v>
       </c>
-      <c r="H51" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="82">
-        <v>1</v>
-      </c>
-      <c r="J51" s="82">
+      <c r="H51" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="81">
+        <v>1</v>
+      </c>
+      <c r="J51" s="81">
         <v>946656000</v>
       </c>
-      <c r="K51" s="82">
+      <c r="K51" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L51" s="82">
+      <c r="L51" s="81">
         <v>-1</v>
       </c>
-      <c r="M51" s="82"/>
-    </row>
-    <row r="52" spans="1:13" s="83" customFormat="1">
+      <c r="M51" s="81"/>
+    </row>
+    <row r="52" spans="1:13" s="82" customFormat="1">
       <c r="A52" s="46">
         <v>12608</v>
       </c>
-      <c r="B52" s="82">
-        <v>1</v>
-      </c>
-      <c r="C52" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="E52" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F52" s="82" t="s">
+      <c r="B52" s="81">
+        <v>1</v>
+      </c>
+      <c r="C52" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="46">
         <v>12608</v>
       </c>
-      <c r="H52" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="82">
-        <v>1</v>
-      </c>
-      <c r="J52" s="82">
+      <c r="H52" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="81">
+        <v>1</v>
+      </c>
+      <c r="J52" s="81">
         <v>946656000</v>
       </c>
-      <c r="K52" s="82">
+      <c r="K52" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L52" s="82">
+      <c r="L52" s="81">
         <v>-1</v>
       </c>
-      <c r="M52" s="82"/>
-    </row>
-    <row r="53" spans="1:13" s="83" customFormat="1">
+      <c r="M52" s="81"/>
+    </row>
+    <row r="53" spans="1:13" s="82" customFormat="1">
       <c r="A53" s="46">
         <v>12609</v>
       </c>
-      <c r="B53" s="82">
-        <v>1</v>
-      </c>
-      <c r="C53" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="82" t="s">
-        <v>269</v>
-      </c>
-      <c r="E53" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F53" s="82" t="s">
+      <c r="B53" s="81">
+        <v>1</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="46">
         <v>12609</v>
       </c>
-      <c r="H53" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="82">
-        <v>1</v>
-      </c>
-      <c r="J53" s="82">
+      <c r="H53" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="81">
+        <v>1</v>
+      </c>
+      <c r="J53" s="81">
         <v>946656000</v>
       </c>
-      <c r="K53" s="82">
+      <c r="K53" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L53" s="82">
+      <c r="L53" s="81">
         <v>-1</v>
       </c>
-      <c r="M53" s="82"/>
-    </row>
-    <row r="54" spans="1:13" s="83" customFormat="1">
+      <c r="M53" s="81"/>
+    </row>
+    <row r="54" spans="1:13" s="82" customFormat="1">
       <c r="A54" s="46">
         <v>12610</v>
       </c>
-      <c r="B54" s="82">
-        <v>1</v>
-      </c>
-      <c r="C54" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D54" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="E54" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F54" s="82" t="s">
+      <c r="B54" s="81">
+        <v>1</v>
+      </c>
+      <c r="C54" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F54" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="46">
         <v>12610</v>
       </c>
-      <c r="H54" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" s="82">
-        <v>1</v>
-      </c>
-      <c r="J54" s="82">
+      <c r="H54" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="81">
+        <v>1</v>
+      </c>
+      <c r="J54" s="81">
         <v>946656000</v>
       </c>
-      <c r="K54" s="82">
+      <c r="K54" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L54" s="82">
+      <c r="L54" s="81">
         <v>-1</v>
       </c>
-      <c r="M54" s="82"/>
-    </row>
-    <row r="55" spans="1:13" s="83" customFormat="1">
+      <c r="M54" s="81"/>
+    </row>
+    <row r="55" spans="1:13" s="82" customFormat="1">
       <c r="A55" s="46">
         <v>12611</v>
       </c>
-      <c r="B55" s="82">
-        <v>1</v>
-      </c>
-      <c r="C55" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D55" s="82" t="s">
-        <v>272</v>
-      </c>
-      <c r="E55" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F55" s="82" t="s">
+      <c r="B55" s="81">
+        <v>1</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="81" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="46">
         <v>12611</v>
       </c>
-      <c r="H55" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="82">
-        <v>1</v>
-      </c>
-      <c r="J55" s="82">
+      <c r="H55" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="81">
+        <v>1</v>
+      </c>
+      <c r="J55" s="81">
         <v>946656000</v>
       </c>
-      <c r="K55" s="82">
+      <c r="K55" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L55" s="82">
+      <c r="L55" s="81">
         <v>-1</v>
       </c>
-      <c r="M55" s="82"/>
-    </row>
-    <row r="56" spans="1:13" s="83" customFormat="1">
+      <c r="M55" s="81"/>
+    </row>
+    <row r="56" spans="1:13" s="82" customFormat="1">
       <c r="A56" s="46">
         <v>12612</v>
       </c>
-      <c r="B56" s="82">
-        <v>1</v>
-      </c>
-      <c r="C56" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="E56" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F56" s="82" t="s">
+      <c r="B56" s="81">
+        <v>1</v>
+      </c>
+      <c r="C56" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F56" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="46">
         <v>12612</v>
       </c>
-      <c r="H56" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" s="82">
-        <v>1</v>
-      </c>
-      <c r="J56" s="82">
+      <c r="H56" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="81">
+        <v>1</v>
+      </c>
+      <c r="J56" s="81">
         <v>946656000</v>
       </c>
-      <c r="K56" s="82">
+      <c r="K56" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L56" s="82">
+      <c r="L56" s="81">
         <v>-1</v>
       </c>
-      <c r="M56" s="82"/>
-    </row>
-    <row r="57" spans="1:13" s="83" customFormat="1">
+      <c r="M56" s="81"/>
+    </row>
+    <row r="57" spans="1:13" s="82" customFormat="1">
       <c r="A57" s="46">
         <v>12613</v>
       </c>
-      <c r="B57" s="82">
-        <v>1</v>
-      </c>
-      <c r="C57" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D57" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="E57" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F57" s="82" t="s">
+      <c r="B57" s="81">
+        <v>1</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="46">
         <v>12613</v>
       </c>
-      <c r="H57" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="82">
-        <v>1</v>
-      </c>
-      <c r="J57" s="82">
+      <c r="H57" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="81">
+        <v>1</v>
+      </c>
+      <c r="J57" s="81">
         <v>946656000</v>
       </c>
-      <c r="K57" s="82">
+      <c r="K57" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L57" s="82">
+      <c r="L57" s="81">
         <v>-1</v>
       </c>
-      <c r="M57" s="82"/>
+      <c r="M57" s="81"/>
     </row>
     <row r="58" spans="1:13" s="15" customFormat="1">
       <c r="A58" s="42">
@@ -4236,7 +4337,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F58" s="42" t="s">
         <v>15</v>
@@ -4275,7 +4376,7 @@
         <v>34</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F59" s="42" t="s">
         <v>15</v>
@@ -4315,64 +4416,78 @@
     <row r="64" spans="1:13">
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="7:7">
+    <row r="65" spans="3:7">
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="7:7">
+    <row r="66" spans="3:7">
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="7:7">
+    <row r="67" spans="3:7">
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="7:7">
+    <row r="68" spans="3:7">
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="7:7">
+    <row r="69" spans="3:7">
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="7:7">
+    <row r="70" spans="3:7">
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="7:7">
+    <row r="71" spans="3:7">
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="7:7">
+    <row r="72" spans="3:7">
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="7:7">
+    <row r="73" spans="3:7">
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="7:7">
+    <row r="74" spans="3:7">
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="7:7">
+    <row r="75" spans="3:7">
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="7:7">
+    <row r="76" spans="3:7">
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="7:7">
+    <row r="77" spans="3:7">
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="7:7">
+    <row r="78" spans="3:7">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="7:7">
+    <row r="79" spans="3:7">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="7:7">
+    <row r="80" spans="3:7">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="3:7">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="3:7">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="3:7">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="3:7">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="3:7">
@@ -4984,41 +5099,6 @@
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
       <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="3:7">
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="G207" s="1"/>
-    </row>
-    <row r="208" spans="3:7">
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="3:7">
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="3:7">
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="3:7">
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="3:7">
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
-      <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="3:7">
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="G213" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5031,9 +5111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44:H57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5045,7 +5125,8 @@
     <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1">
@@ -5056,7 +5137,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>36</v>
@@ -5071,7 +5152,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I1" s="11"/>
     </row>
@@ -5360,7 +5441,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="25" customFormat="1">
@@ -5384,7 +5465,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="25" customFormat="1">
@@ -5408,7 +5489,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="25" customFormat="1">
@@ -5432,7 +5513,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="29" customFormat="1">
@@ -5456,7 +5537,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="36" customFormat="1">
@@ -5480,7 +5561,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="25" customFormat="1">
@@ -5504,7 +5585,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="29" customFormat="1">
@@ -5528,7 +5609,7 @@
         <v>40</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="29" customFormat="1">
@@ -5552,7 +5633,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="29" customFormat="1">
@@ -5576,7 +5657,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="29" customFormat="1">
@@ -5600,7 +5681,7 @@
         <v>40</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="29" customFormat="1">
@@ -5624,7 +5705,7 @@
         <v>40</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="38" customFormat="1">
@@ -5648,7 +5729,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="38" customFormat="1">
@@ -5672,7 +5753,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="38" customFormat="1">
@@ -5696,7 +5777,7 @@
         <v>40</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="38" customFormat="1">
@@ -5720,7 +5801,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="38" customFormat="1">
@@ -5744,7 +5825,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="38" customFormat="1">
@@ -5768,7 +5849,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="38" customFormat="1">
@@ -5792,7 +5873,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="38" customFormat="1">
@@ -5816,7 +5897,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="38" customFormat="1">
@@ -5840,7 +5921,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="38" customFormat="1">
@@ -5864,7 +5945,7 @@
         <v>40</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1">
@@ -5888,7 +5969,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="38" customFormat="1">
@@ -5912,7 +5993,7 @@
         <v>40</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="38" customFormat="1">
@@ -5936,7 +6017,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="36" customFormat="1">
@@ -5960,7 +6041,7 @@
         <v>40</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="49" customFormat="1">
@@ -5984,7 +6065,7 @@
         <v>40</v>
       </c>
       <c r="H39" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="49" customFormat="1">
@@ -6008,7 +6089,7 @@
         <v>40</v>
       </c>
       <c r="H40" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="50" customFormat="1">
@@ -6032,7 +6113,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="50" customFormat="1">
@@ -6056,7 +6137,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="50" customFormat="1">
@@ -6080,175 +6161,175 @@
         <v>40</v>
       </c>
       <c r="H43" s="47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="50" customFormat="1">
-      <c r="A44" s="55">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="88" customFormat="1">
+      <c r="A44" s="86">
         <v>43</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="87">
         <v>12600</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55">
+      <c r="C44" s="89"/>
+      <c r="D44" s="86">
         <v>36</v>
       </c>
-      <c r="E44" s="47">
-        <v>10000</v>
-      </c>
-      <c r="F44" s="47">
+      <c r="E44" s="87">
+        <v>50</v>
+      </c>
+      <c r="F44" s="87">
         <v>1034</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="50" customFormat="1">
-      <c r="A45" s="55">
+      <c r="H44" s="83" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="88" customFormat="1">
+      <c r="A45" s="86">
         <v>44</v>
       </c>
-      <c r="B45" s="47">
+      <c r="B45" s="87">
         <v>12601</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55">
-        <v>36</v>
-      </c>
-      <c r="E45" s="47">
-        <v>50000</v>
-      </c>
-      <c r="F45" s="47">
+      <c r="C45" s="86"/>
+      <c r="D45" s="86">
+        <v>38</v>
+      </c>
+      <c r="E45" s="87">
+        <v>200</v>
+      </c>
+      <c r="F45" s="87">
         <v>1035</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="46" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="50" customFormat="1">
-      <c r="A46" s="55">
+      <c r="H45" s="83" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="88" customFormat="1">
+      <c r="A46" s="86">
         <v>45</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="87">
         <v>12602</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55">
-        <v>36</v>
-      </c>
-      <c r="E46" s="47">
-        <v>100000</v>
-      </c>
-      <c r="F46" s="47">
+      <c r="C46" s="86"/>
+      <c r="D46" s="86">
+        <v>39</v>
+      </c>
+      <c r="E46" s="87">
+        <v>200</v>
+      </c>
+      <c r="F46" s="87">
         <v>1036</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="G46" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="50" customFormat="1">
-      <c r="A47" s="55">
+      <c r="H46" s="83" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="88" customFormat="1">
+      <c r="A47" s="86">
         <v>46</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="87">
         <v>12603</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55">
-        <v>36</v>
-      </c>
-      <c r="E47" s="47">
-        <v>500000</v>
-      </c>
-      <c r="F47" s="47">
+      <c r="C47" s="86"/>
+      <c r="D47" s="86">
+        <v>40</v>
+      </c>
+      <c r="E47" s="87">
+        <v>200</v>
+      </c>
+      <c r="F47" s="87">
         <v>1037</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="50" customFormat="1">
-      <c r="A48" s="55">
+      <c r="H47" s="83" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="88" customFormat="1">
+      <c r="A48" s="86">
         <v>47</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="87">
         <v>12604</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55">
-        <v>36</v>
-      </c>
-      <c r="E48" s="47">
+      <c r="C48" s="86"/>
+      <c r="D48" s="86">
+        <v>41</v>
+      </c>
+      <c r="E48" s="87">
+        <v>100</v>
+      </c>
+      <c r="F48" s="87">
+        <v>1038</v>
+      </c>
+      <c r="G48" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="88" customFormat="1">
+      <c r="A49" s="86">
+        <v>48</v>
+      </c>
+      <c r="B49" s="87">
+        <v>12605</v>
+      </c>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86">
+        <v>42</v>
+      </c>
+      <c r="E49" s="87">
         <v>1000000</v>
       </c>
-      <c r="F48" s="47">
-        <v>1038</v>
-      </c>
-      <c r="G48" s="55" t="s">
+      <c r="F49" s="87">
+        <v>1039</v>
+      </c>
+      <c r="G49" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="46" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="50" customFormat="1">
-      <c r="A49" s="55">
-        <v>48</v>
-      </c>
-      <c r="B49" s="47">
-        <v>12605</v>
-      </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55">
-        <v>36</v>
-      </c>
-      <c r="E49" s="47">
-        <v>5000000</v>
-      </c>
-      <c r="F49" s="47">
-        <v>1039</v>
-      </c>
-      <c r="G49" s="55" t="s">
+      <c r="H49" s="83" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="88" customFormat="1">
+      <c r="A50" s="86">
+        <v>49</v>
+      </c>
+      <c r="B50" s="87">
+        <v>12606</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86">
+        <v>43</v>
+      </c>
+      <c r="E50" s="87">
+        <v>1</v>
+      </c>
+      <c r="F50" s="87">
+        <v>1040</v>
+      </c>
+      <c r="G50" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="46" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="50" customFormat="1">
-      <c r="A50" s="55">
-        <v>49</v>
-      </c>
-      <c r="B50" s="47">
-        <v>12606</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55">
-        <v>36</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="F50" s="47">
-        <v>1040</v>
-      </c>
-      <c r="G50" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="46" t="s">
-        <v>286</v>
+      <c r="H50" s="83" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="50" customFormat="1">
@@ -6272,7 +6353,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="50" customFormat="1">
@@ -6296,7 +6377,7 @@
         <v>40</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="50" customFormat="1">
@@ -6320,7 +6401,7 @@
         <v>40</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="50" customFormat="1">
@@ -6344,7 +6425,7 @@
         <v>40</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="50" customFormat="1">
@@ -6368,7 +6449,7 @@
         <v>40</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="50" customFormat="1">
@@ -6392,7 +6473,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="50" customFormat="1">
@@ -6407,7 +6488,7 @@
         <v>37</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F57" s="47">
         <v>1047</v>
@@ -6416,7 +6497,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="29" customFormat="1">
@@ -6428,17 +6509,17 @@
       </c>
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
-      <c r="E58" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="57" t="s">
-        <v>234</v>
+      <c r="E58" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="F58" s="56" t="s">
+        <v>233</v>
       </c>
       <c r="G58" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="58" t="s">
-        <v>174</v>
+      <c r="H58" s="57" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="29" customFormat="1">
@@ -6450,17 +6531,17 @@
       </c>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
-      <c r="E59" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="79" t="s">
-        <v>258</v>
+      <c r="E59" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>257</v>
       </c>
       <c r="G59" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="58" t="s">
-        <v>174</v>
+      <c r="H59" s="57" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6962,10 +7043,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6977,22 +7058,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -7006,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="7">
         <v>1001</v>
@@ -7020,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="7">
         <v>1002</v>
@@ -7034,7 +7115,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
         <v>1003</v>
@@ -7048,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
         <v>1004</v>
@@ -7062,7 +7143,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -7076,7 +7157,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -7090,7 +7171,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
         <v>1005</v>
@@ -7104,7 +7185,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7">
         <v>1006</v>
@@ -7118,7 +7199,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
         <v>1007</v>
@@ -7132,7 +7213,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
         <v>1008</v>
@@ -7146,7 +7227,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
@@ -7160,7 +7241,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
@@ -7174,7 +7255,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
         <v>1009</v>
@@ -7188,7 +7269,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7">
         <v>1010</v>
@@ -7202,7 +7283,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
         <v>1011</v>
@@ -7216,7 +7297,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
         <v>1012</v>
@@ -7230,7 +7311,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
         <v>1013</v>
@@ -7244,7 +7325,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
         <v>1014</v>
@@ -7258,7 +7339,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="15">
         <v>1015</v>
@@ -7272,7 +7353,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="15">
         <v>1015</v>
@@ -7286,7 +7367,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="21">
         <v>0</v>
@@ -7300,7 +7381,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="21">
         <v>0</v>
@@ -7314,7 +7395,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="21">
         <v>0</v>
@@ -7328,7 +7409,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="21">
         <v>0</v>
@@ -7342,7 +7423,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="21">
         <v>0</v>
@@ -7356,7 +7437,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="21">
         <v>0</v>
@@ -7370,7 +7451,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -7384,7 +7465,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -7398,7 +7479,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="15">
         <v>1016</v>
@@ -7412,7 +7493,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="24">
         <v>1017</v>
@@ -7426,7 +7507,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="21">
         <v>1018</v>
@@ -7440,7 +7521,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -7455,7 +7536,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="24">
         <v>0</v>
@@ -7469,7 +7550,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="24">
         <v>0</v>
@@ -7483,7 +7564,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -7497,7 +7578,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" s="24">
         <v>0</v>
@@ -7511,7 +7592,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="24">
         <v>0</v>
@@ -7525,7 +7606,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="24">
         <v>0</v>
@@ -7539,7 +7620,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="24">
         <v>0</v>
@@ -7553,7 +7634,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="24">
         <v>0</v>
@@ -7567,7 +7648,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" s="21">
         <v>0</v>
@@ -7581,7 +7662,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="14">
         <v>1019</v>
@@ -7595,7 +7676,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="19">
         <v>1020</v>
@@ -7609,7 +7690,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -7623,7 +7704,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="19">
         <v>1021</v>
@@ -7637,7 +7718,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="19">
         <v>1022</v>
@@ -7651,7 +7732,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" s="33">
         <v>0</v>
@@ -7665,7 +7746,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="35">
         <v>0</v>
@@ -7679,7 +7760,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="34">
         <v>1018</v>
@@ -7693,7 +7774,7 @@
         <v>27</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" s="35">
         <v>0</v>
@@ -7707,7 +7788,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="35">
         <v>0</v>
@@ -7721,7 +7802,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="35">
         <v>1023</v>
@@ -7735,7 +7816,7 @@
         <v>30</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D54" s="35">
         <v>0</v>
@@ -7749,7 +7830,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" s="35">
         <v>0</v>
@@ -7763,7 +7844,7 @@
         <v>31</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="35">
         <v>0</v>
@@ -7777,7 +7858,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D57" s="35">
         <v>0</v>
@@ -7791,7 +7872,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D58" s="35">
         <v>0</v>
@@ -7805,7 +7886,7 @@
         <v>31</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D59" s="35">
         <v>0</v>
@@ -7819,7 +7900,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D60" s="35">
         <v>0</v>
@@ -7833,7 +7914,7 @@
         <v>31</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D61" s="35">
         <v>0</v>
@@ -7847,7 +7928,7 @@
         <v>31</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="35">
         <v>0</v>
@@ -7861,7 +7942,7 @@
         <v>32</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D63" s="35">
         <v>1010</v>
@@ -7875,7 +7956,7 @@
         <v>33</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64" s="34">
         <v>1018</v>
@@ -7889,7 +7970,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" s="35">
         <v>0</v>
@@ -7903,7 +7984,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="35">
         <v>0</v>
@@ -7917,7 +7998,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67" s="35">
         <v>0</v>
@@ -7931,7 +8012,7 @@
         <v>35</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" s="35">
         <v>0</v>
@@ -7945,7 +8026,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D69" s="35">
         <v>0</v>
@@ -7959,7 +8040,7 @@
         <v>35</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" s="35">
         <v>0</v>
@@ -7973,7 +8054,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D71" s="35">
         <v>0</v>
@@ -7987,7 +8068,7 @@
         <v>35</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" s="35">
         <v>0</v>
@@ -8001,7 +8082,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D73" s="35">
         <v>0</v>
@@ -8015,7 +8096,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D74" s="35">
         <v>0</v>
@@ -8029,7 +8110,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" s="35">
         <v>0</v>
@@ -8043,7 +8124,7 @@
         <v>37</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D76" s="35">
         <v>0</v>
@@ -8057,7 +8138,7 @@
         <v>37</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D77" s="35">
         <v>0</v>
@@ -8071,7 +8152,7 @@
         <v>37</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="35">
         <v>0</v>
@@ -8085,7 +8166,7 @@
         <v>37</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D79" s="35">
         <v>0</v>
@@ -8099,10 +8180,94 @@
         <v>37</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D80" s="35">
         <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="24">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>38</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D81" s="35">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="24">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>39</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" s="35">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="24">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>40</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D83" s="35">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="24">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>41</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D84" s="35">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="24">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="35">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="24">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D86" s="35">
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -8114,10 +8279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="A24" sqref="A24:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8132,22 +8297,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="66.95" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8158,10 +8323,10 @@
         <v>1001</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -8175,10 +8340,10 @@
         <v>1002</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -8192,10 +8357,10 @@
         <v>1003</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -8209,10 +8374,10 @@
         <v>1004</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -8226,10 +8391,10 @@
         <v>1005</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -8243,10 +8408,10 @@
         <v>1006</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -8260,10 +8425,10 @@
         <v>1007</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -8278,10 +8443,10 @@
         <v>1008</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -8296,10 +8461,10 @@
         <v>1009</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -8314,10 +8479,10 @@
         <v>1010</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -8332,10 +8497,10 @@
         <v>1011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -8350,10 +8515,10 @@
         <v>1012</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -8368,10 +8533,10 @@
         <v>1013</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -8386,10 +8551,10 @@
         <v>1014</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -8404,10 +8569,10 @@
         <v>1015</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="14">
         <v>2</v>
@@ -8423,10 +8588,10 @@
         <v>1016</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="E17" s="14">
         <v>2</v>
@@ -8442,10 +8607,10 @@
         <v>1017</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="24">
         <v>2</v>
@@ -8460,10 +8625,10 @@
         <v>1018</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E19" s="24">
         <v>2</v>
@@ -8478,7 +8643,7 @@
         <v>1019</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="14">
         <v>600</v>
@@ -8496,10 +8661,10 @@
         <v>1020</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="14">
         <v>2</v>
@@ -8514,10 +8679,10 @@
         <v>1021</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="14">
         <v>2</v>
@@ -8532,10 +8697,10 @@
         <v>1022</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="14">
         <v>2</v>
@@ -8551,13 +8716,115 @@
         <v>1023</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>205</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>206</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1027</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1028</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1029</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8569,10 +8836,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A112"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D81" activeCellId="6" sqref="D69 D71 D73 D75 D77 D79 D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8581,45 +8848,41 @@
     <col min="2" max="2" width="30.375" style="6" customWidth="1"/>
     <col min="3" max="4" width="22.625" style="6" customWidth="1"/>
     <col min="5" max="6" width="20.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="34" style="6" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="40" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="6"/>
+    <col min="7" max="7" width="30.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="34" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="40" style="6" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>60</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1">
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -8627,7 +8890,7 @@
         <v>1001</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="15">
         <v>100</v>
@@ -8635,11 +8898,11 @@
       <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="15" customFormat="1">
+      <c r="G2" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -8647,7 +8910,7 @@
         <v>1001</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="15">
         <v>10</v>
@@ -8656,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -8664,7 +8927,7 @@
         <v>1002</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="21">
         <v>2500</v>
@@ -8673,13 +8936,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="21"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -8687,7 +8949,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="21">
         <v>30</v>
@@ -8696,15 +8958,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="21" customFormat="1">
+      <c r="G5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -8712,7 +8973,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="21">
         <v>10000</v>
@@ -8720,12 +8981,12 @@
       <c r="E6" s="21">
         <v>1</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" s="21" customFormat="1">
+      <c r="G6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" s="21" customFormat="1">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -8733,7 +8994,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="21">
         <v>30</v>
@@ -8741,11 +9002,11 @@
       <c r="E7" s="21">
         <v>1</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -8753,7 +9014,7 @@
         <v>1004</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="21">
         <v>2000</v>
@@ -8764,9 +9025,8 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -8774,7 +9034,7 @@
         <v>1004</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="21">
         <v>30</v>
@@ -8785,9 +9045,8 @@
       <c r="F9" s="23"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1">
+    </row>
+    <row r="10" spans="1:8" s="15" customFormat="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -8795,7 +9054,7 @@
         <v>1005</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15">
         <v>10000</v>
@@ -8804,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1">
+    <row r="11" spans="1:8" s="15" customFormat="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -8812,7 +9071,7 @@
         <v>1005</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15">
         <v>30</v>
@@ -8821,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -8829,7 +9088,7 @@
         <v>1006</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="34">
         <v>10000</v>
@@ -8840,9 +9099,8 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -8850,7 +9108,7 @@
         <v>1006</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="34">
         <v>30</v>
@@ -8861,9 +9119,8 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -8871,7 +9128,7 @@
         <v>1007</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="21">
         <v>2500</v>
@@ -8882,9 +9139,8 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -8892,7 +9148,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="21">
         <v>30</v>
@@ -8903,9 +9159,8 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" s="15" customFormat="1">
+    </row>
+    <row r="16" spans="1:8" s="15" customFormat="1">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -8913,7 +9168,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="15">
         <v>30000</v>
@@ -8930,7 +9185,7 @@
         <v>1008</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="15">
         <v>50</v>
@@ -8947,7 +9202,7 @@
         <v>1009</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="15">
         <v>5000</v>
@@ -8964,7 +9219,7 @@
         <v>1009</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="15">
         <v>20</v>
@@ -8981,7 +9236,7 @@
         <v>1010</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
@@ -8995,7 +9250,7 @@
         <v>1010</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="15">
         <v>20</v>
@@ -9012,7 +9267,7 @@
         <v>1011</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" s="15">
         <v>10000</v>
@@ -9029,7 +9284,7 @@
         <v>1011</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="15">
         <v>30</v>
@@ -9046,7 +9301,7 @@
         <v>1012</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="15">
         <v>30000</v>
@@ -9063,7 +9318,7 @@
         <v>1012</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="15">
         <v>30</v>
@@ -9080,7 +9335,7 @@
         <v>1013</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="15">
         <v>5000</v>
@@ -9097,7 +9352,7 @@
         <v>1013</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="15">
         <v>20</v>
@@ -9115,7 +9370,7 @@
         <v>1014</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="15">
         <v>10000</v>
@@ -9133,7 +9388,7 @@
         <v>1014</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="15">
         <v>30</v>
@@ -9151,7 +9406,7 @@
         <v>1015</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D30" s="15">
         <v>15000</v>
@@ -9169,7 +9424,7 @@
         <v>1015</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="15">
         <v>30</v>
@@ -9187,7 +9442,7 @@
         <v>1016</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="15">
         <v>50000</v>
@@ -9205,7 +9460,7 @@
         <v>1016</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" s="15">
         <v>50</v>
@@ -9223,7 +9478,7 @@
         <v>1017</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="15">
         <v>15000</v>
@@ -9241,7 +9496,7 @@
         <v>1017</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D35" s="15">
         <v>20</v>
@@ -9259,7 +9514,7 @@
         <v>1018</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" s="15">
         <v>1</v>
@@ -9274,7 +9529,7 @@
         <v>1018</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="15">
         <v>20</v>
@@ -9292,7 +9547,7 @@
         <v>1019</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D38" s="15">
         <v>150000</v>
@@ -9310,7 +9565,7 @@
         <v>1019</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D39" s="15">
         <v>50</v>
@@ -9328,7 +9583,7 @@
         <v>1020</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="15">
         <v>20000</v>
@@ -9346,7 +9601,7 @@
         <v>1020</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="15">
         <v>20</v>
@@ -9364,7 +9619,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D42" s="15">
         <v>50000</v>
@@ -9382,7 +9637,7 @@
         <v>1021</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="15">
         <v>20</v>
@@ -9400,7 +9655,7 @@
         <v>1022</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="15">
         <v>15000</v>
@@ -9418,7 +9673,7 @@
         <v>1022</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" s="15">
         <v>30</v>
@@ -9436,7 +9691,7 @@
         <v>1023</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="15">
         <v>500000</v>
@@ -9454,7 +9709,7 @@
         <v>1023</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D47" s="15">
         <v>50</v>
@@ -9472,7 +9727,7 @@
         <v>1024</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D48" s="15">
         <v>50000</v>
@@ -9490,7 +9745,7 @@
         <v>1024</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" s="15">
         <v>30</v>
@@ -9508,7 +9763,7 @@
         <v>1025</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" s="15">
         <v>80000</v>
@@ -9526,7 +9781,7 @@
         <v>1025</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="15">
         <v>20</v>
@@ -9544,7 +9799,7 @@
         <v>1026</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="15">
         <v>10000</v>
@@ -9562,7 +9817,7 @@
         <v>1026</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53" s="15">
         <v>30</v>
@@ -9580,7 +9835,7 @@
         <v>1027</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E54" s="15">
         <v>1</v>
@@ -9595,7 +9850,7 @@
         <v>1027</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D55" s="15">
         <v>30</v>
@@ -9613,7 +9868,7 @@
         <v>1028</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" s="15">
         <v>1</v>
@@ -9628,7 +9883,7 @@
         <v>1028</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" s="15">
         <v>20</v>
@@ -9645,7 +9900,7 @@
         <v>1029</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="15">
         <v>30</v>
@@ -9662,7 +9917,7 @@
         <v>1029</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D59" s="15">
         <v>30</v>
@@ -9679,7 +9934,7 @@
         <v>1030</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="15">
         <v>30</v>
@@ -9696,7 +9951,7 @@
         <v>1030</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D61" s="15">
         <v>50</v>
@@ -9713,7 +9968,7 @@
         <v>1031</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="15">
         <v>50</v>
@@ -9730,7 +9985,7 @@
         <v>1031</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D63" s="15">
         <v>50</v>
@@ -9747,7 +10002,7 @@
         <v>1032</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="15">
         <v>150</v>
@@ -9764,7 +10019,7 @@
         <v>1032</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="15">
         <v>50</v>
@@ -9781,7 +10036,7 @@
         <v>1033</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="15">
         <v>500</v>
@@ -9798,7 +10053,7 @@
         <v>1033</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="15">
         <v>50</v>
@@ -9807,517 +10062,517 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="15" customFormat="1">
-      <c r="A68" s="80">
+    <row r="68" spans="1:5" s="84" customFormat="1">
+      <c r="A68" s="84">
         <v>67</v>
       </c>
-      <c r="B68" s="80">
+      <c r="B68" s="84">
         <v>1034</v>
       </c>
-      <c r="C68" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" s="80">
-        <v>200</v>
-      </c>
-      <c r="E68" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="15" customFormat="1">
-      <c r="A69" s="80">
+      <c r="C68" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" s="84">
+        <v>2000</v>
+      </c>
+      <c r="E68" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="84" customFormat="1">
+      <c r="A69" s="84">
         <v>68</v>
       </c>
-      <c r="B69" s="80">
+      <c r="B69" s="84">
         <v>1034</v>
       </c>
-      <c r="C69" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D69" s="80">
+      <c r="C69" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="84">
         <v>5</v>
       </c>
-      <c r="E69" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="15" customFormat="1">
-      <c r="A70" s="80">
+      <c r="E69" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="84" customFormat="1">
+      <c r="A70" s="84">
         <v>69</v>
       </c>
-      <c r="B70" s="80">
+      <c r="B70" s="84">
         <f>B68+1</f>
         <v>1035</v>
       </c>
-      <c r="C70" s="81" t="s">
-        <v>300</v>
-      </c>
-      <c r="D70" s="80">
-        <v>1000</v>
-      </c>
-      <c r="E70" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="15" customFormat="1">
-      <c r="A71" s="80">
+      <c r="C70" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="84">
+        <v>5000</v>
+      </c>
+      <c r="E70" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="84" customFormat="1">
+      <c r="A71" s="84">
         <v>70</v>
       </c>
-      <c r="B71" s="80">
+      <c r="B71" s="84">
         <f t="shared" ref="B71:B95" si="1">B69+1</f>
         <v>1035</v>
       </c>
-      <c r="C71" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D71" s="80">
+      <c r="C71" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="84">
         <v>5</v>
       </c>
-      <c r="E71" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="15" customFormat="1">
-      <c r="A72" s="80">
+      <c r="E71" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="84" customFormat="1">
+      <c r="A72" s="84">
         <v>71</v>
       </c>
-      <c r="B72" s="80">
+      <c r="B72" s="84">
         <f t="shared" si="1"/>
         <v>1036</v>
       </c>
-      <c r="C72" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D72" s="80">
-        <v>2000</v>
-      </c>
-      <c r="E72" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="15" customFormat="1">
-      <c r="A73" s="80">
+      <c r="C72" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D72" s="84">
+        <v>10000</v>
+      </c>
+      <c r="E72" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="84" customFormat="1">
+      <c r="A73" s="84">
         <v>72</v>
       </c>
-      <c r="B73" s="80">
+      <c r="B73" s="84">
         <f t="shared" si="1"/>
         <v>1036</v>
       </c>
-      <c r="C73" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" s="80">
+      <c r="C73" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" s="84">
         <v>10</v>
       </c>
-      <c r="E73" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="15" customFormat="1">
-      <c r="A74" s="80">
+      <c r="E73" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="84" customFormat="1">
+      <c r="A74" s="84">
         <v>73</v>
       </c>
-      <c r="B74" s="80">
+      <c r="B74" s="84">
         <f t="shared" si="1"/>
         <v>1037</v>
       </c>
-      <c r="C74" s="81" t="s">
-        <v>301</v>
-      </c>
-      <c r="D74" s="80">
-        <v>10000</v>
-      </c>
-      <c r="E74" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="15" customFormat="1">
-      <c r="A75" s="80">
+      <c r="C74" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" s="84">
+        <v>20000</v>
+      </c>
+      <c r="E74" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="84" customFormat="1">
+      <c r="A75" s="84">
         <v>74</v>
       </c>
-      <c r="B75" s="80">
+      <c r="B75" s="84">
         <f t="shared" si="1"/>
         <v>1037</v>
       </c>
-      <c r="C75" s="81" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" s="80">
+      <c r="C75" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="D75" s="84">
         <v>10</v>
       </c>
-      <c r="E75" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="15" customFormat="1">
-      <c r="A76" s="80">
+      <c r="E75" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="84" customFormat="1">
+      <c r="A76" s="84">
         <v>75</v>
       </c>
-      <c r="B76" s="80">
+      <c r="B76" s="84">
         <f t="shared" si="1"/>
         <v>1038</v>
       </c>
-      <c r="C76" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D76" s="80">
-        <v>20000</v>
-      </c>
-      <c r="E76" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="15" customFormat="1">
-      <c r="A77" s="80">
+      <c r="C76" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" s="84">
+        <v>30000</v>
+      </c>
+      <c r="E76" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="84" customFormat="1">
+      <c r="A77" s="84">
         <v>76</v>
       </c>
-      <c r="B77" s="80">
+      <c r="B77" s="84">
         <f t="shared" si="1"/>
         <v>1038</v>
       </c>
-      <c r="C77" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D77" s="80">
+      <c r="C77" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="84">
         <v>10</v>
       </c>
-      <c r="E77" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="15" customFormat="1">
-      <c r="A78" s="80">
+      <c r="E77" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="84" customFormat="1">
+      <c r="A78" s="84">
         <v>77</v>
       </c>
-      <c r="B78" s="80">
+      <c r="B78" s="84">
         <f t="shared" si="1"/>
         <v>1039</v>
       </c>
-      <c r="C78" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D78" s="80">
-        <v>100000</v>
-      </c>
-      <c r="E78" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="15" customFormat="1">
-      <c r="A79" s="80">
+      <c r="C78" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" s="84">
+        <v>20000</v>
+      </c>
+      <c r="E78" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="84" customFormat="1">
+      <c r="A79" s="84">
         <v>78</v>
       </c>
-      <c r="B79" s="80">
+      <c r="B79" s="84">
         <f t="shared" si="1"/>
         <v>1039</v>
       </c>
-      <c r="C79" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="D79" s="80">
+      <c r="C79" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="84">
         <v>20</v>
       </c>
-      <c r="E79" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="15" customFormat="1">
-      <c r="A80" s="80">
+      <c r="E79" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="84" customFormat="1">
+      <c r="A80" s="84">
         <v>79</v>
       </c>
-      <c r="B80" s="80">
+      <c r="B80" s="84">
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
-      <c r="C80" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="80">
-        <v>200000</v>
-      </c>
-      <c r="E80" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="15" customFormat="1">
-      <c r="A81" s="80">
+      <c r="C80" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="84">
+        <v>30000</v>
+      </c>
+      <c r="E80" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="84" customFormat="1">
+      <c r="A81" s="84">
         <v>80</v>
       </c>
-      <c r="B81" s="80">
+      <c r="B81" s="84">
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
-      <c r="C81" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D81" s="80">
+      <c r="C81" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D81" s="84">
         <v>30</v>
       </c>
-      <c r="E81" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="15" customFormat="1">
-      <c r="A82" s="80">
+      <c r="E81" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="15" customFormat="1">
+      <c r="A82" s="79">
         <v>81</v>
       </c>
-      <c r="B82" s="80">
+      <c r="B82" s="79">
         <f t="shared" si="1"/>
         <v>1041</v>
       </c>
-      <c r="C82" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D82" s="80">
+      <c r="C82" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="79">
         <v>200</v>
       </c>
-      <c r="E82" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="15" customFormat="1">
-      <c r="A83" s="80">
+      <c r="E82" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="15" customFormat="1">
+      <c r="A83" s="79">
         <v>82</v>
       </c>
-      <c r="B83" s="80">
+      <c r="B83" s="79">
         <f t="shared" si="1"/>
         <v>1041</v>
       </c>
-      <c r="C83" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D83" s="80">
+      <c r="C83" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="79">
         <v>5</v>
       </c>
-      <c r="E83" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="15" customFormat="1">
-      <c r="A84" s="80">
+      <c r="E83" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="15" customFormat="1">
+      <c r="A84" s="79">
         <v>83</v>
       </c>
-      <c r="B84" s="80">
+      <c r="B84" s="79">
         <f t="shared" si="1"/>
         <v>1042</v>
       </c>
-      <c r="C84" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D84" s="80">
+      <c r="C84" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" s="79">
         <v>1000</v>
       </c>
-      <c r="E84" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="15" customFormat="1">
-      <c r="A85" s="80">
+      <c r="E84" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="15" customFormat="1">
+      <c r="A85" s="79">
         <v>84</v>
       </c>
-      <c r="B85" s="80">
+      <c r="B85" s="79">
         <f t="shared" si="1"/>
         <v>1042</v>
       </c>
-      <c r="C85" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D85" s="80">
+      <c r="C85" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" s="79">
         <v>5</v>
       </c>
-      <c r="E85" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="15" customFormat="1">
-      <c r="A86" s="80">
+      <c r="E85" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="15" customFormat="1">
+      <c r="A86" s="79">
         <v>85</v>
       </c>
-      <c r="B86" s="80">
+      <c r="B86" s="79">
         <f t="shared" si="1"/>
         <v>1043</v>
       </c>
-      <c r="C86" s="81" t="s">
-        <v>301</v>
-      </c>
-      <c r="D86" s="80">
+      <c r="C86" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="D86" s="79">
         <v>2000</v>
       </c>
-      <c r="E86" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="15" customFormat="1">
-      <c r="A87" s="80">
+      <c r="E86" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="15" customFormat="1">
+      <c r="A87" s="79">
         <v>86</v>
       </c>
-      <c r="B87" s="80">
+      <c r="B87" s="79">
         <f t="shared" si="1"/>
         <v>1043</v>
       </c>
-      <c r="C87" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D87" s="80">
+      <c r="C87" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="79">
         <v>10</v>
       </c>
-      <c r="E87" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="15" customFormat="1">
-      <c r="A88" s="80">
+      <c r="E87" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="15" customFormat="1">
+      <c r="A88" s="79">
         <v>87</v>
       </c>
-      <c r="B88" s="80">
+      <c r="B88" s="79">
         <f t="shared" si="1"/>
         <v>1044</v>
       </c>
-      <c r="C88" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D88" s="80">
+      <c r="C88" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="79">
         <v>10000</v>
       </c>
-      <c r="E88" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="15" customFormat="1">
-      <c r="A89" s="80">
+      <c r="E88" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="15" customFormat="1">
+      <c r="A89" s="79">
         <v>88</v>
       </c>
-      <c r="B89" s="80">
+      <c r="B89" s="79">
         <f t="shared" si="1"/>
         <v>1044</v>
       </c>
-      <c r="C89" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="80">
+      <c r="C89" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" s="79">
         <v>10</v>
       </c>
-      <c r="E89" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="15" customFormat="1">
-      <c r="A90" s="80">
+      <c r="E89" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="15" customFormat="1">
+      <c r="A90" s="79">
         <v>89</v>
       </c>
-      <c r="B90" s="80">
+      <c r="B90" s="79">
         <f t="shared" si="1"/>
         <v>1045</v>
       </c>
-      <c r="C90" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D90" s="80">
+      <c r="C90" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="79">
         <v>20000</v>
       </c>
-      <c r="E90" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="15" customFormat="1">
-      <c r="A91" s="80">
+      <c r="E90" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="15" customFormat="1">
+      <c r="A91" s="79">
         <v>90</v>
       </c>
-      <c r="B91" s="80">
+      <c r="B91" s="79">
         <f t="shared" si="1"/>
         <v>1045</v>
       </c>
-      <c r="C91" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D91" s="80">
+      <c r="C91" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91" s="79">
         <v>10</v>
       </c>
-      <c r="E91" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="15" customFormat="1">
-      <c r="A92" s="80">
+      <c r="E91" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="15" customFormat="1">
+      <c r="A92" s="79">
         <v>91</v>
       </c>
-      <c r="B92" s="80">
+      <c r="B92" s="79">
         <f t="shared" si="1"/>
         <v>1046</v>
       </c>
-      <c r="C92" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D92" s="80">
+      <c r="C92" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" s="79">
         <v>100000</v>
       </c>
-      <c r="E92" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="15" customFormat="1">
-      <c r="A93" s="80">
+      <c r="E92" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="15" customFormat="1">
+      <c r="A93" s="79">
         <v>92</v>
       </c>
-      <c r="B93" s="80">
+      <c r="B93" s="79">
         <f t="shared" si="1"/>
         <v>1046</v>
       </c>
-      <c r="C93" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D93" s="80">
+      <c r="C93" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D93" s="79">
         <v>20</v>
       </c>
-      <c r="E93" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="15" customFormat="1">
-      <c r="A94" s="80">
+      <c r="E93" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="15" customFormat="1">
+      <c r="A94" s="79">
         <v>93</v>
       </c>
-      <c r="B94" s="80">
+      <c r="B94" s="79">
         <f t="shared" si="1"/>
         <v>1047</v>
       </c>
-      <c r="C94" s="81" t="s">
-        <v>302</v>
-      </c>
-      <c r="D94" s="80">
+      <c r="C94" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D94" s="79">
         <v>200000</v>
       </c>
-      <c r="E94" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="15" customFormat="1">
-      <c r="A95" s="80">
+      <c r="E94" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="15" customFormat="1">
+      <c r="A95" s="79">
         <v>94</v>
       </c>
-      <c r="B95" s="80">
+      <c r="B95" s="79">
         <f t="shared" si="1"/>
         <v>1047</v>
       </c>
-      <c r="C95" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D95" s="80">
+      <c r="C95" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" s="79">
         <v>30</v>
       </c>
-      <c r="E95" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="80">
+      <c r="E95" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="79">
         <v>95</v>
       </c>
       <c r="B96" s="21">
         <v>2001</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D96" s="21">
         <v>5000</v>
@@ -10328,17 +10583,16 @@
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="80">
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="79">
         <v>96</v>
       </c>
       <c r="B97" s="21">
         <v>2001</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97" s="21">
         <v>2</v>
@@ -10349,17 +10603,16 @@
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="80">
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="79">
         <v>97</v>
       </c>
       <c r="B98" s="21">
         <v>2002</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D98" s="21">
         <v>10000</v>
@@ -10370,17 +10623,16 @@
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="80">
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="79">
         <v>98</v>
       </c>
       <c r="B99" s="21">
         <v>2002</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D99" s="21">
         <v>1</v>
@@ -10391,17 +10643,16 @@
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
       <c r="H99" s="21"/>
-      <c r="I99" s="21"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="80">
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="79">
         <v>99</v>
       </c>
       <c r="B100" s="21">
         <v>2003</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D100" s="21">
         <v>10000</v>
@@ -10412,17 +10663,16 @@
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
       <c r="H100" s="21"/>
-      <c r="I100" s="21"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="80">
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="79">
         <v>100</v>
       </c>
       <c r="B101" s="21">
         <v>2003</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D101" s="21">
         <v>10000</v>
@@ -10433,17 +10683,16 @@
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
       <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="80">
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="79">
         <v>101</v>
       </c>
       <c r="B102" s="21">
         <v>2004</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D102" s="21">
         <v>10000</v>
@@ -10454,17 +10703,16 @@
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
       <c r="H102" s="21"/>
-      <c r="I102" s="21"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="80">
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="79">
         <v>102</v>
       </c>
       <c r="B103" s="21">
         <v>2004</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="21">
         <v>10000</v>
@@ -10475,17 +10723,16 @@
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
       <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="80">
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="79">
         <v>103</v>
       </c>
       <c r="B104" s="21">
         <v>2005</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D104" s="21">
         <v>60000</v>
@@ -10496,17 +10743,16 @@
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
       <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="80">
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="79">
         <v>104</v>
       </c>
       <c r="B105" s="21">
         <v>2006</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D105" s="21">
         <v>5000</v>
@@ -10517,17 +10763,16 @@
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="80">
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="79">
         <v>105</v>
       </c>
       <c r="B106" s="21">
         <v>2007</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D106" s="21">
         <v>1</v>
@@ -10538,17 +10783,16 @@
       <c r="F106" s="21"/>
       <c r="G106" s="21"/>
       <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="80">
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="79">
         <v>106</v>
       </c>
       <c r="B107" s="21">
         <v>2007</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D107" s="21">
         <v>10000</v>
@@ -10559,17 +10803,16 @@
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
-      <c r="I107" s="21"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="80">
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="79">
         <v>107</v>
       </c>
       <c r="B108" s="21">
         <v>2008</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D108" s="21">
         <v>10000</v>
@@ -10580,17 +10823,16 @@
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="80">
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="79">
         <v>108</v>
       </c>
       <c r="B109" s="21">
         <v>2008</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D109" s="21">
         <v>10000</v>
@@ -10601,17 +10843,16 @@
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
       <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="80">
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="79">
         <v>109</v>
       </c>
       <c r="B110" s="21">
         <v>2009</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D110" s="21">
         <v>20000</v>
@@ -10622,17 +10863,16 @@
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
       <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="80">
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="79">
         <v>110</v>
       </c>
       <c r="B111" s="21">
         <v>2009</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D111" s="21">
         <v>20000</v>
@@ -10643,17 +10883,16 @@
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
       <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="80">
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="79">
         <v>111</v>
       </c>
       <c r="B112" s="21">
         <v>2010</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D112" s="21">
         <v>50000</v>
@@ -10664,7 +10903,6 @@
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
       <c r="H112" s="21"/>
-      <c r="I112" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C104"/>
@@ -10690,82 +10928,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
         <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$104</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="318">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5111,9 +5111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7043,10 +7043,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8110,7 +8110,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D75" s="35">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>37</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76" s="35">
         <v>0</v>
@@ -8138,7 +8138,7 @@
         <v>37</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D77" s="35">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>37</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D78" s="35">
         <v>0</v>
@@ -8166,7 +8166,7 @@
         <v>37</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D79" s="35">
         <v>0</v>
@@ -8176,14 +8176,14 @@
       <c r="A80" s="24">
         <v>79</v>
       </c>
-      <c r="B80" s="33">
-        <v>37</v>
+      <c r="B80" s="1">
+        <v>38</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>157</v>
+        <v>309</v>
       </c>
       <c r="D80" s="35">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -8191,13 +8191,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>309</v>
       </c>
       <c r="D81" s="35">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8205,13 +8205,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>309</v>
       </c>
       <c r="D82" s="35">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -8219,13 +8219,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>309</v>
       </c>
       <c r="D83" s="35">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8233,13 +8233,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D84" s="35">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -8247,26 +8247,12 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D85" s="35">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="24">
-        <v>85</v>
-      </c>
-      <c r="B86" s="1">
-        <v>43</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="D86" s="35">
         <v>1029</v>
       </c>
     </row>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$104</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -954,10 +954,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>p_task_fish_daily_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>p_task_fish_daily_3_cps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1314,6 +1310,10 @@
   </si>
   <si>
     <t>30,30,30,30,30,1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_1_2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1408,7 +1408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1499,6 +1499,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1539,7 +1545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1790,6 +1796,15 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2069,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2426,7 +2441,7 @@
         <v>187</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="72" t="s">
         <v>15</v>
@@ -2699,7 +2714,7 @@
         <v>225</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F16" s="62" t="s">
         <v>114</v>
@@ -2855,7 +2870,7 @@
         <v>111</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20" s="59" t="s">
         <v>114</v>
@@ -2894,7 +2909,7 @@
         <v>163</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="F21" s="58" t="s">
         <v>15</v>
@@ -2933,7 +2948,7 @@
         <v>170</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F22" s="58" t="s">
         <v>15</v>
@@ -2972,7 +2987,7 @@
         <v>167</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F23" s="58" t="s">
         <v>15</v>
@@ -3011,7 +3026,7 @@
         <v>168</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F24" s="58" t="s">
         <v>15</v>
@@ -3036,44 +3051,44 @@
       </c>
       <c r="M24" s="58"/>
     </row>
-    <row r="25" spans="1:13" s="71" customFormat="1">
-      <c r="A25" s="69">
+    <row r="25" spans="1:13" s="93" customFormat="1">
+      <c r="A25" s="91">
         <v>12524</v>
       </c>
-      <c r="B25" s="69">
-        <v>1</v>
-      </c>
-      <c r="C25" s="69" t="s">
+      <c r="B25" s="91">
+        <v>0</v>
+      </c>
+      <c r="C25" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" s="70" t="s">
+      <c r="E25" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="91">
         <v>12524</v>
       </c>
-      <c r="H25" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="70">
-        <v>1</v>
-      </c>
-      <c r="J25" s="70">
+      <c r="H25" s="92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="92">
+        <v>1</v>
+      </c>
+      <c r="J25" s="92">
         <v>946656000</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="92">
         <v>32503651200</v>
       </c>
-      <c r="L25" s="70">
+      <c r="L25" s="92">
         <v>-1</v>
       </c>
-      <c r="M25" s="69"/>
+      <c r="M25" s="91"/>
     </row>
     <row r="26" spans="1:13" s="71" customFormat="1">
       <c r="A26" s="69">
@@ -3167,7 +3182,7 @@
         <v>183</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F28" s="75" t="s">
         <v>15</v>
@@ -3244,7 +3259,7 @@
       <c r="D30" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="75" t="s">
         <v>236</v>
       </c>
       <c r="F30" s="75" t="s">
@@ -3284,7 +3299,7 @@
         <v>188</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F31" s="76" t="s">
         <v>15</v>
@@ -3401,7 +3416,7 @@
         <v>219</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F34" s="64" t="s">
         <v>15</v>
@@ -3440,7 +3455,7 @@
         <v>190</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>15</v>
@@ -3479,7 +3494,7 @@
         <v>218</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>15</v>
@@ -3596,7 +3611,7 @@
         <v>168</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>15</v>
@@ -3635,7 +3650,7 @@
         <v>227</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>15</v>
@@ -3674,7 +3689,7 @@
         <v>229</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>15</v>
@@ -3713,7 +3728,7 @@
         <v>230</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>15</v>
@@ -3752,7 +3767,7 @@
         <v>231</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>15</v>
@@ -3785,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E44" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F44" s="83" t="s">
         <v>15</v>
@@ -3824,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F45" s="83" t="s">
         <v>15</v>
@@ -3863,13 +3878,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D46" s="83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F46" s="83" t="s">
         <v>15</v>
@@ -3902,13 +3917,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D47" s="83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E47" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F47" s="83" t="s">
         <v>15</v>
@@ -3941,13 +3956,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E48" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F48" s="83" t="s">
         <v>15</v>
@@ -3980,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F49" s="83" t="s">
         <v>15</v>
@@ -4019,13 +4034,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F50" s="83" t="s">
         <v>15</v>
@@ -4058,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="81" t="s">
-        <v>266</v>
-      </c>
       <c r="E51" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F51" s="81" t="s">
         <v>15</v>
@@ -4097,13 +4112,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F52" s="81" t="s">
         <v>15</v>
@@ -4136,13 +4151,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D53" s="81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F53" s="81" t="s">
         <v>15</v>
@@ -4175,13 +4190,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D54" s="81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E54" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F54" s="81" t="s">
         <v>15</v>
@@ -4214,13 +4229,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D55" s="81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E55" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F55" s="81" t="s">
         <v>15</v>
@@ -4253,13 +4268,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" s="81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E56" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F56" s="81" t="s">
         <v>15</v>
@@ -4292,13 +4307,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D57" s="81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E57" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F57" s="81" t="s">
         <v>15</v>
@@ -4337,7 +4352,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F58" s="42" t="s">
         <v>15</v>
@@ -4376,7 +4391,7 @@
         <v>34</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F59" s="42" t="s">
         <v>15</v>
@@ -6185,7 +6200,7 @@
         <v>40</v>
       </c>
       <c r="H44" s="83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="88" customFormat="1">
@@ -6209,7 +6224,7 @@
         <v>40</v>
       </c>
       <c r="H45" s="83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="88" customFormat="1">
@@ -6233,7 +6248,7 @@
         <v>40</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="88" customFormat="1">
@@ -6257,7 +6272,7 @@
         <v>40</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="88" customFormat="1">
@@ -6281,7 +6296,7 @@
         <v>40</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="88" customFormat="1">
@@ -6305,7 +6320,7 @@
         <v>40</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="88" customFormat="1">
@@ -6329,7 +6344,7 @@
         <v>40</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="50" customFormat="1">
@@ -6353,7 +6368,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="50" customFormat="1">
@@ -6377,7 +6392,7 @@
         <v>40</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="50" customFormat="1">
@@ -6401,7 +6416,7 @@
         <v>40</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="50" customFormat="1">
@@ -6425,7 +6440,7 @@
         <v>40</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="50" customFormat="1">
@@ -6449,7 +6464,7 @@
         <v>40</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="50" customFormat="1">
@@ -6473,7 +6488,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="50" customFormat="1">
@@ -6488,7 +6503,7 @@
         <v>37</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F57" s="47">
         <v>1047</v>
@@ -6497,7 +6512,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="29" customFormat="1">
@@ -6510,7 +6525,7 @@
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
       <c r="E58" s="90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F58" s="56" t="s">
         <v>233</v>
@@ -6532,10 +6547,10 @@
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F59" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G59" s="53" t="s">
         <v>40</v>
@@ -7045,7 +7060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -8082,7 +8097,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D73" s="35">
         <v>0</v>
@@ -8096,7 +8111,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D74" s="35">
         <v>0</v>
@@ -8180,7 +8195,7 @@
         <v>38</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D80" s="35">
         <v>1024</v>
@@ -8194,7 +8209,7 @@
         <v>39</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D81" s="35">
         <v>1025</v>
@@ -8208,7 +8223,7 @@
         <v>40</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D82" s="35">
         <v>1026</v>
@@ -8222,7 +8237,7 @@
         <v>41</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D83" s="35">
         <v>1027</v>
@@ -8236,7 +8251,7 @@
         <v>42</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D84" s="35">
         <v>1028</v>
@@ -8250,7 +8265,7 @@
         <v>43</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D85" s="35">
         <v>1029</v>
@@ -8719,7 +8734,7 @@
         <v>1024</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -8736,7 +8751,7 @@
         <v>1025</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -8753,7 +8768,7 @@
         <v>1026</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -8770,7 +8785,7 @@
         <v>1027</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -8787,10 +8802,10 @@
         <v>1028</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>312</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>313</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -8804,10 +8819,10 @@
         <v>1029</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -10056,7 +10071,7 @@
         <v>1034</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D68" s="84">
         <v>2000</v>
@@ -10073,7 +10088,7 @@
         <v>1034</v>
       </c>
       <c r="C69" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D69" s="84">
         <v>5</v>
@@ -10091,7 +10106,7 @@
         <v>1035</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D70" s="84">
         <v>5000</v>
@@ -10109,7 +10124,7 @@
         <v>1035</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D71" s="84">
         <v>5</v>
@@ -10127,7 +10142,7 @@
         <v>1036</v>
       </c>
       <c r="C72" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D72" s="84">
         <v>10000</v>
@@ -10145,7 +10160,7 @@
         <v>1036</v>
       </c>
       <c r="C73" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D73" s="84">
         <v>10</v>
@@ -10163,7 +10178,7 @@
         <v>1037</v>
       </c>
       <c r="C74" s="85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D74" s="84">
         <v>20000</v>
@@ -10181,7 +10196,7 @@
         <v>1037</v>
       </c>
       <c r="C75" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D75" s="84">
         <v>10</v>
@@ -10199,7 +10214,7 @@
         <v>1038</v>
       </c>
       <c r="C76" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D76" s="84">
         <v>30000</v>
@@ -10217,7 +10232,7 @@
         <v>1038</v>
       </c>
       <c r="C77" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D77" s="84">
         <v>10</v>
@@ -10235,7 +10250,7 @@
         <v>1039</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D78" s="84">
         <v>20000</v>
@@ -10253,7 +10268,7 @@
         <v>1039</v>
       </c>
       <c r="C79" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D79" s="84">
         <v>20</v>
@@ -10271,7 +10286,7 @@
         <v>1040</v>
       </c>
       <c r="C80" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D80" s="84">
         <v>30000</v>
@@ -10289,7 +10304,7 @@
         <v>1040</v>
       </c>
       <c r="C81" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D81" s="84">
         <v>30</v>
@@ -10307,7 +10322,7 @@
         <v>1041</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D82" s="79">
         <v>200</v>
@@ -10325,7 +10340,7 @@
         <v>1041</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D83" s="79">
         <v>5</v>
@@ -10343,7 +10358,7 @@
         <v>1042</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D84" s="79">
         <v>1000</v>
@@ -10361,7 +10376,7 @@
         <v>1042</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D85" s="79">
         <v>5</v>
@@ -10379,7 +10394,7 @@
         <v>1043</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D86" s="79">
         <v>2000</v>
@@ -10397,7 +10412,7 @@
         <v>1043</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D87" s="79">
         <v>10</v>
@@ -10415,7 +10430,7 @@
         <v>1044</v>
       </c>
       <c r="C88" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="79">
         <v>10000</v>
@@ -10433,7 +10448,7 @@
         <v>1044</v>
       </c>
       <c r="C89" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D89" s="79">
         <v>10</v>
@@ -10451,7 +10466,7 @@
         <v>1045</v>
       </c>
       <c r="C90" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="79">
         <v>20000</v>
@@ -10469,7 +10484,7 @@
         <v>1045</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D91" s="79">
         <v>10</v>
@@ -10487,7 +10502,7 @@
         <v>1046</v>
       </c>
       <c r="C92" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="79">
         <v>100000</v>
@@ -10505,7 +10520,7 @@
         <v>1046</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D93" s="79">
         <v>20</v>
@@ -10523,7 +10538,7 @@
         <v>1047</v>
       </c>
       <c r="C94" s="80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D94" s="79">
         <v>200000</v>
@@ -10541,7 +10556,7 @@
         <v>1047</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D95" s="79">
         <v>30</v>
@@ -10738,7 +10753,7 @@
         <v>2006</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D105" s="21">
         <v>5000</v>
@@ -10758,7 +10773,7 @@
         <v>2007</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D106" s="21">
         <v>1</v>
@@ -10778,7 +10793,7 @@
         <v>2007</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D107" s="21">
         <v>10000</v>
@@ -10798,7 +10813,7 @@
         <v>2008</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D108" s="21">
         <v>10000</v>
@@ -10818,7 +10833,7 @@
         <v>2008</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D109" s="21">
         <v>10000</v>
@@ -10838,7 +10853,7 @@
         <v>2009</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D110" s="21">
         <v>20000</v>
@@ -10858,7 +10873,7 @@
         <v>2009</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" s="21">
         <v>20000</v>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2084,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5128,7 +5128,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8839,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D81" activeCellId="6" sqref="D69 D71 D73 D75 D77 D79 D81"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10074,7 +10074,7 @@
         <v>259</v>
       </c>
       <c r="D68" s="84">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E68" s="84">
         <v>1</v>
@@ -10109,7 +10109,7 @@
         <v>290</v>
       </c>
       <c r="D70" s="84">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E70" s="84">
         <v>1</v>
@@ -10145,7 +10145,7 @@
         <v>259</v>
       </c>
       <c r="D72" s="84">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E72" s="84">
         <v>1</v>
@@ -10181,7 +10181,7 @@
         <v>291</v>
       </c>
       <c r="D74" s="84">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="E74" s="84">
         <v>1</v>
@@ -10217,7 +10217,7 @@
         <v>259</v>
       </c>
       <c r="D76" s="84">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="E76" s="84">
         <v>1</v>
@@ -10253,7 +10253,7 @@
         <v>259</v>
       </c>
       <c r="D78" s="84">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E78" s="84">
         <v>1</v>
@@ -10289,7 +10289,7 @@
         <v>259</v>
       </c>
       <c r="D80" s="84">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E80" s="84">
         <v>1</v>
@@ -10433,7 +10433,7 @@
         <v>259</v>
       </c>
       <c r="D88" s="79">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E88" s="79">
         <v>1</v>
@@ -10469,7 +10469,7 @@
         <v>259</v>
       </c>
       <c r="D90" s="79">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="E90" s="79">
         <v>1</v>
@@ -10505,7 +10505,7 @@
         <v>259</v>
       </c>
       <c r="D92" s="79">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="E92" s="79">
         <v>1</v>
@@ -10541,7 +10541,7 @@
         <v>292</v>
       </c>
       <c r="D94" s="79">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="E94" s="79">
         <v>1</v>
@@ -10756,7 +10756,7 @@
         <v>260</v>
       </c>
       <c r="D105" s="21">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E105" s="21">
         <v>1</v>
@@ -10796,7 +10796,7 @@
         <v>262</v>
       </c>
       <c r="D107" s="21">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E107" s="21">
         <v>1</v>
@@ -10816,7 +10816,7 @@
         <v>261</v>
       </c>
       <c r="D108" s="21">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E108" s="21">
         <v>1</v>
@@ -10836,7 +10836,7 @@
         <v>257</v>
       </c>
       <c r="D109" s="21">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E109" s="21">
         <v>1</v>
@@ -10856,7 +10856,7 @@
         <v>258</v>
       </c>
       <c r="D110" s="21">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E110" s="21">
         <v>1</v>
@@ -10876,7 +10876,7 @@
         <v>259</v>
       </c>
       <c r="D111" s="21">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E111" s="21">
         <v>1</v>
@@ -10896,7 +10896,7 @@
         <v>160</v>
       </c>
       <c r="D112" s="21">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="E112" s="21">
         <v>1</v>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="340">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1377,6 +1377,18 @@
   </si>
   <si>
     <t>p_task_fish_daily_cpl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2124,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M215"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5735,7 +5747,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58:H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7836,10 +7848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8969,42 +8981,42 @@
       <c r="A80" s="24">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
-        <v>38</v>
+      <c r="B80" s="33">
+        <v>37</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="D80" s="35">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="24">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <v>39</v>
+      <c r="B81" s="33">
+        <v>37</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="D81" s="35">
-        <v>1025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="24">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>40</v>
+      <c r="B82" s="33">
+        <v>37</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="D82" s="35">
-        <v>1026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -9012,13 +9024,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>302</v>
       </c>
       <c r="D83" s="35">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -9026,13 +9038,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D84" s="35">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -9040,12 +9052,54 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
+        <v>40</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="35">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="24">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>41</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" s="35">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="24">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" s="35">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="24">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
         <v>43</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C88" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="D85" s="35">
+      <c r="D88" s="35">
         <v>1029</v>
       </c>
     </row>
@@ -9617,7 +9671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$147</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="358">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1014,31 +1014,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>jing_bi</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_hammer_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1285,11 +1265,186 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>2011,2012,2013,2014,2015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀彩金鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_official</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值大于6元</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl</t>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_official</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼100条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_official</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_frozen","prop_3d_fish_lock","prop_3d_fish_summon_fish","prop_3d_fish_accelerate","prop_3d_fish_wild","prop_3d_fish_doubled"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_official</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_official</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计游戏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐游戏10次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸游戏20次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐游戏20次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐游戏20次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_game_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_game_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐出现一次幸运时刻（单局至少投入6万）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金500万（单局至少投入6万）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金500万（单局至少投入60000）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>vip_fanbei_award_task</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2011,2012,2013,2014,2015</t>
+    <t>vip_fanbei_award_task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_cjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1297,98 +1452,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>击杀彩金鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_official</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单笔充值大于6元</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cpl</t>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cpl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cpl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_official</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计捕鱼100条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_official</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_3d_fish_frozen","prop_3d_fish_lock","prop_3d_fish_summon_fish","prop_3d_fish_accelerate","prop_3d_fish_wild","prop_3d_fish_doubled"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_official</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_official</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cpl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>guess_apple_award</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiaole_xiyou_award</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwzb_game_award</t>
+    <t>vip_fanbei_award_level_task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐出现一次幸运时刻（单局至少投入30000）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1483,7 +1555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1568,6 +1640,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1608,7 +1686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1856,6 +1934,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2134,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:G70"/>
+    <sheetView topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2454,7 +2544,7 @@
         <v>184</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>15</v>
@@ -2649,7 +2739,7 @@
         <v>106</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F13" s="78" t="s">
         <v>114</v>
@@ -2799,13 +2889,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D17" s="78" t="s">
         <v>178</v>
       </c>
       <c r="E17" s="79" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F17" s="78" t="s">
         <v>114</v>
@@ -2919,10 +3009,10 @@
         <v>180</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E20" s="79" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F20" s="78" t="s">
         <v>114</v>
@@ -2961,7 +3051,7 @@
         <v>163</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F21" s="79" t="s">
         <v>15</v>
@@ -2997,10 +3087,10 @@
         <v>24</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>15</v>
@@ -3039,7 +3129,7 @@
         <v>167</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F23" s="79" t="s">
         <v>15</v>
@@ -3078,7 +3168,7 @@
         <v>168</v>
       </c>
       <c r="E24" s="79" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F24" s="79" t="s">
         <v>15</v>
@@ -3507,7 +3597,7 @@
         <v>189</v>
       </c>
       <c r="E35" s="85" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F35" s="85" t="s">
         <v>15</v>
@@ -3546,7 +3636,7 @@
         <v>217</v>
       </c>
       <c r="E36" s="85" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F36" s="85" t="s">
         <v>15</v>
@@ -3819,7 +3909,7 @@
         <v>230</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F43" s="85" t="s">
         <v>15</v>
@@ -3858,10 +3948,10 @@
         <v>178</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G44" s="81">
         <v>12543</v>
@@ -3897,7 +3987,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F45" s="81" t="s">
         <v>113</v>
@@ -3936,10 +4026,10 @@
         <v>163</v>
       </c>
       <c r="E46" s="82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G46" s="81">
         <v>12545</v>
@@ -3975,10 +4065,10 @@
         <v>167</v>
       </c>
       <c r="E47" s="82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F47" s="82" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G47" s="81">
         <v>12546</v>
@@ -4014,10 +4104,10 @@
         <v>168</v>
       </c>
       <c r="E48" s="82" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F48" s="82" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G48" s="81">
         <v>12547</v>
@@ -4053,7 +4143,7 @@
         <v>226</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F49" s="70" t="s">
         <v>15</v>
@@ -4092,7 +4182,7 @@
         <v>163</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F50" s="70" t="s">
         <v>15</v>
@@ -4131,7 +4221,7 @@
         <v>167</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F51" s="70" t="s">
         <v>15</v>
@@ -4170,7 +4260,7 @@
         <v>168</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F52" s="70" t="s">
         <v>15</v>
@@ -4203,13 +4293,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D53" s="71" t="s">
         <v>178</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F53" s="71" t="s">
         <v>114</v>
@@ -4248,7 +4338,7 @@
         <v>106</v>
       </c>
       <c r="E54" s="79" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F54" s="78" t="s">
         <v>113</v>
@@ -4284,10 +4374,10 @@
         <v>24</v>
       </c>
       <c r="D55" s="79" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E55" s="79" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F55" s="79" t="s">
         <v>15</v>
@@ -4326,7 +4416,7 @@
         <v>106</v>
       </c>
       <c r="E56" s="79" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F56" s="78" t="s">
         <v>113</v>
@@ -4362,7 +4452,7 @@
         <v>24</v>
       </c>
       <c r="D57" s="79" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E57" s="79" t="s">
         <v>243</v>
@@ -4395,16 +4485,16 @@
         <v>12600</v>
       </c>
       <c r="B58" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D58" s="88" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E58" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F58" s="88" t="s">
         <v>15</v>
@@ -4434,16 +4524,16 @@
         <v>12601</v>
       </c>
       <c r="B59" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F59" s="88" t="s">
         <v>15</v>
@@ -4473,16 +4563,16 @@
         <v>12602</v>
       </c>
       <c r="B60" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F60" s="88" t="s">
         <v>15</v>
@@ -4512,16 +4602,16 @@
         <v>12603</v>
       </c>
       <c r="B61" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E61" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F61" s="88" t="s">
         <v>15</v>
@@ -4551,16 +4641,16 @@
         <v>12604</v>
       </c>
       <c r="B62" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D62" s="90" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E62" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F62" s="88" t="s">
         <v>15</v>
@@ -4590,16 +4680,16 @@
         <v>12605</v>
       </c>
       <c r="B63" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D63" s="88" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E63" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F63" s="88" t="s">
         <v>15</v>
@@ -4629,16 +4719,16 @@
         <v>12606</v>
       </c>
       <c r="B64" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D64" s="88" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E64" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F64" s="88" t="s">
         <v>15</v>
@@ -4668,16 +4758,16 @@
         <v>12607</v>
       </c>
       <c r="B65" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D65" s="88" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E65" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F65" s="88" t="s">
         <v>15</v>
@@ -4707,16 +4797,16 @@
         <v>12608</v>
       </c>
       <c r="B66" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D66" s="88" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E66" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F66" s="88" t="s">
         <v>15</v>
@@ -4746,16 +4836,16 @@
         <v>12609</v>
       </c>
       <c r="B67" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D67" s="88" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E67" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F67" s="88" t="s">
         <v>15</v>
@@ -4785,16 +4875,16 @@
         <v>12610</v>
       </c>
       <c r="B68" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D68" s="88" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E68" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F68" s="88" t="s">
         <v>15</v>
@@ -4824,16 +4914,16 @@
         <v>12611</v>
       </c>
       <c r="B69" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D69" s="88" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E69" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F69" s="88" t="s">
         <v>15</v>
@@ -4863,16 +4953,16 @@
         <v>12612</v>
       </c>
       <c r="B70" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="D70" s="88" t="s">
-        <v>263</v>
-      </c>
       <c r="E70" s="88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F70" s="88" t="s">
         <v>15</v>
@@ -4902,16 +4992,16 @@
         <v>12613</v>
       </c>
       <c r="B71" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D71" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="E71" s="88" t="s">
         <v>262</v>
-      </c>
-      <c r="E71" s="88" t="s">
-        <v>267</v>
       </c>
       <c r="F71" s="88" t="s">
         <v>15</v>
@@ -4936,205 +5026,443 @@
       </c>
       <c r="M71" s="88"/>
     </row>
-    <row r="72" spans="1:13" s="15" customFormat="1">
-      <c r="A72" s="41">
+    <row r="72" spans="1:13" s="92" customFormat="1">
+      <c r="A72" s="91">
+        <v>12614</v>
+      </c>
+      <c r="B72" s="91">
+        <v>1</v>
+      </c>
+      <c r="C72" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E72" s="91" t="s">
+        <v>353</v>
+      </c>
+      <c r="F72" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="G72" s="91">
+        <v>12614</v>
+      </c>
+      <c r="H72" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="91">
+        <v>1</v>
+      </c>
+      <c r="J72" s="91">
+        <v>946656000</v>
+      </c>
+      <c r="K72" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L72" s="91">
+        <v>-1</v>
+      </c>
+      <c r="M72" s="91"/>
+    </row>
+    <row r="73" spans="1:13" s="92" customFormat="1">
+      <c r="A73" s="91">
+        <v>12615</v>
+      </c>
+      <c r="B73" s="91">
+        <v>1</v>
+      </c>
+      <c r="C73" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="D73" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="E73" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="G73" s="91">
+        <v>12615</v>
+      </c>
+      <c r="H73" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="91">
+        <v>1</v>
+      </c>
+      <c r="J73" s="91">
+        <v>946656000</v>
+      </c>
+      <c r="K73" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L73" s="91">
+        <v>-1</v>
+      </c>
+      <c r="M73" s="91"/>
+    </row>
+    <row r="74" spans="1:13" s="92" customFormat="1">
+      <c r="A74" s="91">
+        <v>12616</v>
+      </c>
+      <c r="B74" s="91">
+        <v>1</v>
+      </c>
+      <c r="C74" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="D74" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="F74" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="91">
+        <v>12616</v>
+      </c>
+      <c r="H74" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="91">
+        <v>1</v>
+      </c>
+      <c r="J74" s="91">
+        <v>946656000</v>
+      </c>
+      <c r="K74" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L74" s="91">
+        <v>-1</v>
+      </c>
+      <c r="M74" s="91"/>
+    </row>
+    <row r="75" spans="1:13" s="92" customFormat="1">
+      <c r="A75" s="91">
+        <v>12617</v>
+      </c>
+      <c r="B75" s="91">
+        <v>1</v>
+      </c>
+      <c r="C75" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="D75" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="F75" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="G75" s="91">
+        <v>12617</v>
+      </c>
+      <c r="H75" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" s="91">
+        <v>1</v>
+      </c>
+      <c r="J75" s="91">
+        <v>946656000</v>
+      </c>
+      <c r="K75" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L75" s="91">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="91"/>
+    </row>
+    <row r="76" spans="1:13" s="92" customFormat="1">
+      <c r="A76" s="91">
+        <v>12618</v>
+      </c>
+      <c r="B76" s="91">
+        <v>1</v>
+      </c>
+      <c r="C76" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="E76" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="F76" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="G76" s="91">
+        <v>12618</v>
+      </c>
+      <c r="H76" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="91">
+        <v>1</v>
+      </c>
+      <c r="J76" s="91">
+        <v>946656000</v>
+      </c>
+      <c r="K76" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L76" s="91">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="91"/>
+    </row>
+    <row r="77" spans="1:13" s="92" customFormat="1">
+      <c r="A77" s="91">
+        <v>12619</v>
+      </c>
+      <c r="B77" s="91">
+        <v>1</v>
+      </c>
+      <c r="C77" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="91" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="G77" s="91">
+        <v>12619</v>
+      </c>
+      <c r="H77" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="91">
+        <v>1</v>
+      </c>
+      <c r="J77" s="91">
+        <v>946656000</v>
+      </c>
+      <c r="K77" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L77" s="91">
+        <v>-1</v>
+      </c>
+      <c r="M77" s="91"/>
+    </row>
+    <row r="78" spans="1:13" s="92" customFormat="1">
+      <c r="A78" s="91">
+        <v>12620</v>
+      </c>
+      <c r="B78" s="91">
+        <v>1</v>
+      </c>
+      <c r="C78" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="F78" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="91">
+        <v>12620</v>
+      </c>
+      <c r="H78" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="91">
+        <v>1</v>
+      </c>
+      <c r="J78" s="91">
+        <v>946656000</v>
+      </c>
+      <c r="K78" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L78" s="91">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="91"/>
+    </row>
+    <row r="79" spans="1:13" s="15" customFormat="1">
+      <c r="A79" s="41">
         <v>13000</v>
       </c>
-      <c r="B72" s="41">
-        <v>1</v>
-      </c>
-      <c r="C72" s="42" t="s">
+      <c r="B79" s="41">
+        <v>1</v>
+      </c>
+      <c r="C79" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D79" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="F72" s="41" t="s">
+      <c r="E79" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="41">
+      <c r="G79" s="41">
         <v>13000</v>
       </c>
-      <c r="H72" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" s="41">
-        <v>1</v>
-      </c>
-      <c r="J72" s="41">
+      <c r="H79" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" s="41">
+        <v>1</v>
+      </c>
+      <c r="J79" s="41">
         <v>946656000</v>
       </c>
-      <c r="K72" s="41">
+      <c r="K79" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L72" s="41">
+      <c r="L79" s="41">
         <v>-1</v>
       </c>
-      <c r="M72" s="41"/>
-    </row>
-    <row r="73" spans="1:13" s="15" customFormat="1">
-      <c r="A73" s="41">
+      <c r="M79" s="41"/>
+    </row>
+    <row r="80" spans="1:13" s="15" customFormat="1">
+      <c r="A80" s="41">
         <v>13001</v>
       </c>
-      <c r="B73" s="41">
-        <v>1</v>
-      </c>
-      <c r="C73" s="42" t="s">
+      <c r="B80" s="41">
+        <v>1</v>
+      </c>
+      <c r="C80" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D80" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="41">
+      <c r="E80" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G80" s="41">
         <v>13001</v>
       </c>
-      <c r="H73" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" s="41">
-        <v>1</v>
-      </c>
-      <c r="J73" s="41">
+      <c r="H80" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" s="41">
+        <v>1</v>
+      </c>
+      <c r="J80" s="41">
         <v>946656000</v>
       </c>
-      <c r="K73" s="41">
+      <c r="K80" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L73" s="41">
+      <c r="L80" s="41">
         <v>-1</v>
       </c>
-      <c r="M73" s="41"/>
-    </row>
-    <row r="74" spans="1:13" s="15" customFormat="1">
-      <c r="A74" s="41">
+      <c r="M80" s="41"/>
+    </row>
+    <row r="81" spans="1:13" s="15" customFormat="1">
+      <c r="A81" s="41">
         <v>13002</v>
       </c>
-      <c r="B74" s="41">
-        <v>1</v>
-      </c>
-      <c r="C74" s="42" t="s">
+      <c r="B81" s="41">
+        <v>1</v>
+      </c>
+      <c r="C81" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="D81" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="G74" s="41">
+      <c r="E81" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G81" s="41">
         <v>13002</v>
       </c>
-      <c r="H74" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" s="41">
-        <v>1</v>
-      </c>
-      <c r="J74" s="41">
+      <c r="H81" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" s="41">
+        <v>1</v>
+      </c>
+      <c r="J81" s="41">
         <v>946656000</v>
       </c>
-      <c r="K74" s="41">
+      <c r="K81" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L74" s="41">
+      <c r="L81" s="41">
         <v>-1</v>
       </c>
-      <c r="M74" s="41"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="3:7">
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="3:7">
+      <c r="M81" s="41"/>
+    </row>
+    <row r="82" spans="1:13">
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="3:7">
+    <row r="83" spans="1:13">
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="3:7">
+    <row r="84" spans="1:13">
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="3:7">
+    <row r="85" spans="1:13">
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="3:7">
+    <row r="86" spans="1:13">
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="3:7">
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+    <row r="87" spans="1:13">
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="3:7">
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+    <row r="88" spans="1:13">
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="3:7">
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+    <row r="89" spans="1:13">
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="3:7">
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+    <row r="90" spans="1:13">
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="3:7">
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+    <row r="91" spans="1:13">
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="3:7">
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+    <row r="92" spans="1:13">
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="3:7">
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+    <row r="93" spans="1:13">
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="3:7">
+    <row r="94" spans="1:13">
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="3:7">
+    <row r="95" spans="1:13">
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="3:7">
+    <row r="96" spans="1:13">
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="G96" s="1"/>
@@ -5733,6 +6061,41 @@
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
       <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="3:7">
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="3:7">
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="3:7">
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="3:7">
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="3:7">
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="3:7">
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="3:7">
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="G222" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5743,11 +6106,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58:H63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6987,7 +7350,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="67" customFormat="1">
@@ -7011,7 +7374,7 @@
         <v>40</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="67" customFormat="1">
@@ -7035,7 +7398,7 @@
         <v>40</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="67" customFormat="1">
@@ -7059,7 +7422,7 @@
         <v>40</v>
       </c>
       <c r="H54" s="62" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="67" customFormat="1">
@@ -7083,7 +7446,7 @@
         <v>40</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="67" customFormat="1">
@@ -7107,7 +7470,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="62" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="67" customFormat="1">
@@ -7131,7 +7494,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="62" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="48" customFormat="1">
@@ -7155,7 +7518,7 @@
         <v>40</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="48" customFormat="1">
@@ -7179,7 +7542,7 @@
         <v>40</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="48" customFormat="1">
@@ -7203,7 +7566,7 @@
         <v>40</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="48" customFormat="1">
@@ -7227,7 +7590,7 @@
         <v>40</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="48" customFormat="1">
@@ -7251,7 +7614,7 @@
         <v>40</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="48" customFormat="1">
@@ -7275,7 +7638,7 @@
         <v>40</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="48" customFormat="1">
@@ -7290,7 +7653,7 @@
         <v>37</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F64" s="46">
         <v>1047</v>
@@ -7299,114 +7662,259 @@
         <v>40</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="29" customFormat="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="67" customFormat="1">
       <c r="A65" s="53">
         <v>64</v>
       </c>
-      <c r="B65" s="42">
-        <v>13000</v>
-      </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="F65" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="G65" s="51" t="s">
+      <c r="B65" s="91">
+        <v>12614</v>
+      </c>
+      <c r="C65" s="68"/>
+      <c r="D65" s="65">
+        <v>36</v>
+      </c>
+      <c r="E65" s="66">
+        <v>10</v>
+      </c>
+      <c r="F65" s="66">
+        <v>1055</v>
+      </c>
+      <c r="G65" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="29" customFormat="1">
+      <c r="H65" s="62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="67" customFormat="1">
       <c r="A66" s="53">
         <v>65</v>
       </c>
-      <c r="B66" s="42">
-        <v>13001</v>
-      </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F66" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="G66" s="51" t="s">
+      <c r="B66" s="91">
+        <v>12615</v>
+      </c>
+      <c r="C66" s="68"/>
+      <c r="D66" s="65">
+        <v>44</v>
+      </c>
+      <c r="E66" s="66">
+        <v>20</v>
+      </c>
+      <c r="F66" s="66">
+        <v>1056</v>
+      </c>
+      <c r="G66" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="29" customFormat="1">
+      <c r="H66" s="62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="67" customFormat="1">
       <c r="A67" s="53">
         <v>66</v>
       </c>
-      <c r="B67" s="42">
+      <c r="B67" s="91">
+        <v>12616</v>
+      </c>
+      <c r="C67" s="68"/>
+      <c r="D67" s="65">
+        <v>45</v>
+      </c>
+      <c r="E67" s="66">
+        <v>20</v>
+      </c>
+      <c r="F67" s="66">
+        <v>1057</v>
+      </c>
+      <c r="G67" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="67" customFormat="1">
+      <c r="A68" s="53">
+        <v>67</v>
+      </c>
+      <c r="B68" s="91">
+        <v>12617</v>
+      </c>
+      <c r="C68" s="68"/>
+      <c r="D68" s="65">
+        <v>46</v>
+      </c>
+      <c r="E68" s="66">
+        <v>20</v>
+      </c>
+      <c r="F68" s="66">
+        <v>1058</v>
+      </c>
+      <c r="G68" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="67" customFormat="1">
+      <c r="A69" s="53">
+        <v>68</v>
+      </c>
+      <c r="B69" s="91">
+        <v>12618</v>
+      </c>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65">
+        <v>47</v>
+      </c>
+      <c r="E69" s="66">
+        <v>1</v>
+      </c>
+      <c r="F69" s="66">
+        <v>1059</v>
+      </c>
+      <c r="G69" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="62" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="48" customFormat="1">
+      <c r="A70" s="53">
+        <v>69</v>
+      </c>
+      <c r="B70" s="91">
+        <v>12619</v>
+      </c>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53">
+        <v>48</v>
+      </c>
+      <c r="E70" s="46">
+        <v>5000000</v>
+      </c>
+      <c r="F70" s="66">
+        <v>1060</v>
+      </c>
+      <c r="G70" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="74" customFormat="1">
+      <c r="A71" s="53">
+        <v>70</v>
+      </c>
+      <c r="B71" s="91">
+        <v>12620</v>
+      </c>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73">
+        <v>19</v>
+      </c>
+      <c r="E71" s="73">
+        <v>1</v>
+      </c>
+      <c r="F71" s="66">
+        <v>1061</v>
+      </c>
+      <c r="G71" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="29" customFormat="1">
+      <c r="A72" s="53">
+        <v>71</v>
+      </c>
+      <c r="B72" s="42">
+        <v>13000</v>
+      </c>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="G72" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="29" customFormat="1">
+      <c r="A73" s="53">
+        <v>72</v>
+      </c>
+      <c r="B73" s="42">
+        <v>13001</v>
+      </c>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="G73" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="29" customFormat="1">
+      <c r="A74" s="53">
+        <v>73</v>
+      </c>
+      <c r="B74" s="42">
         <v>13002</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F67" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="G67" s="51" t="s">
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="F74" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="G74" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H67" s="55" t="s">
+      <c r="H74" s="55" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="F68" s="6"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="F71" s="6"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:8">
       <c r="F75" s="6"/>
+      <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8">
       <c r="F76" s="6"/>
-      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8">
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:8">
       <c r="F78" s="6"/>
+      <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8">
       <c r="F79" s="6"/>
-      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8">
       <c r="F80" s="6"/>
@@ -7419,20 +7927,20 @@
     </row>
     <row r="83" spans="6:8">
       <c r="F83" s="6"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="6:8">
       <c r="F84" s="6"/>
-      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8">
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="6:8">
       <c r="F86" s="6"/>
+      <c r="H86" s="1"/>
     </row>
     <row r="87" spans="6:8">
       <c r="F87" s="6"/>
-      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="6:8">
       <c r="F88" s="6"/>
@@ -7445,20 +7953,20 @@
     </row>
     <row r="91" spans="6:8">
       <c r="F91" s="6"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8">
       <c r="F92" s="6"/>
-      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="6:8">
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="6:8">
       <c r="F94" s="6"/>
+      <c r="H94" s="1"/>
     </row>
     <row r="95" spans="6:8">
       <c r="F95" s="6"/>
-      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="6:8">
       <c r="F96" s="6"/>
@@ -7471,20 +7979,20 @@
     </row>
     <row r="99" spans="6:8">
       <c r="F99" s="6"/>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="6:8">
       <c r="F100" s="6"/>
-      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="6:8">
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="6:8">
       <c r="F102" s="6"/>
+      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="6:8">
       <c r="F103" s="6"/>
-      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="6:8">
       <c r="F104" s="6"/>
@@ -7497,20 +8005,20 @@
     </row>
     <row r="107" spans="6:8">
       <c r="F107" s="6"/>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="6:8">
       <c r="F108" s="6"/>
-      <c r="H108" s="10"/>
     </row>
     <row r="109" spans="6:8">
       <c r="F109" s="6"/>
     </row>
     <row r="110" spans="6:8">
       <c r="F110" s="6"/>
+      <c r="H110" s="1"/>
     </row>
     <row r="111" spans="6:8">
       <c r="F111" s="6"/>
-      <c r="H111" s="1"/>
     </row>
     <row r="112" spans="6:8">
       <c r="F112" s="6"/>
@@ -7530,10 +8038,10 @@
     </row>
     <row r="117" spans="6:8">
       <c r="F117" s="6"/>
-      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="6:8">
       <c r="F118" s="6"/>
+      <c r="H118" s="1"/>
     </row>
     <row r="119" spans="6:8">
       <c r="F119" s="6"/>
@@ -7553,10 +8061,10 @@
     </row>
     <row r="124" spans="6:8">
       <c r="F124" s="6"/>
+      <c r="H124" s="1"/>
     </row>
     <row r="125" spans="6:8">
       <c r="F125" s="6"/>
-      <c r="H125" s="1"/>
     </row>
     <row r="126" spans="6:8">
       <c r="F126" s="6"/>
@@ -7569,15 +8077,13 @@
     </row>
     <row r="129" spans="6:8">
       <c r="F129" s="6"/>
-      <c r="H129" s="1"/>
+      <c r="H129" s="10"/>
     </row>
     <row r="130" spans="6:8">
       <c r="F130" s="6"/>
-      <c r="H130" s="1"/>
     </row>
     <row r="131" spans="6:8">
       <c r="F131" s="6"/>
-      <c r="H131" s="1"/>
     </row>
     <row r="132" spans="6:8">
       <c r="F132" s="6"/>
@@ -7585,15 +8091,12 @@
     </row>
     <row r="133" spans="6:8">
       <c r="F133" s="6"/>
-      <c r="H133" s="1"/>
     </row>
     <row r="134" spans="6:8">
       <c r="F134" s="6"/>
-      <c r="H134" s="1"/>
     </row>
     <row r="135" spans="6:8">
       <c r="F135" s="6"/>
-      <c r="H135" s="1"/>
     </row>
     <row r="136" spans="6:8">
       <c r="F136" s="6"/>
@@ -7838,6 +8341,34 @@
     <row r="196" spans="6:8">
       <c r="F196" s="6"/>
       <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="6:8">
+      <c r="F197" s="6"/>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="6:8">
+      <c r="F198" s="6"/>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="6:8">
+      <c r="F199" s="6"/>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="6:8">
+      <c r="F200" s="6"/>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="6:8">
+      <c r="F201" s="6"/>
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="6:8">
+      <c r="F202" s="6"/>
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="6:8">
+      <c r="F203" s="6"/>
+      <c r="H203" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7848,10 +8379,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81:D82"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8887,7 +9418,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D73" s="35">
         <v>0</v>
@@ -8901,7 +9432,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D74" s="35">
         <v>0</v>
@@ -8985,7 +9516,7 @@
         <v>37</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D80" s="35">
         <v>0</v>
@@ -8999,7 +9530,7 @@
         <v>37</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D81" s="35">
         <v>0</v>
@@ -9013,7 +9544,7 @@
         <v>37</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D82" s="35">
         <v>0</v>
@@ -9027,7 +9558,7 @@
         <v>38</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D83" s="35">
         <v>1024</v>
@@ -9041,7 +9572,7 @@
         <v>39</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D84" s="35">
         <v>1025</v>
@@ -9055,7 +9586,7 @@
         <v>40</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D85" s="35">
         <v>1026</v>
@@ -9069,7 +9600,7 @@
         <v>41</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D86" s="35">
         <v>1027</v>
@@ -9083,7 +9614,7 @@
         <v>42</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D87" s="35">
         <v>1028</v>
@@ -9097,10 +9628,178 @@
         <v>43</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D88" s="35">
         <v>1029</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="24">
+        <v>88</v>
+      </c>
+      <c r="B89" s="33">
+        <v>44</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D89" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="24">
+        <v>89</v>
+      </c>
+      <c r="B90" s="33">
+        <v>45</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D90" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="24">
+        <v>90</v>
+      </c>
+      <c r="B91" s="33">
+        <v>46</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91" s="35">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="24">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>47</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" s="35">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="24">
+        <v>92</v>
+      </c>
+      <c r="B93" s="33">
+        <v>48</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="24">
+        <v>93</v>
+      </c>
+      <c r="B94" s="33">
+        <v>48</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="24">
+        <v>94</v>
+      </c>
+      <c r="B95" s="33">
+        <v>48</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="24">
+        <v>95</v>
+      </c>
+      <c r="B96" s="33">
+        <v>48</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" s="35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="24">
+        <v>96</v>
+      </c>
+      <c r="B97" s="33">
+        <v>48</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="24">
+        <v>97</v>
+      </c>
+      <c r="B98" s="33">
+        <v>48</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="D98" s="35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="24">
+        <v>98</v>
+      </c>
+      <c r="B99" s="33">
+        <v>48</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" s="35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="24">
+        <v>99</v>
+      </c>
+      <c r="B100" s="33">
+        <v>48</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D100" s="35">
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -9112,10 +9811,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9123,7 +9822,7 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="143.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="125.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
   </cols>
@@ -9497,7 +10196,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E21" s="14">
         <v>2</v>
@@ -9566,7 +10265,7 @@
         <v>1024</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -9583,7 +10282,7 @@
         <v>1025</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -9600,7 +10299,7 @@
         <v>1026</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -9617,7 +10316,7 @@
         <v>1027</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -9634,10 +10333,10 @@
         <v>1028</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -9651,12 +10350,63 @@
         <v>1029</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1030</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1031</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" s="1">
         <v>3</v>
       </c>
     </row>
@@ -9669,10 +10419,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10221,7 +10971,7 @@
         <v>1014</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D29" s="15">
         <v>30</v>
@@ -10903,7 +11653,7 @@
         <v>1034</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D68" s="63">
         <v>500</v>
@@ -10920,7 +11670,7 @@
         <v>1034</v>
       </c>
       <c r="C69" s="64" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D69" s="63">
         <v>5</v>
@@ -10938,7 +11688,7 @@
         <v>1035</v>
       </c>
       <c r="C70" s="64" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D70" s="63">
         <v>1000</v>
@@ -10956,7 +11706,7 @@
         <v>1035</v>
       </c>
       <c r="C71" s="64" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D71" s="63">
         <v>5</v>
@@ -10974,7 +11724,7 @@
         <v>1036</v>
       </c>
       <c r="C72" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D72" s="63">
         <v>1000</v>
@@ -10992,7 +11742,7 @@
         <v>1036</v>
       </c>
       <c r="C73" s="64" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D73" s="63">
         <v>10</v>
@@ -11010,7 +11760,7 @@
         <v>1037</v>
       </c>
       <c r="C74" s="64" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D74" s="63">
         <v>1000</v>
@@ -11028,7 +11778,7 @@
         <v>1037</v>
       </c>
       <c r="C75" s="64" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D75" s="63">
         <v>10</v>
@@ -11046,7 +11796,7 @@
         <v>1038</v>
       </c>
       <c r="C76" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D76" s="63">
         <v>1000</v>
@@ -11064,7 +11814,7 @@
         <v>1038</v>
       </c>
       <c r="C77" s="64" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D77" s="63">
         <v>10</v>
@@ -11082,7 +11832,7 @@
         <v>1039</v>
       </c>
       <c r="C78" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D78" s="63">
         <v>2000</v>
@@ -11100,7 +11850,7 @@
         <v>1039</v>
       </c>
       <c r="C79" s="64" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D79" s="63">
         <v>20</v>
@@ -11118,7 +11868,7 @@
         <v>1040</v>
       </c>
       <c r="C80" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D80" s="63">
         <v>3000</v>
@@ -11136,7 +11886,7 @@
         <v>1040</v>
       </c>
       <c r="C81" s="64" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D81" s="63">
         <v>30</v>
@@ -11154,7 +11904,7 @@
         <v>1041</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D82" s="60">
         <v>200</v>
@@ -11172,7 +11922,7 @@
         <v>1041</v>
       </c>
       <c r="C83" s="61" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D83" s="60">
         <v>5</v>
@@ -11190,7 +11940,7 @@
         <v>1042</v>
       </c>
       <c r="C84" s="61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D84" s="60">
         <v>1000</v>
@@ -11208,7 +11958,7 @@
         <v>1042</v>
       </c>
       <c r="C85" s="61" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D85" s="60">
         <v>5</v>
@@ -11226,7 +11976,7 @@
         <v>1043</v>
       </c>
       <c r="C86" s="61" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D86" s="60">
         <v>2000</v>
@@ -11244,7 +11994,7 @@
         <v>1043</v>
       </c>
       <c r="C87" s="61" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D87" s="60">
         <v>10</v>
@@ -11262,7 +12012,7 @@
         <v>1044</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="60">
         <v>2000</v>
@@ -11280,7 +12030,7 @@
         <v>1044</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D89" s="60">
         <v>10</v>
@@ -11298,7 +12048,7 @@
         <v>1045</v>
       </c>
       <c r="C90" s="61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="60">
         <v>3000</v>
@@ -11316,7 +12066,7 @@
         <v>1045</v>
       </c>
       <c r="C91" s="61" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D91" s="60">
         <v>10</v>
@@ -11334,7 +12084,7 @@
         <v>1046</v>
       </c>
       <c r="C92" s="61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D92" s="60">
         <v>5000</v>
@@ -11352,7 +12102,7 @@
         <v>1046</v>
       </c>
       <c r="C93" s="61" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D93" s="60">
         <v>20</v>
@@ -11370,7 +12120,7 @@
         <v>1047</v>
       </c>
       <c r="C94" s="61" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D94" s="60">
         <v>10000</v>
@@ -11388,7 +12138,7 @@
         <v>1047</v>
       </c>
       <c r="C95" s="61" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D95" s="60">
         <v>30</v>
@@ -11414,7 +12164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="15" customFormat="1">
+    <row r="97" spans="1:7" s="15" customFormat="1">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -11422,7 +12172,7 @@
         <v>1048</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D97" s="15">
         <v>30</v>
@@ -11431,7 +12181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="15" customFormat="1">
+    <row r="98" spans="1:7" s="15" customFormat="1">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -11448,7 +12198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="15" customFormat="1">
+    <row r="99" spans="1:7" s="15" customFormat="1">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -11456,7 +12206,7 @@
         <v>1049</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D99" s="15">
         <v>50</v>
@@ -11465,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="15" customFormat="1">
+    <row r="100" spans="1:7" s="15" customFormat="1">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -11482,7 +12232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="15" customFormat="1">
+    <row r="101" spans="1:7" s="15" customFormat="1">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -11490,7 +12240,7 @@
         <v>1050</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D101" s="15">
         <v>20</v>
@@ -11499,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="15" customFormat="1">
+    <row r="102" spans="1:7" s="15" customFormat="1">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -11516,7 +12266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="15" customFormat="1">
+    <row r="103" spans="1:7" s="15" customFormat="1">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -11524,7 +12274,7 @@
         <v>1051</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D103" s="15">
         <v>30</v>
@@ -11533,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="15" customFormat="1">
+    <row r="104" spans="1:7" s="15" customFormat="1">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -11550,7 +12300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="15" customFormat="1">
+    <row r="105" spans="1:7" s="15" customFormat="1">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -11558,7 +12308,7 @@
         <v>1052</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D105" s="15">
         <v>30</v>
@@ -11567,7 +12317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="15" customFormat="1">
+    <row r="106" spans="1:7" s="15" customFormat="1">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -11575,7 +12325,7 @@
         <v>1053</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="D106" s="15">
         <v>100</v>
@@ -11587,7 +12337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="15" customFormat="1">
+    <row r="107" spans="1:7" s="15" customFormat="1">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -11595,7 +12345,7 @@
         <v>1053</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D107" s="15">
         <v>10</v>
@@ -11604,7 +12354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="15" customFormat="1">
+    <row r="108" spans="1:7" s="15" customFormat="1">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -11618,7 +12368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="15" customFormat="1">
+    <row r="109" spans="1:7" s="15" customFormat="1">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -11626,301 +12376,274 @@
         <v>1054</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D109" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1">
+      <c r="E109" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="92" customFormat="1">
       <c r="A110" s="15">
         <v>109</v>
       </c>
-      <c r="B110" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D110" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E110" s="21">
-        <v>1</v>
-      </c>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="B110" s="92">
+        <v>1055</v>
+      </c>
+      <c r="C110" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D110" s="92">
+        <v>500</v>
+      </c>
+      <c r="E110" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="92" customFormat="1">
       <c r="A111" s="15">
         <v>110</v>
       </c>
-      <c r="B111" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D111" s="21">
-        <v>2</v>
-      </c>
-      <c r="E111" s="21">
-        <v>1</v>
-      </c>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="B111" s="92">
+        <v>1055</v>
+      </c>
+      <c r="C111" s="94" t="s">
+        <v>347</v>
+      </c>
+      <c r="D111" s="92">
+        <v>10</v>
+      </c>
+      <c r="E111" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="92" customFormat="1">
       <c r="A112" s="15">
         <v>111</v>
       </c>
-      <c r="B112" s="21">
-        <v>2002</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D112" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E112" s="21">
-        <v>1</v>
-      </c>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="B112" s="92">
+        <f>B110+1</f>
+        <v>1056</v>
+      </c>
+      <c r="C112" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D112" s="92">
+        <v>1000</v>
+      </c>
+      <c r="E112" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="92" customFormat="1">
       <c r="A113" s="15">
         <v>112</v>
       </c>
-      <c r="B113" s="21">
-        <v>2002</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D113" s="21">
-        <v>1</v>
-      </c>
-      <c r="E113" s="21">
-        <v>1</v>
-      </c>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="B113" s="92">
+        <f t="shared" ref="B113:B123" si="3">B111+1</f>
+        <v>1056</v>
+      </c>
+      <c r="C113" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D113" s="92">
+        <v>20</v>
+      </c>
+      <c r="E113" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="92" customFormat="1">
       <c r="A114" s="15">
         <v>113</v>
       </c>
-      <c r="B114" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D114" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E114" s="21">
-        <v>1</v>
-      </c>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="B114" s="92">
+        <f t="shared" si="3"/>
+        <v>1057</v>
+      </c>
+      <c r="C114" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" s="92">
+        <v>1000</v>
+      </c>
+      <c r="E114" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="92" customFormat="1">
       <c r="A115" s="15">
         <v>114</v>
       </c>
-      <c r="B115" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D115" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E115" s="21">
-        <v>1</v>
-      </c>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="B115" s="92">
+        <f t="shared" si="3"/>
+        <v>1057</v>
+      </c>
+      <c r="C115" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D115" s="92">
+        <v>20</v>
+      </c>
+      <c r="E115" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="92" customFormat="1">
       <c r="A116" s="15">
         <v>115</v>
       </c>
-      <c r="B116" s="21">
-        <v>2004</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D116" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E116" s="21">
-        <v>1</v>
-      </c>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="B116" s="92">
+        <f t="shared" si="3"/>
+        <v>1058</v>
+      </c>
+      <c r="C116" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D116" s="92">
+        <v>2000</v>
+      </c>
+      <c r="E116" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="92" customFormat="1">
       <c r="A117" s="15">
         <v>116</v>
       </c>
-      <c r="B117" s="21">
-        <v>2004</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D117" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E117" s="21">
-        <v>1</v>
-      </c>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="21"/>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="B117" s="92">
+        <f t="shared" si="3"/>
+        <v>1058</v>
+      </c>
+      <c r="C117" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="D117" s="92">
+        <v>30</v>
+      </c>
+      <c r="E117" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="92" customFormat="1">
       <c r="A118" s="15">
         <v>117</v>
       </c>
-      <c r="B118" s="21">
-        <v>2005</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" s="21">
-        <v>60000</v>
-      </c>
-      <c r="E118" s="21">
-        <v>1</v>
-      </c>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="B118" s="92">
+        <f t="shared" si="3"/>
+        <v>1059</v>
+      </c>
+      <c r="C118" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D118" s="92">
+        <v>3000</v>
+      </c>
+      <c r="E118" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="92" customFormat="1">
       <c r="A119" s="15">
         <v>118</v>
       </c>
-      <c r="B119" s="21">
-        <v>2006</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="D119" s="21">
-        <v>2000</v>
-      </c>
-      <c r="E119" s="21">
-        <v>1</v>
-      </c>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="B119" s="92">
+        <f t="shared" si="3"/>
+        <v>1059</v>
+      </c>
+      <c r="C119" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D119" s="92">
+        <v>30</v>
+      </c>
+      <c r="E119" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="92" customFormat="1">
       <c r="A120" s="15">
         <v>119</v>
       </c>
-      <c r="B120" s="21">
-        <v>2007</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D120" s="21">
-        <v>1</v>
-      </c>
-      <c r="E120" s="21">
-        <v>1</v>
-      </c>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="B120" s="92">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
+      <c r="C120" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D120" s="92">
+        <v>5000</v>
+      </c>
+      <c r="E120" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="92" customFormat="1">
       <c r="A121" s="15">
         <v>120</v>
       </c>
-      <c r="B121" s="21">
-        <v>2007</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D121" s="21">
-        <v>3000</v>
-      </c>
-      <c r="E121" s="21">
-        <v>1</v>
-      </c>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="B121" s="92">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
+      <c r="C121" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D121" s="92">
+        <v>30</v>
+      </c>
+      <c r="E121" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="92" customFormat="1">
       <c r="A122" s="15">
         <v>121</v>
       </c>
-      <c r="B122" s="21">
-        <v>2008</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D122" s="21">
-        <v>3000</v>
-      </c>
-      <c r="E122" s="21">
-        <v>1</v>
-      </c>
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="B122" s="92">
+        <f t="shared" si="3"/>
+        <v>1061</v>
+      </c>
+      <c r="C122" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D122" s="92">
+        <v>20000</v>
+      </c>
+      <c r="E122" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="92" customFormat="1">
       <c r="A123" s="15">
         <v>122</v>
       </c>
-      <c r="B123" s="21">
-        <v>2008</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D123" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E123" s="21">
-        <v>1</v>
-      </c>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="B123" s="92">
+        <f t="shared" si="3"/>
+        <v>1061</v>
+      </c>
+      <c r="C123" s="94" t="s">
+        <v>349</v>
+      </c>
+      <c r="D123" s="92">
+        <v>50</v>
+      </c>
+      <c r="E123" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" customHeight="1">
       <c r="A124" s="15">
         <v>123</v>
       </c>
       <c r="B124" s="21">
-        <v>2009</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>252</v>
+        <v>2001</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="D124" s="21">
         <v>5000</v>
@@ -11937,13 +12660,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="21">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="D125" s="21">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="E125" s="21">
         <v>1</v>
@@ -11957,10 +12680,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="21">
-        <v>2010</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>160</v>
+        <v>2002</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="D126" s="21">
         <v>10000</v>
@@ -11976,16 +12699,16 @@
       <c r="A127" s="15">
         <v>126</v>
       </c>
-      <c r="B127" s="75">
-        <v>2011</v>
-      </c>
-      <c r="C127" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="D127" s="75">
-        <v>1500</v>
-      </c>
-      <c r="E127" s="75">
+      <c r="B127" s="21">
+        <v>2002</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" s="21">
+        <v>1</v>
+      </c>
+      <c r="E127" s="21">
         <v>1</v>
       </c>
       <c r="F127" s="21"/>
@@ -11996,16 +12719,16 @@
       <c r="A128" s="15">
         <v>127</v>
       </c>
-      <c r="B128" s="75">
-        <v>2011</v>
-      </c>
-      <c r="C128" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="D128" s="75">
-        <v>1</v>
-      </c>
-      <c r="E128" s="75">
+      <c r="B128" s="21">
+        <v>2003</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E128" s="21">
         <v>1</v>
       </c>
       <c r="F128" s="21"/>
@@ -12016,16 +12739,16 @@
       <c r="A129" s="15">
         <v>128</v>
       </c>
-      <c r="B129" s="75">
-        <v>2012</v>
-      </c>
-      <c r="C129" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="D129" s="75">
-        <v>3000</v>
-      </c>
-      <c r="E129" s="75">
+      <c r="B129" s="21">
+        <v>2003</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E129" s="21">
         <v>1</v>
       </c>
       <c r="F129" s="21"/>
@@ -12036,16 +12759,16 @@
       <c r="A130" s="15">
         <v>129</v>
       </c>
-      <c r="B130" s="75">
-        <v>2012</v>
-      </c>
-      <c r="C130" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D130" s="75">
-        <v>1</v>
-      </c>
-      <c r="E130" s="75">
+      <c r="B130" s="21">
+        <v>2004</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E130" s="21">
         <v>1</v>
       </c>
       <c r="F130" s="21"/>
@@ -12056,16 +12779,16 @@
       <c r="A131" s="15">
         <v>130</v>
       </c>
-      <c r="B131" s="75">
-        <v>2013</v>
-      </c>
-      <c r="C131" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="D131" s="75">
-        <v>3000</v>
-      </c>
-      <c r="E131" s="75">
+      <c r="B131" s="21">
+        <v>2004</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D131" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E131" s="21">
         <v>1</v>
       </c>
       <c r="F131" s="21"/>
@@ -12076,104 +12799,309 @@
       <c r="A132" s="15">
         <v>131</v>
       </c>
-      <c r="B132" s="75">
-        <v>2013</v>
-      </c>
-      <c r="C132" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="D132" s="75">
-        <v>3000</v>
-      </c>
-      <c r="E132" s="75">
+      <c r="B132" s="21">
+        <v>2005</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D132" s="21">
+        <v>60000</v>
+      </c>
+      <c r="E132" s="21">
         <v>1</v>
       </c>
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" s="92" customFormat="1">
       <c r="A133" s="15">
         <v>132</v>
       </c>
-      <c r="B133" s="75">
-        <v>2014</v>
-      </c>
-      <c r="C133" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="D133" s="75">
-        <v>3000</v>
-      </c>
-      <c r="E133" s="75">
-        <v>1</v>
-      </c>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="B133" s="92">
+        <v>2006</v>
+      </c>
+      <c r="C133" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" s="92">
+        <v>1500</v>
+      </c>
+      <c r="E133" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="92" customFormat="1">
       <c r="A134" s="15">
         <v>133</v>
       </c>
-      <c r="B134" s="75">
-        <v>2014</v>
-      </c>
-      <c r="C134" s="76" t="s">
+      <c r="B134" s="92">
+        <v>2007</v>
+      </c>
+      <c r="C134" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="D134" s="75">
+      <c r="D134" s="92">
         <v>3000</v>
       </c>
-      <c r="E134" s="75">
-        <v>1</v>
-      </c>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="E134" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="92" customFormat="1">
       <c r="A135" s="15">
         <v>134</v>
       </c>
-      <c r="B135" s="75">
-        <v>2015</v>
-      </c>
-      <c r="C135" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D135" s="75">
-        <v>20000</v>
-      </c>
-      <c r="E135" s="75">
-        <v>1</v>
-      </c>
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="B135" s="92">
+        <v>2008</v>
+      </c>
+      <c r="C135" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="D135" s="92">
+        <v>6000</v>
+      </c>
+      <c r="E135" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="92" customFormat="1">
       <c r="A136" s="15">
         <v>135</v>
       </c>
-      <c r="B136" s="75">
+      <c r="B136" s="92">
+        <v>2009</v>
+      </c>
+      <c r="C136" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D136" s="92">
+        <v>8000</v>
+      </c>
+      <c r="E136" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="92" customFormat="1">
+      <c r="A137" s="15">
+        <v>136</v>
+      </c>
+      <c r="B137" s="92">
+        <v>2010</v>
+      </c>
+      <c r="C137" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137" s="92">
+        <v>15000</v>
+      </c>
+      <c r="E137" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="15">
+        <v>137</v>
+      </c>
+      <c r="B138" s="75">
+        <v>2011</v>
+      </c>
+      <c r="C138" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D138" s="75">
+        <v>1500</v>
+      </c>
+      <c r="E138" s="75">
+        <v>1</v>
+      </c>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="15">
+        <v>138</v>
+      </c>
+      <c r="B139" s="75">
+        <v>2011</v>
+      </c>
+      <c r="C139" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D139" s="75">
+        <v>1</v>
+      </c>
+      <c r="E139" s="75">
+        <v>1</v>
+      </c>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="15">
+        <v>139</v>
+      </c>
+      <c r="B140" s="75">
+        <v>2012</v>
+      </c>
+      <c r="C140" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D140" s="75">
+        <v>3000</v>
+      </c>
+      <c r="E140" s="75">
+        <v>1</v>
+      </c>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="15">
+        <v>140</v>
+      </c>
+      <c r="B141" s="75">
+        <v>2012</v>
+      </c>
+      <c r="C141" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="75">
+        <v>1</v>
+      </c>
+      <c r="E141" s="75">
+        <v>1</v>
+      </c>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="15">
+        <v>141</v>
+      </c>
+      <c r="B142" s="75">
+        <v>2013</v>
+      </c>
+      <c r="C142" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D142" s="75">
+        <v>3000</v>
+      </c>
+      <c r="E142" s="75">
+        <v>1</v>
+      </c>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="15">
+        <v>142</v>
+      </c>
+      <c r="B143" s="75">
+        <v>2013</v>
+      </c>
+      <c r="C143" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D143" s="75">
+        <v>3000</v>
+      </c>
+      <c r="E143" s="75">
+        <v>1</v>
+      </c>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="15">
+        <v>143</v>
+      </c>
+      <c r="B144" s="75">
+        <v>2014</v>
+      </c>
+      <c r="C144" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D144" s="75">
+        <v>3000</v>
+      </c>
+      <c r="E144" s="75">
+        <v>1</v>
+      </c>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="15">
+        <v>144</v>
+      </c>
+      <c r="B145" s="75">
+        <v>2014</v>
+      </c>
+      <c r="C145" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D145" s="75">
+        <v>3000</v>
+      </c>
+      <c r="E145" s="75">
+        <v>1</v>
+      </c>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="15">
+        <v>145</v>
+      </c>
+      <c r="B146" s="75">
         <v>2015</v>
       </c>
-      <c r="C136" s="76" t="s">
+      <c r="C146" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D146" s="75">
+        <v>20000</v>
+      </c>
+      <c r="E146" s="75">
+        <v>1</v>
+      </c>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="15">
+        <v>146</v>
+      </c>
+      <c r="B147" s="75">
+        <v>2015</v>
+      </c>
+      <c r="C147" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="D136" s="75">
-        <v>1</v>
-      </c>
-      <c r="E136" s="75">
-        <v>1</v>
-      </c>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
+      <c r="D147" s="75">
+        <v>1</v>
+      </c>
+      <c r="E147" s="75">
+        <v>1</v>
+      </c>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C136"/>
+  <autoFilter ref="C1:C147"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_Release/task_fish_daily_server.xlsx
+++ b/config_Release/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1372,10 +1372,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>龙王争霸游戏20次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>西游消消乐游戏20次</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1392,10 +1388,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>lwzb_game_num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>p_task_fish_daily_cpl_cjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1461,6 +1453,14 @@
   </si>
   <si>
     <t>水果消消乐出现一次幸运时刻（单局至少投入30000）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国消消乐游戏20次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">xiaoxiaole_sanguo_game_num </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2227,7 +2227,7 @@
   <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5040,10 +5040,10 @@
         <v>334</v>
       </c>
       <c r="E72" s="91" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F72" s="91" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G72" s="91">
         <v>12614</v>
@@ -5076,13 +5076,13 @@
         <v>333</v>
       </c>
       <c r="D73" s="91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E73" s="91" t="s">
         <v>262</v>
       </c>
       <c r="F73" s="91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G73" s="91">
         <v>12615</v>
@@ -5115,7 +5115,7 @@
         <v>333</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E74" s="91" t="s">
         <v>262</v>
@@ -5154,13 +5154,13 @@
         <v>333</v>
       </c>
       <c r="D75" s="91" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="E75" s="91" t="s">
         <v>262</v>
       </c>
       <c r="F75" s="91" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G75" s="91">
         <v>12617</v>
@@ -5193,13 +5193,13 @@
         <v>176</v>
       </c>
       <c r="D76" s="91" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E76" s="91" t="s">
         <v>262</v>
       </c>
       <c r="F76" s="91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G76" s="91">
         <v>12618</v>
@@ -5232,13 +5232,13 @@
         <v>176</v>
       </c>
       <c r="D77" s="91" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E77" s="91" t="s">
         <v>262</v>
       </c>
       <c r="F77" s="91" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G77" s="91">
         <v>12619</v>
@@ -5274,7 +5274,7 @@
         <v>226</v>
       </c>
       <c r="E78" s="91" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F78" s="91" t="s">
         <v>15</v>
@@ -5355,7 +5355,7 @@
         <v>264</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G80" s="41">
         <v>13001</v>
@@ -5394,7 +5394,7 @@
         <v>316</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G81" s="41">
         <v>13002</v>
@@ -6108,9 +6108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="A57:D57"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7782,7 +7782,7 @@
         <v>40</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="48" customFormat="1">
@@ -7806,7 +7806,7 @@
         <v>40</v>
       </c>
       <c r="H70" s="45" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="74" customFormat="1">
@@ -8381,8 +8381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9642,7 +9642,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D89" s="35">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>45</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D90" s="35">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>46</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="D91" s="35">
         <v>1032</v>
@@ -9814,7 +9814,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10387,7 +10387,7 @@
         <v>300</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -10404,7 +10404,7 @@
         <v>300</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -12325,7 +12325,7 @@
         <v>1053</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D106" s="15">
         <v>100</v>
@@ -12410,7 +12410,7 @@
         <v>1055</v>
       </c>
       <c r="C111" s="94" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D111" s="92">
         <v>10</v>
@@ -12518,7 +12518,7 @@
         <v>1058</v>
       </c>
       <c r="C117" s="94" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D117" s="92">
         <v>30</v>
@@ -12626,7 +12626,7 @@
         <v>1061</v>
       </c>
       <c r="C123" s="94" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D123" s="92">
         <v>50</v>
